--- a/backend/reports_files/reporte_consolidado_2025_07.xlsx
+++ b/backend/reports_files/reporte_consolidado_2025_07.xlsx
@@ -513,7 +513,7 @@
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Generado: 12/07/2025 17:16 | Total de Tickets: 146</t>
+          <t>Generado: 13/07/2025 08:06 | Total de Tickets: 146</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>resuelto</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>asignado</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:18</t>
         </is>
       </c>
       <c r="H40" s="6" t="inlineStr">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="J40" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:18</t>
         </is>
       </c>
       <c r="K40" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>TEST RESOLUTION NOTES for TKT-000106 - This should appear in email notifications</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="K41" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>resolucion 2</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="K42" s="6" t="inlineStr">
         <is>
-          <t>resolucion 2</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G76" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:19</t>
         </is>
       </c>
       <c r="H76" s="6" t="inlineStr">
@@ -4555,12 +4555,12 @@
       </c>
       <c r="J76" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:19</t>
         </is>
       </c>
       <c r="K76" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>prueba de que si se resolvvio ticket 65</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="D77" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="G77" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:27</t>
         </is>
       </c>
       <c r="H77" s="6" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="J77" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:27</t>
         </is>
       </c>
       <c r="K77" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>resolucion ticket 64</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="K144" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>34343434</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="K145" s="6" t="inlineStr">
         <is>
-          <t>34343434</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="K146" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>prueba de resolucion 40</t>
         </is>
       </c>
     </row>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="K147" s="6" t="inlineStr">
         <is>
-          <t>prueba de resolucion 40</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>

--- a/backend/reports_files/reporte_consolidado_2025_07.xlsx
+++ b/backend/reports_files/reporte_consolidado_2025_07.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Generado: 13/07/2025 08:06 | Total de Tickets: 146</t>
+          <t>Generado: 15/07/2025 05:58 | Total de Tickets: 147</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:07</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
@@ -679,19 +679,19 @@
       </c>
       <c r="J8" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:07</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>prueba de que si se resolvio</t>
+          <t>prueba de resolucion 2 ticket 142</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>TKT-000141</t>
+          <t>TKT-000142</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>prueba de ticket abierto</t>
+          <t>asasasasajklsj</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 17:02</t>
+          <t>12/07/2025 17:07</t>
         </is>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:04</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="H9" s="6" t="inlineStr">
@@ -736,19 +736,19 @@
       </c>
       <c r="J9" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:04</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="K9" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>prueba de que si se resolvio</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>TKT-000140</t>
+          <t>TKT-000141</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>prueba desde correo 8:31</t>
+          <t>prueba de ticket abierto</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -773,17 +773,17 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 08:34</t>
+          <t>12/07/2025 17:02</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 13:30</t>
+          <t>12/07/2025 23:04</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I10" s="6" t="inlineStr">
@@ -793,19 +793,19 @@
       </c>
       <c r="J10" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 13:30</t>
+          <t>12/07/2025 23:04</t>
         </is>
       </c>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>resolucion proporcionada por benjamin aharonov</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>TKT-000139</t>
+          <t>TKT-000140</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>prueba desde correo 8:31</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 06:34</t>
+          <t>11/07/2025 08:34</t>
         </is>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:34</t>
+          <t>12/07/2025 13:30</t>
         </is>
       </c>
       <c r="H11" s="6" t="inlineStr">
@@ -850,19 +850,19 @@
       </c>
       <c r="J11" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:34</t>
+          <t>12/07/2025 13:30</t>
         </is>
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>resolucion proporcionada por benjamin aharonov</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>TKT-000138</t>
+          <t>TKT-000139</t>
         </is>
       </c>
       <c r="B12" s="6" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>prueba 6:56</t>
+          <t>sdsd</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 18:59</t>
+          <t>11/07/2025 06:34</t>
         </is>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>11/07/2025 12:34</t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I12" s="6" t="inlineStr">
@@ -907,19 +907,19 @@
       </c>
       <c r="J12" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>11/07/2025 12:34</t>
         </is>
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>TKT-000137</t>
+          <t>TKT-000138</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>prueba 6:55</t>
+          <t>prueba 6:56</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 18:55</t>
+          <t>10/07/2025 18:59</t>
         </is>
       </c>
       <c r="G13" s="6" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I13" s="6" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>TKT-000131</t>
+          <t>TKT-000137</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>prueba 4:40 sdsds</t>
+          <t>prueba 6:55</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:42</t>
+          <t>10/07/2025 18:55</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>TKT-000127</t>
+          <t>TKT-000131</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>Prueba de timezone - 4:16 PM</t>
+          <t>prueba 4:40 sdsds</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F16" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:14</t>
+          <t>09/07/2025 22:42</t>
         </is>
       </c>
       <c r="G16" s="6" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I16" s="6" t="inlineStr">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="K16" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>resuelto</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>TKT-000126</t>
+          <t>TKT-000127</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>Prueba con teléfono de contacto</t>
+          <t>Prueba de timezone - 4:16 PM</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:02</t>
+          <t>09/07/2025 22:14</t>
         </is>
       </c>
       <c r="G17" s="6" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I17" s="6" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>TKT-000125</t>
+          <t>TKT-000126</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>prueba de asunto</t>
+          <t>Prueba con teléfono de contacto</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 21:58</t>
+          <t>09/07/2025 22:02</t>
         </is>
       </c>
       <c r="G18" s="6" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>Usuario Test API</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I18" s="6" t="inlineStr">
@@ -1261,7 +1261,7 @@
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>TKT-000124</t>
+          <t>TKT-000125</t>
         </is>
       </c>
       <c r="B19" s="6" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>prueba de asunto</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>Usuario Test API</t>
         </is>
       </c>
       <c r="I19" s="6" t="inlineStr">
@@ -1318,7 +1318,7 @@
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>TKT-000136</t>
+          <t>TKT-000124</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>prueba 8:54 pm</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -1343,17 +1343,17 @@
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 20:58</t>
+          <t>09/07/2025 21:58</t>
         </is>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I20" s="6" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="J20" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="K20" s="6" t="inlineStr">
@@ -1375,7 +1375,7 @@
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>TKT-000135</t>
+          <t>TKT-000136</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>prueba 8:10 pm</t>
+          <t>prueba 8:54 pm</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -1400,17 +1400,17 @@
       </c>
       <c r="F21" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 20:09</t>
+          <t>09/07/2025 20:58</t>
         </is>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I21" s="6" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="J21" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="K21" s="6" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>TKT-000134</t>
+          <t>TKT-000135</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>prueba 7:32</t>
+          <t>prueba 8:10 pm</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 19:32</t>
+          <t>09/07/2025 20:09</t>
         </is>
       </c>
       <c r="G22" s="6" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I22" s="6" t="inlineStr">
@@ -1489,7 +1489,7 @@
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>TKT-000133</t>
+          <t>TKT-000134</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>prueba ticket 7:27</t>
+          <t>prueba 7:32</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="F23" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 19:29</t>
+          <t>09/07/2025 19:32</t>
         </is>
       </c>
       <c r="G23" s="6" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>Usuario Test API</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I23" s="6" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>TKT-000132</t>
+          <t>TKT-000133</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>prueba de decripcion</t>
+          <t>prueba ticket 7:27</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F24" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 17:14</t>
+          <t>09/07/2025 19:29</t>
         </is>
       </c>
       <c r="G24" s="6" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Usuario Test API</t>
         </is>
       </c>
       <c r="I24" s="6" t="inlineStr">
@@ -1603,7 +1603,7 @@
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>TKT-000130</t>
+          <t>TKT-000132</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>TIMEZONE FIX TEST - 4:38 PM - EDITADO VIA CURL</t>
+          <t>prueba de decripcion</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 16:39</t>
+          <t>09/07/2025 17:14</t>
         </is>
       </c>
       <c r="G25" s="6" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I25" s="6" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>TKT-000129</t>
+          <t>TKT-000130</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>Test directo DB 4:18 PM</t>
+          <t>TIMEZONE FIX TEST - 4:38 PM - EDITADO VIA CURL</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 16:36</t>
+          <t>09/07/2025 16:39</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I26" s="6" t="inlineStr">
@@ -1717,7 +1717,7 @@
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>TKT-000123</t>
+          <t>TKT-000129</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>prueba 10:12 am</t>
+          <t>Test directo DB 4:18 PM</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 16:12</t>
+          <t>09/07/2025 16:36</t>
         </is>
       </c>
       <c r="G27" s="6" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="I27" s="6" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>TKT-000120</t>
+          <t>TKT-000123</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>prueba 10:12 am</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 14:41</t>
+          <t>09/07/2025 16:12</t>
         </is>
       </c>
       <c r="G28" s="6" t="inlineStr">
@@ -1831,7 +1831,7 @@
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>TKT-000117</t>
+          <t>TKT-000120</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>sddsds</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>baja</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 21:42</t>
+          <t>09/07/2025 14:41</t>
         </is>
       </c>
       <c r="G29" s="6" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I29" s="6" t="inlineStr">
@@ -1888,17 +1888,17 @@
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>TKT-000116</t>
+          <t>TKT-000117</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>Ticket Test API</t>
+          <t>sddsds</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>baja</t>
         </is>
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:44</t>
+          <t>08/07/2025 21:42</t>
         </is>
       </c>
       <c r="G30" s="6" t="inlineStr">
@@ -1923,12 +1923,12 @@
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I30" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J30" s="6" t="inlineStr">
@@ -1938,24 +1938,24 @@
       </c>
       <c r="K30" s="6" t="inlineStr">
         <is>
-          <t>dffdf</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
         <is>
-          <t>TKT-000115</t>
+          <t>TKT-000116</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>Ticket Test API</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:15</t>
+          <t>08/07/2025 11:44</t>
         </is>
       </c>
       <c r="G31" s="6" t="inlineStr">
@@ -1980,12 +1980,12 @@
       </c>
       <c r="H31" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I31" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J31" s="6" t="inlineStr">
@@ -1995,14 +1995,14 @@
       </c>
       <c r="K31" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>dffdf</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
         <is>
-          <t>TKT-000114</t>
+          <t>TKT-000115</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>aasa</t>
+          <t>sdsd</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="F32" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:02</t>
+          <t>08/07/2025 11:15</t>
         </is>
       </c>
       <c r="G32" s="6" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="H32" s="6" t="inlineStr">
         <is>
-          <t>Benjamin Aharonov</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I32" s="6" t="inlineStr">
@@ -2059,7 +2059,7 @@
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>TKT-000113</t>
+          <t>TKT-000114</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:42</t>
+          <t>aasa</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="F33" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:47</t>
+          <t>08/07/2025 11:02</t>
         </is>
       </c>
       <c r="G33" s="6" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>TKT-000112</t>
+          <t>TKT-000113</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:25</t>
+          <t>prueba 1:42</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:26</t>
+          <t>07/07/2025 19:47</t>
         </is>
       </c>
       <c r="G34" s="6" t="inlineStr">
@@ -2173,7 +2173,7 @@
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>TKT-000111</t>
+          <t>TKT-000112</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:15</t>
+          <t>prueba 1:25</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F35" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:19</t>
+          <t>07/07/2025 19:26</t>
         </is>
       </c>
       <c r="G35" s="6" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>TKT-000110</t>
+          <t>TKT-000111</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:05</t>
+          <t>prueba 1:15</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:09</t>
+          <t>07/07/2025 19:19</t>
         </is>
       </c>
       <c r="G36" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:38</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="H36" s="6" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="J36" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:38</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="K36" s="6" t="inlineStr">
@@ -2287,7 +2287,7 @@
     <row r="37">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>TKT-000109</t>
+          <t>TKT-000110</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>otra prueba</t>
+          <t>prueba 1:05</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 18:14</t>
+          <t>07/07/2025 19:09</t>
         </is>
       </c>
       <c r="G37" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 14:31</t>
+          <t>11/07/2025 12:38</t>
         </is>
       </c>
       <c r="H37" s="6" t="inlineStr">
@@ -2332,19 +2332,19 @@
       </c>
       <c r="J37" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 14:31</t>
+          <t>11/07/2025 12:38</t>
         </is>
       </c>
       <c r="K37" s="6" t="inlineStr">
         <is>
-          <t>descripcion de la resolucion</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>TKT-000108</t>
+          <t>TKT-000109</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="C38" s="6" t="inlineStr">
         <is>
-          <t>prueba de ticket 7 de julio</t>
+          <t>otra prueba</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 18:04</t>
+          <t>07/07/2025 18:14</t>
         </is>
       </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 21:35</t>
+          <t>11/07/2025 14:31</t>
         </is>
       </c>
       <c r="H38" s="6" t="inlineStr">
@@ -2389,19 +2389,19 @@
       </c>
       <c r="J38" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 21:35</t>
+          <t>11/07/2025 14:31</t>
         </is>
       </c>
       <c r="K38" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion</t>
+          <t>descripcion de la resolucion</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="inlineStr">
         <is>
-          <t>TKT-000107</t>
+          <t>TKT-000108</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
@@ -2411,12 +2411,12 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>dsds</t>
+          <t>prueba de ticket 7 de julio</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F39" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 17:44</t>
+          <t>07/07/2025 18:04</t>
         </is>
       </c>
       <c r="G39" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:00</t>
+          <t>12/07/2025 21:35</t>
         </is>
       </c>
       <c r="H39" s="6" t="inlineStr">
@@ -2446,19 +2446,19 @@
       </c>
       <c r="J39" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:00</t>
+          <t>12/07/2025 21:35</t>
         </is>
       </c>
       <c r="K39" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucon</t>
+          <t>prueba resolucion</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>TKT-000106</t>
+          <t>TKT-000107</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>dsdsdsds</t>
+          <t>dsds</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -2483,12 +2483,12 @@
       </c>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 16:34</t>
+          <t>07/07/2025 17:44</t>
         </is>
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:18</t>
+          <t>12/07/2025 23:00</t>
         </is>
       </c>
       <c r="H40" s="6" t="inlineStr">
@@ -2503,19 +2503,19 @@
       </c>
       <c r="J40" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:18</t>
+          <t>12/07/2025 23:00</t>
         </is>
       </c>
       <c r="K40" s="6" t="inlineStr">
         <is>
-          <t>TEST RESOLUTION NOTES for TKT-000106 - This should appear in email notifications</t>
+          <t>prueba resolucon</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="inlineStr">
         <is>
-          <t>TKT-000105</t>
+          <t>TKT-000106</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>dsdsdsds</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>reabierto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="F41" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 15:35</t>
+          <t>07/07/2025 16:34</t>
         </is>
       </c>
       <c r="G41" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:18</t>
         </is>
       </c>
       <c r="H41" s="6" t="inlineStr">
@@ -2560,12 +2560,12 @@
       </c>
       <c r="J41" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:18</t>
         </is>
       </c>
       <c r="K41" s="6" t="inlineStr">
         <is>
-          <t>resolucion 2</t>
+          <t>TEST RESOLUTION NOTES for TKT-000106 - This should appear in email notifications</t>
         </is>
       </c>
     </row>
@@ -2622,14 +2622,14 @@
       </c>
       <c r="K42" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>resolucion 2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
         <is>
-          <t>TKT-000104</t>
+          <t>TKT-000105</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>dsdds</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>asignado</t>
+          <t>reabierto</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 04:18</t>
+          <t>07/07/2025 15:35</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
@@ -2679,14 +2679,14 @@
       </c>
       <c r="K43" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
         <is>
-          <t>TKT-000103</t>
+          <t>TKT-000104</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>dssd</t>
+          <t>dsdds</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 04:09</t>
+          <t>07/07/2025 04:18</t>
         </is>
       </c>
       <c r="G44" s="6" t="inlineStr">
@@ -2743,7 +2743,7 @@
     <row r="45">
       <c r="A45" s="5" t="inlineStr">
         <is>
-          <t>TKT-000102</t>
+          <t>TKT-000103</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>skdjlskdjksj</t>
+          <t>dssd</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="F45" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 17:06</t>
+          <t>07/07/2025 04:09</t>
         </is>
       </c>
       <c r="G45" s="6" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="46">
       <c r="A46" s="5" t="inlineStr">
         <is>
-          <t>TKT-000101</t>
+          <t>TKT-000102</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>oeowiewopi</t>
+          <t>skdjlskdjksj</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
@@ -2857,7 +2857,7 @@
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t>TKT-000100</t>
+          <t>TKT-000101</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
+          <t>oeowiewopi</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
@@ -2914,7 +2914,7 @@
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>TKT-000099</t>
+          <t>TKT-000100</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
+          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -2971,7 +2971,7 @@
     <row r="49">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>TKT-000098</t>
+          <t>TKT-000099</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>sjdlsdjs l</t>
+          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>TKT-000097</t>
+          <t>TKT-000098</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>sdnsdslk</t>
+          <t>sjdlsdjs l</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -3085,7 +3085,7 @@
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
         <is>
-          <t>TKT-000096</t>
+          <t>TKT-000097</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>prueba potra vez</t>
+          <t>sdnsdslk</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
@@ -3142,7 +3142,7 @@
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
         <is>
-          <t>TKT-000095</t>
+          <t>TKT-000096</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>ksjlsdkjl</t>
+          <t>prueba potra vez</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="F52" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 17:05</t>
+          <t>06/07/2025 17:06</t>
         </is>
       </c>
       <c r="G52" s="6" t="inlineStr">
@@ -3199,7 +3199,7 @@
     <row r="53">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>TKT-000094</t>
+          <t>TKT-000095</t>
         </is>
       </c>
       <c r="B53" s="6" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>prueba</t>
+          <t>ksjlsdkjl</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="F53" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 16:10</t>
+          <t>06/07/2025 17:05</t>
         </is>
       </c>
       <c r="G53" s="6" t="inlineStr">
@@ -3256,17 +3256,17 @@
     <row r="54">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>TKT-000093</t>
+          <t>TKT-000094</t>
         </is>
       </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C54" s="6" t="inlineStr">
         <is>
-          <t>Test Assignment Logic</t>
+          <t>prueba</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 14:50</t>
+          <t>06/07/2025 16:10</t>
         </is>
       </c>
       <c r="G54" s="6" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="I54" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J54" s="6" t="inlineStr">
@@ -3313,7 +3313,7 @@
     <row r="55">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>TKT-000092</t>
+          <t>TKT-000093</t>
         </is>
       </c>
       <c r="B55" s="6" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>asignado</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
@@ -3338,17 +3338,17 @@
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 14:49</t>
+          <t>06/07/2025 14:50</t>
         </is>
       </c>
       <c r="G55" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:06</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H55" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Benjamin Aharonov</t>
         </is>
       </c>
       <c r="I55" s="6" t="inlineStr">
@@ -3358,19 +3358,19 @@
       </c>
       <c r="J55" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:06</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K55" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>TKT-000091</t>
+          <t>TKT-000092</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>12/07/2025 23:06</t>
         </is>
       </c>
       <c r="H56" s="6" t="inlineStr">
@@ -3415,29 +3415,29 @@
       </c>
       <c r="J56" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>12/07/2025 23:06</t>
         </is>
       </c>
       <c r="K56" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion 20 tickets</t>
+          <t>prueba resolucion</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>TKT-000090</t>
+          <t>TKT-000091</t>
         </is>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>jhkjh</t>
+          <t>Test Assignment Logic</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="F57" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:39</t>
+          <t>06/07/2025 14:49</t>
         </is>
       </c>
       <c r="G57" s="6" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="I57" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J57" s="6" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="58">
       <c r="A58" s="5" t="inlineStr">
         <is>
-          <t>TKT-000089</t>
+          <t>TKT-000090</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>Frontend Test Ticket</t>
+          <t>jhkjh</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
@@ -3541,17 +3541,17 @@
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
         <is>
-          <t>TKT-000088</t>
+          <t>TKT-000089</t>
         </is>
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>Frontend Test Ticket</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="F59" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:38</t>
+          <t>05/07/2025 15:39</t>
         </is>
       </c>
       <c r="G59" s="6" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="I59" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J59" s="6" t="inlineStr">
@@ -3598,17 +3598,17 @@
     <row r="60">
       <c r="A60" s="5" t="inlineStr">
         <is>
-          <t>TKT-000085</t>
+          <t>TKT-000088</t>
         </is>
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
@@ -3618,12 +3618,12 @@
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>baja</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F60" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:29</t>
+          <t>05/07/2025 15:38</t>
         </is>
       </c>
       <c r="G60" s="6" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="I60" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J60" s="6" t="inlineStr">
@@ -3655,17 +3655,17 @@
     <row r="61">
       <c r="A61" s="5" t="inlineStr">
         <is>
-          <t>TKT-000084</t>
+          <t>TKT-000085</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>baja</t>
         </is>
       </c>
       <c r="F61" s="6" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I61" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J61" s="6" t="inlineStr">
@@ -3712,7 +3712,7 @@
     <row r="62">
       <c r="A62" s="5" t="inlineStr">
         <is>
-          <t>TKT-000083</t>
+          <t>TKT-000084</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C62" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -3769,7 +3769,7 @@
     <row r="63">
       <c r="A63" s="5" t="inlineStr">
         <is>
-          <t>TKT-000082</t>
+          <t>TKT-000083</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="F63" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:27</t>
+          <t>05/07/2025 15:29</t>
         </is>
       </c>
       <c r="G63" s="6" t="inlineStr">
@@ -3826,17 +3826,17 @@
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>TKT-000079</t>
+          <t>TKT-000082</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C64" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="F64" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:24</t>
+          <t>05/07/2025 15:27</t>
         </is>
       </c>
       <c r="G64" s="6" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="I64" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J64" s="6" t="inlineStr">
@@ -3883,17 +3883,17 @@
     <row r="65">
       <c r="A65" s="5" t="inlineStr">
         <is>
-          <t>TKT-000078</t>
+          <t>TKT-000079</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="I65" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J65" s="6" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="66">
       <c r="A66" s="5" t="inlineStr">
         <is>
-          <t>TKT-000077</t>
+          <t>TKT-000078</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C66" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -3997,7 +3997,7 @@
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>TKT-000076</t>
+          <t>TKT-000077</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="F67" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:01</t>
+          <t>05/07/2025 15:24</t>
         </is>
       </c>
       <c r="G67" s="6" t="inlineStr">
@@ -4054,7 +4054,7 @@
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
         <is>
-          <t>TKT-000075</t>
+          <t>TKT-000076</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="F68" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:58</t>
+          <t>05/07/2025 15:01</t>
         </is>
       </c>
       <c r="G68" s="6" t="inlineStr">
@@ -4111,7 +4111,7 @@
     <row r="69">
       <c r="A69" s="5" t="inlineStr">
         <is>
-          <t>TKT-000074</t>
+          <t>TKT-000075</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="F69" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:40</t>
+          <t>05/07/2025 14:58</t>
         </is>
       </c>
       <c r="G69" s="6" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="70">
       <c r="A70" s="5" t="inlineStr">
         <is>
-          <t>TKT-000073</t>
+          <t>TKT-000074</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="F70" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:39</t>
+          <t>05/07/2025 14:40</t>
         </is>
       </c>
       <c r="G70" s="6" t="inlineStr">
@@ -4225,7 +4225,7 @@
     <row r="71">
       <c r="A71" s="5" t="inlineStr">
         <is>
-          <t>TKT-000072</t>
+          <t>TKT-000073</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
-          <t>DEBUG API Test Ticket</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D71" s="5" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="F71" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:38</t>
+          <t>05/07/2025 14:39</t>
         </is>
       </c>
       <c r="G71" s="6" t="inlineStr">
@@ -4282,17 +4282,17 @@
     <row r="72">
       <c r="A72" s="5" t="inlineStr">
         <is>
-          <t>TKT-000069</t>
+          <t>TKT-000072</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C72" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>DEBUG API Test Ticket</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="F72" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:33</t>
+          <t>05/07/2025 14:38</t>
         </is>
       </c>
       <c r="G72" s="6" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="I72" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J72" s="6" t="inlineStr">
@@ -4339,17 +4339,17 @@
     <row r="73">
       <c r="A73" s="5" t="inlineStr">
         <is>
-          <t>TKT-000068</t>
+          <t>TKT-000069</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="I73" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J73" s="6" t="inlineStr">
@@ -4396,17 +4396,17 @@
     <row r="74">
       <c r="A74" s="5" t="inlineStr">
         <is>
-          <t>TKT-000067</t>
+          <t>TKT-000068</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C74" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="I74" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J74" s="6" t="inlineStr">
@@ -4453,17 +4453,17 @@
     <row r="75">
       <c r="A75" s="5" t="inlineStr">
         <is>
-          <t>TKT-000066</t>
+          <t>TKT-000067</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="I75" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J75" s="6" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
         <is>
-          <t>TKT-000065</t>
+          <t>TKT-000066</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
@@ -4535,12 +4535,12 @@
       </c>
       <c r="F76" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:30</t>
+          <t>05/07/2025 14:33</t>
         </is>
       </c>
       <c r="G76" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:19</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="H76" s="6" t="inlineStr">
@@ -4555,19 +4555,19 @@
       </c>
       <c r="J76" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:19</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="K76" s="6" t="inlineStr">
         <is>
-          <t>prueba de que si se resolvvio ticket 65</t>
+          <t>prueba resolucion 20 tickets</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="inlineStr">
         <is>
-          <t>TKT-000064</t>
+          <t>TKT-000065</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C77" s="6" t="inlineStr">
         <is>
-          <t>DIRECT ROUTE TEST - Unified Numbering</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="G77" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:27</t>
+          <t>12/07/2025 23:19</t>
         </is>
       </c>
       <c r="H77" s="6" t="inlineStr">
@@ -4612,19 +4612,19 @@
       </c>
       <c r="J77" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:27</t>
+          <t>12/07/2025 23:19</t>
         </is>
       </c>
       <c r="K77" s="6" t="inlineStr">
         <is>
-          <t>resolucion ticket 64</t>
+          <t>prueba de que si se resolvvio ticket 65</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="inlineStr">
         <is>
-          <t>TKT-000063</t>
+          <t>TKT-000064</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="F78" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:28</t>
+          <t>05/07/2025 14:30</t>
         </is>
       </c>
       <c r="G78" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:27</t>
         </is>
       </c>
       <c r="H78" s="6" t="inlineStr">
@@ -4669,19 +4669,19 @@
       </c>
       <c r="J78" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:27</t>
         </is>
       </c>
       <c r="K78" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>resolucion ticket 64</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>TKT-000061</t>
+          <t>TKT-000063</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="C79" s="6" t="inlineStr">
         <is>
-          <t>UNIFIED NUMBERING TEST</t>
+          <t>DIRECT ROUTE TEST - Unified Numbering</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="F79" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:27</t>
+          <t>05/07/2025 14:28</t>
         </is>
       </c>
       <c r="G79" s="6" t="inlineStr">
@@ -4738,17 +4738,17 @@
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>TKT-000024</t>
+          <t>TKT-000061</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C80" s="6" t="inlineStr">
         <is>
-          <t>skdjlskdjksj</t>
+          <t>UNIFIED NUMBERING TEST</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="F80" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:17</t>
+          <t>05/07/2025 14:27</t>
         </is>
       </c>
       <c r="G80" s="6" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="I80" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J80" s="6" t="inlineStr">
@@ -4795,7 +4795,7 @@
     <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>TKT-000023</t>
+          <t>TKT-000024</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C81" s="6" t="inlineStr">
         <is>
-          <t>oeowiewopi</t>
+          <t>skdjlskdjksj</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
@@ -4852,7 +4852,7 @@
     <row r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>TKT-000022</t>
+          <t>TKT-000023</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="C82" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
+          <t>oeowiewopi</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
@@ -4909,7 +4909,7 @@
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
-          <t>TKT-000021</t>
+          <t>TKT-000022</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="C83" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
+          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -4966,7 +4966,7 @@
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
         <is>
-          <t>TKT-000020</t>
+          <t>TKT-000021</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C84" s="6" t="inlineStr">
         <is>
-          <t>sjdlsdjs l</t>
+          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -5023,7 +5023,7 @@
     <row r="85">
       <c r="A85" s="5" t="inlineStr">
         <is>
-          <t>TKT-000019</t>
+          <t>TKT-000020</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="C85" s="6" t="inlineStr">
         <is>
-          <t>sdnsdslk</t>
+          <t>sjdlsdjs l</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
@@ -5080,7 +5080,7 @@
     <row r="86">
       <c r="A86" s="5" t="inlineStr">
         <is>
-          <t>TKT-000016</t>
+          <t>TKT-000019</t>
         </is>
       </c>
       <c r="B86" s="6" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C86" s="6" t="inlineStr">
         <is>
-          <t>prueba potra vez</t>
+          <t>sdnsdslk</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="F86" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 02:57</t>
+          <t>05/07/2025 14:17</t>
         </is>
       </c>
       <c r="G86" s="6" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="87">
       <c r="A87" s="5" t="inlineStr">
         <is>
-          <t>TKT-000013</t>
+          <t>TKT-000016</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="C87" s="6" t="inlineStr">
         <is>
-          <t>prueba 93839048</t>
+          <t>prueba potra vez</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="F87" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 02:50</t>
+          <t>05/07/2025 02:57</t>
         </is>
       </c>
       <c r="G87" s="6" t="inlineStr">
@@ -5194,7 +5194,7 @@
     <row r="88">
       <c r="A88" s="5" t="inlineStr">
         <is>
-          <t>TKT-000012</t>
+          <t>TKT-000013</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C88" s="6" t="inlineStr">
         <is>
-          <t>prueva 9348309</t>
+          <t>prueba 93839048</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="F88" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 02:45</t>
+          <t>05/07/2025 02:50</t>
         </is>
       </c>
       <c r="G88" s="6" t="inlineStr">
@@ -5251,17 +5251,17 @@
     <row r="89">
       <c r="A89" s="5" t="inlineStr">
         <is>
-          <t>TKT-000008</t>
+          <t>TKT-000012</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C89" s="6" t="inlineStr">
         <is>
-          <t>Test Sequential Ticket Number</t>
+          <t>prueva 9348309</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="F89" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 00:59</t>
+          <t>05/07/2025 02:45</t>
         </is>
       </c>
       <c r="G89" s="6" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="I89" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J89" s="6" t="inlineStr">
@@ -5308,17 +5308,17 @@
     <row r="90">
       <c r="A90" s="5" t="inlineStr">
         <is>
-          <t>TKT-41FDBC9C</t>
+          <t>TKT-000008</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C90" s="6" t="inlineStr">
         <is>
-          <t>prueba 2897897</t>
+          <t>Test Sequential Ticket Number</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 00:33</t>
+          <t>05/07/2025 00:59</t>
         </is>
       </c>
       <c r="G90" s="6" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="I90" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J90" s="6" t="inlineStr">
@@ -5365,7 +5365,7 @@
     <row r="91">
       <c r="A91" s="5" t="inlineStr">
         <is>
-          <t>TKT-0058</t>
+          <t>TKT-41FDBC9C</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="C91" s="6" t="inlineStr">
         <is>
-          <t>prueba de screege@hotmail.com</t>
+          <t>prueba 2897897</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
         <is>
-          <t>reabierto</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E91" s="5" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:42</t>
+          <t>05/07/2025 00:33</t>
         </is>
       </c>
       <c r="G91" s="6" t="inlineStr">
@@ -5415,14 +5415,14 @@
       </c>
       <c r="K91" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="inlineStr">
         <is>
-          <t>TKT-0057</t>
+          <t>TKT-0058</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
@@ -5432,12 +5432,12 @@
       </c>
       <c r="C92" s="6" t="inlineStr">
         <is>
-          <t>qqqwqwqw</t>
+          <t>prueba de screege@hotmail.com</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>reabierto</t>
         </is>
       </c>
       <c r="E92" s="5" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="F92" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:37</t>
+          <t>04/07/2025 03:42</t>
         </is>
       </c>
       <c r="G92" s="6" t="inlineStr">
@@ -5472,14 +5472,14 @@
       </c>
       <c r="K92" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="inlineStr">
         <is>
-          <t>TKT-0056</t>
+          <t>TKT-0057</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>TEST NOTIFICATION ROUTING - Should notify both emails</t>
+          <t>qqqwqwqw</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
@@ -5499,12 +5499,12 @@
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F93" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:14</t>
+          <t>04/07/2025 03:37</t>
         </is>
       </c>
       <c r="G93" s="6" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="I93" s="6" t="inlineStr">
         <is>
-          <t>Test Site Fixed</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J93" s="6" t="inlineStr">
@@ -5536,17 +5536,17 @@
     <row r="94">
       <c r="A94" s="5" t="inlineStr">
         <is>
-          <t>TKT-0055</t>
+          <t>TKT-0056</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C94" s="6" t="inlineStr">
         <is>
-          <t>PRUEBA FINAL SLA MONITOR - Segundo Ticket</t>
+          <t>TEST NOTIFICATION ROUTING - Should notify both emails</t>
         </is>
       </c>
       <c r="D94" s="5" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="F94" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:02</t>
+          <t>04/07/2025 03:14</t>
         </is>
       </c>
       <c r="G94" s="6" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="I94" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Test Site Fixed</t>
         </is>
       </c>
       <c r="J94" s="6" t="inlineStr">
@@ -5593,17 +5593,17 @@
     <row r="95">
       <c r="A95" s="5" t="inlineStr">
         <is>
-          <t>TKT-0054</t>
+          <t>TKT-0055</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
         <is>
-          <t>sfsfs</t>
+          <t>PRUEBA FINAL SLA MONITOR - Segundo Ticket</t>
         </is>
       </c>
       <c r="D95" s="5" t="inlineStr">
@@ -5613,12 +5613,12 @@
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F95" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:00</t>
+          <t>04/07/2025 03:02</t>
         </is>
       </c>
       <c r="G95" s="6" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="I95" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J95" s="6" t="inlineStr">
@@ -5650,17 +5650,17 @@
     <row r="96">
       <c r="A96" s="5" t="inlineStr">
         <is>
-          <t>TKT-0053</t>
+          <t>TKT-0054</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C96" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION TRACE TEST - Rastreo completo del sistema</t>
+          <t>sfsfs</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
@@ -5670,12 +5670,12 @@
       </c>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F96" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:55</t>
+          <t>04/07/2025 03:00</t>
         </is>
       </c>
       <c r="G96" s="6" t="inlineStr">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="I96" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J96" s="6" t="inlineStr">
@@ -5707,17 +5707,17 @@
     <row r="97">
       <c r="A97" s="5" t="inlineStr">
         <is>
-          <t>TKT-0052</t>
+          <t>TKT-0053</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>Ficein Test 20250630_143536</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>NOTIFICATION TRACE TEST - Rastreo completo del sistema</t>
         </is>
       </c>
       <c r="D97" s="5" t="inlineStr">
@@ -5727,12 +5727,12 @@
       </c>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F97" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:52</t>
+          <t>04/07/2025 02:55</t>
         </is>
       </c>
       <c r="G97" s="6" t="inlineStr">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="I97" s="6" t="inlineStr">
         <is>
-          <t>polanco</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J97" s="6" t="inlineStr">
@@ -5764,17 +5764,17 @@
     <row r="98">
       <c r="A98" s="5" t="inlineStr">
         <is>
-          <t>TKT-0051</t>
+          <t>TKT-0052</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>Diseno Nono Creativo</t>
+          <t>Ficein Test 20250630_143536</t>
         </is>
       </c>
       <c r="C98" s="6" t="inlineStr">
         <is>
-          <t>asasa</t>
+          <t>sdsd</t>
         </is>
       </c>
       <c r="D98" s="5" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="F98" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:45</t>
+          <t>04/07/2025 02:52</t>
         </is>
       </c>
       <c r="G98" s="6" t="inlineStr">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="I98" s="6" t="inlineStr">
         <is>
-          <t>Estudio Creativo GDL</t>
+          <t>polanco</t>
         </is>
       </c>
       <c r="J98" s="6" t="inlineStr">
@@ -5821,17 +5821,17 @@
     <row r="99">
       <c r="A99" s="5" t="inlineStr">
         <is>
-          <t>TKT-0050</t>
+          <t>TKT-0051</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Diseno Nono Creativo</t>
         </is>
       </c>
       <c r="C99" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION DEBUG TEST - Should trigger emails</t>
+          <t>asasa</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="E99" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F99" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:44</t>
+          <t>04/07/2025 02:45</t>
         </is>
       </c>
       <c r="G99" s="6" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="I99" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Estudio Creativo GDL</t>
         </is>
       </c>
       <c r="J99" s="6" t="inlineStr">
@@ -5878,7 +5878,7 @@
     <row r="100">
       <c r="A100" s="5" t="inlineStr">
         <is>
-          <t>TKT-0049</t>
+          <t>TKT-0050</t>
         </is>
       </c>
       <c r="B100" s="6" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="C100" s="6" t="inlineStr">
         <is>
-          <t>BACKWARD COMPATIBILITY TEST - Old Field Name</t>
+          <t>NOTIFICATION DEBUG TEST - Should trigger emails</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="F100" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:35</t>
+          <t>04/07/2025 02:44</t>
         </is>
       </c>
       <c r="G100" s="6" t="inlineStr">
@@ -5935,7 +5935,7 @@
     <row r="101">
       <c r="A101" s="5" t="inlineStr">
         <is>
-          <t>TKT-0048</t>
+          <t>TKT-0049</t>
         </is>
       </c>
       <c r="B101" s="6" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="C101" s="6" t="inlineStr">
         <is>
-          <t>TEST NEW FIELDS - Phone and Email Separation</t>
+          <t>BACKWARD COMPATIBILITY TEST - Old Field Name</t>
         </is>
       </c>
       <c r="D101" s="5" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="F101" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:33</t>
+          <t>04/07/2025 02:35</t>
         </is>
       </c>
       <c r="G101" s="6" t="inlineStr">
@@ -5992,7 +5992,7 @@
     <row r="102">
       <c r="A102" s="5" t="inlineStr">
         <is>
-          <t>TKT-0047</t>
+          <t>TKT-0048</t>
         </is>
       </c>
       <c r="B102" s="6" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="F102" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:08</t>
+          <t>04/07/2025 02:33</t>
         </is>
       </c>
       <c r="G102" s="6" t="inlineStr">
@@ -6049,7 +6049,7 @@
     <row r="103">
       <c r="A103" s="5" t="inlineStr">
         <is>
-          <t>TKT-0046</t>
+          <t>TKT-0047</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="C103" s="6" t="inlineStr">
         <is>
-          <t>MANUAL PROCESSING TEST - Should work with manual queue processing</t>
+          <t>TEST NEW FIELDS - Phone and Email Separation</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="F103" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:48</t>
+          <t>04/07/2025 02:08</t>
         </is>
       </c>
       <c r="G103" s="6" t="inlineStr">
@@ -6106,17 +6106,17 @@
     <row r="104">
       <c r="A104" s="5" t="inlineStr">
         <is>
-          <t>TKT-0045</t>
+          <t>TKT-0046</t>
         </is>
       </c>
       <c r="B104" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C104" s="6" t="inlineStr">
         <is>
-          <t>prueba oyra vez</t>
+          <t>MANUAL PROCESSING TEST - Should work with manual queue processing</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="E104" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F104" s="6" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="I104" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J104" s="6" t="inlineStr">
@@ -6163,7 +6163,7 @@
     <row r="105">
       <c r="A105" s="5" t="inlineStr">
         <is>
-          <t>TKT-0044</t>
+          <t>TKT-0045</t>
         </is>
       </c>
       <c r="B105" s="6" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="C105" s="6" t="inlineStr">
         <is>
-          <t>7:42</t>
+          <t>prueba oyra vez</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="F105" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:43</t>
+          <t>04/07/2025 01:48</t>
         </is>
       </c>
       <c r="G105" s="6" t="inlineStr">
@@ -6220,7 +6220,7 @@
     <row r="106">
       <c r="A106" s="5" t="inlineStr">
         <is>
-          <t>TKT-0043</t>
+          <t>TKT-0044</t>
         </is>
       </c>
       <c r="B106" s="6" t="inlineStr">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="C106" s="6" t="inlineStr">
         <is>
-          <t>prueba automatico</t>
+          <t>7:42</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:40</t>
+          <t>04/07/2025 01:43</t>
         </is>
       </c>
       <c r="G106" s="6" t="inlineStr">
@@ -6277,7 +6277,7 @@
     <row r="107">
       <c r="A107" s="5" t="inlineStr">
         <is>
-          <t>TKT-0042</t>
+          <t>TKT-0043</t>
         </is>
       </c>
       <c r="B107" s="6" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="C107" s="6" t="inlineStr">
         <is>
-          <t>prueba a hotmail</t>
+          <t>prueba automatico</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="F107" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:32</t>
+          <t>04/07/2025 01:40</t>
         </is>
       </c>
       <c r="G107" s="6" t="inlineStr">
@@ -6334,7 +6334,7 @@
     <row r="108">
       <c r="A108" s="5" t="inlineStr">
         <is>
-          <t>TKT-0041</t>
+          <t>TKT-0042</t>
         </is>
       </c>
       <c r="B108" s="6" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="C108" s="6" t="inlineStr">
         <is>
-          <t>prueba de comunciacion</t>
+          <t>prueba a hotmail</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="F108" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:28</t>
+          <t>04/07/2025 01:32</t>
         </is>
       </c>
       <c r="G108" s="6" t="inlineStr">
@@ -6391,17 +6391,17 @@
     <row r="109">
       <c r="A109" s="5" t="inlineStr">
         <is>
-          <t>TKT-0040</t>
+          <t>TKT-0041</t>
         </is>
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C109" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION FIX TEST - Should trigger emails now</t>
+          <t>prueba de comunciacion</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
@@ -6411,12 +6411,12 @@
       </c>
       <c r="E109" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F109" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:26</t>
+          <t>04/07/2025 01:28</t>
         </is>
       </c>
       <c r="G109" s="6" t="inlineStr">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="I109" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J109" s="6" t="inlineStr">
@@ -6448,17 +6448,17 @@
     <row r="110">
       <c r="A110" s="5" t="inlineStr">
         <is>
-          <t>TKT-0039</t>
+          <t>TKT-0040</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C110" s="6" t="inlineStr">
         <is>
-          <t>prueba de ticket</t>
+          <t>NOTIFICATION FIX TEST - Should trigger emails now</t>
         </is>
       </c>
       <c r="D110" s="5" t="inlineStr">
@@ -6468,12 +6468,12 @@
       </c>
       <c r="E110" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F110" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:21</t>
+          <t>04/07/2025 01:26</t>
         </is>
       </c>
       <c r="G110" s="6" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="I110" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J110" s="6" t="inlineStr">
@@ -6505,17 +6505,17 @@
     <row r="111">
       <c r="A111" s="5" t="inlineStr">
         <is>
-          <t>TKT-0038</t>
+          <t>TKT-0039</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C111" s="6" t="inlineStr">
         <is>
-          <t>ENHANCED LOGGING TEST - Detailed Email Processing</t>
+          <t>prueba de ticket</t>
         </is>
       </c>
       <c r="D111" s="5" t="inlineStr">
@@ -6525,12 +6525,12 @@
       </c>
       <c r="E111" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F111" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:15</t>
+          <t>04/07/2025 01:21</t>
         </is>
       </c>
       <c r="G111" s="6" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="I111" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J111" s="6" t="inlineStr">
@@ -6562,17 +6562,17 @@
     <row r="112">
       <c r="A112" s="5" t="inlineStr">
         <is>
-          <t>TKT-0037</t>
+          <t>TKT-0038</t>
         </is>
       </c>
       <c r="B112" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C112" s="6" t="inlineStr">
         <is>
-          <t>prueba ticket nuevo</t>
+          <t>ENHANCED LOGGING TEST - Detailed Email Processing</t>
         </is>
       </c>
       <c r="D112" s="5" t="inlineStr">
@@ -6582,12 +6582,12 @@
       </c>
       <c r="E112" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F112" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:11</t>
+          <t>04/07/2025 01:15</t>
         </is>
       </c>
       <c r="G112" s="6" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="I112" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J112" s="6" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="113">
       <c r="A113" s="5" t="inlineStr">
         <is>
-          <t>TKT-0036</t>
+          <t>TKT-0037</t>
         </is>
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C113" s="6" t="inlineStr">
         <is>
-          <t>FIXED NOTIFICATION TEST - ba@lanet.mx should receive this</t>
+          <t>prueba ticket nuevo</t>
         </is>
       </c>
       <c r="D113" s="5" t="inlineStr">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="E113" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F113" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:45</t>
+          <t>04/07/2025 01:11</t>
         </is>
       </c>
       <c r="G113" s="6" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="I113" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J113" s="6" t="inlineStr">
@@ -6676,7 +6676,7 @@
     <row r="114">
       <c r="A114" s="5" t="inlineStr">
         <is>
-          <t>TKT-0035</t>
+          <t>TKT-0036</t>
         </is>
       </c>
       <c r="B114" s="6" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="C114" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION TEST - Should send to ba@lanet.mx</t>
+          <t>FIXED NOTIFICATION TEST - ba@lanet.mx should receive this</t>
         </is>
       </c>
       <c r="D114" s="5" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:38</t>
+          <t>04/07/2025 00:45</t>
         </is>
       </c>
       <c r="G114" s="6" t="inlineStr">
@@ -6733,17 +6733,17 @@
     <row r="115">
       <c r="A115" s="5" t="inlineStr">
         <is>
-          <t>TKT-0034</t>
+          <t>TKT-0035</t>
         </is>
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C115" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>NOTIFICATION TEST - Should send to ba@lanet.mx</t>
         </is>
       </c>
       <c r="D115" s="5" t="inlineStr">
@@ -6753,12 +6753,12 @@
       </c>
       <c r="E115" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F115" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:35</t>
+          <t>04/07/2025 00:38</t>
         </is>
       </c>
       <c r="G115" s="6" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="I115" s="6" t="inlineStr">
         <is>
-          <t>Test Site Fixed</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J115" s="6" t="inlineStr">
@@ -6790,17 +6790,17 @@
     <row r="116">
       <c r="A116" s="5" t="inlineStr">
         <is>
-          <t>TKT-0033</t>
+          <t>TKT-0034</t>
         </is>
       </c>
       <c r="B116" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C116" s="6" t="inlineStr">
         <is>
-          <t>Test Notification Ticket</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D116" s="5" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="F116" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:32</t>
+          <t>04/07/2025 00:35</t>
         </is>
       </c>
       <c r="G116" s="6" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="I116" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Test Site Fixed</t>
         </is>
       </c>
       <c r="J116" s="6" t="inlineStr">
@@ -6847,22 +6847,22 @@
     <row r="117">
       <c r="A117" s="5" t="inlineStr">
         <is>
-          <t>TKT-0032</t>
+          <t>TKT-0033</t>
         </is>
       </c>
       <c r="B117" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C117" s="6" t="inlineStr">
         <is>
-          <t>prueba ticket</t>
+          <t>Test Notification Ticket</t>
         </is>
       </c>
       <c r="D117" s="5" t="inlineStr">
         <is>
-          <t>asignado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E117" s="5" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="F117" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 23:59</t>
+          <t>04/07/2025 00:32</t>
         </is>
       </c>
       <c r="G117" s="6" t="inlineStr">
@@ -6882,12 +6882,12 @@
       </c>
       <c r="H117" s="6" t="inlineStr">
         <is>
-          <t>Carlos Rodriguez Tech</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="I117" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J117" s="6" t="inlineStr">
@@ -6904,22 +6904,22 @@
     <row r="118">
       <c r="A118" s="5" t="inlineStr">
         <is>
-          <t>TKT-0031</t>
+          <t>TKT-0032</t>
         </is>
       </c>
       <c r="B118" s="6" t="inlineStr">
         <is>
-          <t>Ficein Test 20250630_143536</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C118" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>prueba ticket</t>
         </is>
       </c>
       <c r="D118" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>asignado</t>
         </is>
       </c>
       <c r="E118" s="5" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 23:20</t>
+          <t>03/07/2025 23:59</t>
         </is>
       </c>
       <c r="G118" s="6" t="inlineStr">
@@ -6939,12 +6939,12 @@
       </c>
       <c r="H118" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Carlos Rodriguez Tech</t>
         </is>
       </c>
       <c r="I118" s="6" t="inlineStr">
         <is>
-          <t>polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J118" s="6" t="inlineStr">
@@ -6961,17 +6961,17 @@
     <row r="119">
       <c r="A119" s="5" t="inlineStr">
         <is>
-          <t>TKT-0030</t>
+          <t>TKT-0031</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Ficein Test 20250630_143536</t>
         </is>
       </c>
       <c r="C119" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D119" s="5" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 23:08</t>
+          <t>03/07/2025 23:20</t>
         </is>
       </c>
       <c r="G119" s="6" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="I119" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>polanco</t>
         </is>
       </c>
       <c r="J119" s="6" t="inlineStr">
@@ -7018,7 +7018,7 @@
     <row r="120">
       <c r="A120" s="5" t="inlineStr">
         <is>
-          <t>TKT-0029</t>
+          <t>TKT-0030</t>
         </is>
       </c>
       <c r="B120" s="6" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="C120" s="6" t="inlineStr">
         <is>
-          <t>FIXED - File Upload Test</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D120" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E120" s="5" t="inlineStr">
@@ -7043,12 +7043,12 @@
       </c>
       <c r="F120" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:31</t>
+          <t>03/07/2025 23:08</t>
         </is>
       </c>
       <c r="G120" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:21</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H120" s="6" t="inlineStr">
@@ -7063,19 +7063,19 @@
       </c>
       <c r="J120" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:21</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K120" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="inlineStr">
         <is>
-          <t>TKT-0028</t>
+          <t>TKT-0029</t>
         </is>
       </c>
       <c r="B121" s="6" t="inlineStr">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="C121" s="6" t="inlineStr">
         <is>
-          <t>Backend Debug Test Final</t>
+          <t>FIXED - File Upload Test</t>
         </is>
       </c>
       <c r="D121" s="5" t="inlineStr">
@@ -7100,12 +7100,12 @@
       </c>
       <c r="F121" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:29</t>
+          <t>03/07/2025 18:31</t>
         </is>
       </c>
       <c r="G121" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:13</t>
+          <t>03/07/2025 19:21</t>
         </is>
       </c>
       <c r="H121" s="6" t="inlineStr">
@@ -7120,19 +7120,19 @@
       </c>
       <c r="J121" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:13</t>
+          <t>03/07/2025 19:21</t>
         </is>
       </c>
       <c r="K121" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="inlineStr">
         <is>
-          <t>TKT-0027</t>
+          <t>TKT-0028</t>
         </is>
       </c>
       <c r="B122" s="6" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="C122" s="6" t="inlineStr">
         <is>
-          <t>Debug Output Test</t>
+          <t>Backend Debug Test Final</t>
         </is>
       </c>
       <c r="D122" s="5" t="inlineStr">
@@ -7157,12 +7157,12 @@
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:22</t>
+          <t>03/07/2025 18:29</t>
         </is>
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:23</t>
+          <t>03/07/2025 19:13</t>
         </is>
       </c>
       <c r="H122" s="6" t="inlineStr">
@@ -7177,19 +7177,19 @@
       </c>
       <c r="J122" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:23</t>
+          <t>03/07/2025 19:13</t>
         </is>
       </c>
       <c r="K122" s="6" t="inlineStr">
         <is>
-          <t>Problema resuelto. Se realizó la depuración del sistema y se corrigieron los errores encontrados. El sistema está funcionando correctamente.</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="inlineStr">
         <is>
-          <t>TKT-0026</t>
+          <t>TKT-0027</t>
         </is>
       </c>
       <c r="B123" s="6" t="inlineStr">
@@ -7199,12 +7199,12 @@
       </c>
       <c r="C123" s="6" t="inlineStr">
         <is>
-          <t>Backend Debug Test</t>
+          <t>Debug Output Test</t>
         </is>
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E123" s="5" t="inlineStr">
@@ -7214,12 +7214,12 @@
       </c>
       <c r="F123" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:20</t>
+          <t>03/07/2025 18:22</t>
         </is>
       </c>
       <c r="G123" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:25</t>
+          <t>03/07/2025 19:23</t>
         </is>
       </c>
       <c r="H123" s="6" t="inlineStr">
@@ -7234,19 +7234,19 @@
       </c>
       <c r="J123" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:25</t>
+          <t>03/07/2025 19:23</t>
         </is>
       </c>
       <c r="K123" s="6" t="inlineStr">
         <is>
-          <t>Problema resuelto mediante configuración del backend. Se ajustaron los parámetros de debug y se verificó el funcionamiento correcto del sistema.</t>
+          <t>Problema resuelto. Se realizó la depuración del sistema y se corrigieron los errores encontrados. El sistema está funcionando correctamente.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="inlineStr">
         <is>
-          <t>TKT-0025</t>
+          <t>TKT-0026</t>
         </is>
       </c>
       <c r="B124" s="6" t="inlineStr">
@@ -7256,12 +7256,12 @@
       </c>
       <c r="C124" s="6" t="inlineStr">
         <is>
-          <t>Debug Console Test</t>
+          <t>Backend Debug Test</t>
         </is>
       </c>
       <c r="D124" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E124" s="5" t="inlineStr">
@@ -7271,12 +7271,12 @@
       </c>
       <c r="F124" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:16</t>
+          <t>03/07/2025 18:20</t>
         </is>
       </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>03/07/2025 19:25</t>
         </is>
       </c>
       <c r="H124" s="6" t="inlineStr">
@@ -7291,19 +7291,19 @@
       </c>
       <c r="J124" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>03/07/2025 19:25</t>
         </is>
       </c>
       <c r="K124" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>Problema resuelto mediante configuración del backend. Se ajustaron los parámetros de debug y se verificó el funcionamiento correcto del sistema.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="inlineStr">
         <is>
-          <t>TKT-0024</t>
+          <t>TKT-0025</t>
         </is>
       </c>
       <c r="B125" s="6" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="C125" s="6" t="inlineStr">
         <is>
-          <t>Final Debug Test</t>
+          <t>Debug Console Test</t>
         </is>
       </c>
       <c r="D125" s="5" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="F125" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:13</t>
+          <t>03/07/2025 18:16</t>
         </is>
       </c>
       <c r="G125" s="6" t="inlineStr">
@@ -7360,7 +7360,7 @@
     <row r="126">
       <c r="A126" s="5" t="inlineStr">
         <is>
-          <t>TKT-0023</t>
+          <t>TKT-0024</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr">
@@ -7370,12 +7370,12 @@
       </c>
       <c r="C126" s="6" t="inlineStr">
         <is>
-          <t>Debug Attachment Test</t>
+          <t>Final Debug Test</t>
         </is>
       </c>
       <c r="D126" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E126" s="5" t="inlineStr">
@@ -7385,12 +7385,12 @@
       </c>
       <c r="F126" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:08</t>
+          <t>03/07/2025 18:13</t>
         </is>
       </c>
       <c r="G126" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:18</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H126" s="6" t="inlineStr">
@@ -7405,19 +7405,19 @@
       </c>
       <c r="J126" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:18</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K126" s="6" t="inlineStr">
         <is>
-          <t>sdsdsds</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="inlineStr">
         <is>
-          <t>TKT-0022</t>
+          <t>TKT-0023</t>
         </is>
       </c>
       <c r="B127" s="6" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="C127" s="6" t="inlineStr">
         <is>
-          <t>Test Ticket with Attachment</t>
+          <t>Debug Attachment Test</t>
         </is>
       </c>
       <c r="D127" s="5" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="F127" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:00</t>
+          <t>03/07/2025 18:08</t>
         </is>
       </c>
       <c r="G127" s="6" t="inlineStr">
@@ -7467,14 +7467,14 @@
       </c>
       <c r="K127" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>sdsdsds</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="inlineStr">
         <is>
-          <t>TKT-0021</t>
+          <t>TKT-0022</t>
         </is>
       </c>
       <c r="B128" s="6" t="inlineStr">
@@ -7484,47 +7484,47 @@
       </c>
       <c r="C128" s="6" t="inlineStr">
         <is>
+          <t>Test Ticket with Attachment</t>
+        </is>
+      </c>
+      <c r="D128" s="5" t="inlineStr">
+        <is>
+          <t>cerrado</t>
+        </is>
+      </c>
+      <c r="E128" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F128" s="6" t="inlineStr">
+        <is>
+          <t>03/07/2025 18:00</t>
+        </is>
+      </c>
+      <c r="G128" s="6" t="inlineStr">
+        <is>
+          <t>08/07/2025 11:18</t>
+        </is>
+      </c>
+      <c r="H128" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I128" s="6" t="inlineStr">
+        <is>
+          <t>Naucalpan</t>
+        </is>
+      </c>
+      <c r="J128" s="6" t="inlineStr">
+        <is>
+          <t>08/07/2025 11:18</t>
+        </is>
+      </c>
+      <c r="K128" s="6" t="inlineStr">
+        <is>
           <t>sdsds</t>
-        </is>
-      </c>
-      <c r="D128" s="5" t="inlineStr">
-        <is>
-          <t>resuelto</t>
-        </is>
-      </c>
-      <c r="E128" s="5" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="F128" s="6" t="inlineStr">
-        <is>
-          <t>03/07/2025 17:57</t>
-        </is>
-      </c>
-      <c r="G128" s="6" t="inlineStr">
-        <is>
-          <t>03/07/2025 17:58</t>
-        </is>
-      </c>
-      <c r="H128" s="6" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="I128" s="6" t="inlineStr">
-        <is>
-          <t>Naucalpan</t>
-        </is>
-      </c>
-      <c r="J128" s="6" t="inlineStr">
-        <is>
-          <t>03/07/2025 17:58</t>
-        </is>
-      </c>
-      <c r="K128" s="6" t="inlineStr">
-        <is>
-          <t>ssdsdsdsd</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7588,7 @@
     <row r="130">
       <c r="A130" s="5" t="inlineStr">
         <is>
-          <t>TKT-0020</t>
+          <t>TKT-0021</t>
         </is>
       </c>
       <c r="B130" s="6" t="inlineStr">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D130" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E130" s="5" t="inlineStr">
@@ -7613,12 +7613,12 @@
       </c>
       <c r="F130" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:45</t>
+          <t>03/07/2025 17:57</t>
         </is>
       </c>
       <c r="G130" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:17</t>
+          <t>03/07/2025 17:58</t>
         </is>
       </c>
       <c r="H130" s="6" t="inlineStr">
@@ -7633,19 +7633,19 @@
       </c>
       <c r="J130" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:17</t>
+          <t>03/07/2025 17:58</t>
         </is>
       </c>
       <c r="K130" s="6" t="inlineStr">
         <is>
-          <t>sdsdsds</t>
+          <t>ssdsdsdsd</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="inlineStr">
         <is>
-          <t>TKT-0019</t>
+          <t>TKT-0020</t>
         </is>
       </c>
       <c r="B131" s="6" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="C131" s="6" t="inlineStr">
         <is>
-          <t>sdhksldj</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D131" s="5" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="F131" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:41</t>
+          <t>03/07/2025 16:45</t>
         </is>
       </c>
       <c r="G131" s="6" t="inlineStr">
@@ -7695,14 +7695,14 @@
       </c>
       <c r="K131" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>sdsdsds</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="inlineStr">
         <is>
-          <t>TKT-0018</t>
+          <t>TKT-0019</t>
         </is>
       </c>
       <c r="B132" s="6" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C132" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>sdhksldj</t>
         </is>
       </c>
       <c r="D132" s="5" t="inlineStr">
@@ -7727,12 +7727,12 @@
       </c>
       <c r="F132" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:36</t>
+          <t>03/07/2025 16:41</t>
         </is>
       </c>
       <c r="G132" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:16</t>
+          <t>08/07/2025 11:17</t>
         </is>
       </c>
       <c r="H132" s="6" t="inlineStr">
@@ -7747,19 +7747,19 @@
       </c>
       <c r="J132" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:16</t>
+          <t>08/07/2025 11:17</t>
         </is>
       </c>
       <c r="K132" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="inlineStr">
         <is>
-          <t>TKT-0017</t>
+          <t>TKT-0018</t>
         </is>
       </c>
       <c r="B133" s="6" t="inlineStr">
@@ -7769,12 +7769,12 @@
       </c>
       <c r="C133" s="6" t="inlineStr">
         <is>
-          <t>prueba 4839048</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D133" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E133" s="5" t="inlineStr">
@@ -7784,12 +7784,12 @@
       </c>
       <c r="F133" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:33</t>
+          <t>03/07/2025 16:36</t>
         </is>
       </c>
       <c r="G133" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>08/07/2025 11:16</t>
         </is>
       </c>
       <c r="H133" s="6" t="inlineStr">
@@ -7804,19 +7804,19 @@
       </c>
       <c r="J133" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>08/07/2025 11:16</t>
         </is>
       </c>
       <c r="K133" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>sdsd</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="inlineStr">
         <is>
-          <t>TKT-0016</t>
+          <t>TKT-0017</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="C134" s="6" t="inlineStr">
         <is>
-          <t>prueba adjunto 5</t>
+          <t>prueba 4839048</t>
         </is>
       </c>
       <c r="D134" s="5" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F134" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:31</t>
+          <t>03/07/2025 16:33</t>
         </is>
       </c>
       <c r="G134" s="6" t="inlineStr">
@@ -7873,7 +7873,7 @@
     <row r="135">
       <c r="A135" s="5" t="inlineStr">
         <is>
-          <t>TKT-0015</t>
+          <t>TKT-0016</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="C135" s="6" t="inlineStr">
         <is>
-          <t>prueba de adjunto 4</t>
+          <t>prueba adjunto 5</t>
         </is>
       </c>
       <c r="D135" s="5" t="inlineStr">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="F135" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:27</t>
+          <t>03/07/2025 16:31</t>
         </is>
       </c>
       <c r="G135" s="6" t="inlineStr">
@@ -7930,7 +7930,7 @@
     <row r="136">
       <c r="A136" s="5" t="inlineStr">
         <is>
-          <t>TKT-0014</t>
+          <t>TKT-0015</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="C136" s="6" t="inlineStr">
         <is>
-          <t>prueba adjunto 2</t>
+          <t>prueba de adjunto 4</t>
         </is>
       </c>
       <c r="D136" s="5" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="F136" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:20</t>
+          <t>03/07/2025 16:27</t>
         </is>
       </c>
       <c r="G136" s="6" t="inlineStr">
@@ -7987,7 +7987,7 @@
     <row r="137">
       <c r="A137" s="5" t="inlineStr">
         <is>
-          <t>TKT-0013</t>
+          <t>TKT-0014</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="C137" s="6" t="inlineStr">
         <is>
-          <t>prueba adjunto</t>
+          <t>prueba adjunto 2</t>
         </is>
       </c>
       <c r="D137" s="5" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="F137" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:17</t>
+          <t>03/07/2025 16:20</t>
         </is>
       </c>
       <c r="G137" s="6" t="inlineStr">
@@ -8044,7 +8044,7 @@
     <row r="138">
       <c r="A138" s="5" t="inlineStr">
         <is>
-          <t>TKT-0012</t>
+          <t>TKT-0013</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="C138" s="6" t="inlineStr">
         <is>
-          <t>prueba 10 am</t>
+          <t>prueba adjunto</t>
         </is>
       </c>
       <c r="D138" s="5" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="F138" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:59</t>
+          <t>03/07/2025 16:17</t>
         </is>
       </c>
       <c r="G138" s="6" t="inlineStr">
@@ -8101,7 +8101,7 @@
     <row r="139">
       <c r="A139" s="5" t="inlineStr">
         <is>
-          <t>TKT-0011</t>
+          <t>TKT-0012</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="C139" s="6" t="inlineStr">
         <is>
-          <t>prueba 40</t>
+          <t>prueba 10 am</t>
         </is>
       </c>
       <c r="D139" s="5" t="inlineStr">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="F139" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:53</t>
+          <t>03/07/2025 15:59</t>
         </is>
       </c>
       <c r="G139" s="6" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="140">
       <c r="A140" s="5" t="inlineStr">
         <is>
-          <t>TKT-0010</t>
+          <t>TKT-0011</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="C140" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>prueba 40</t>
         </is>
       </c>
       <c r="D140" s="5" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="F140" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:52</t>
+          <t>03/07/2025 15:53</t>
         </is>
       </c>
       <c r="G140" s="6" t="inlineStr">
@@ -8215,7 +8215,7 @@
     <row r="141">
       <c r="A141" s="5" t="inlineStr">
         <is>
-          <t>TKT-0009</t>
+          <t>TKT-0010</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="C141" s="6" t="inlineStr">
         <is>
-          <t>jkjlk</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D141" s="5" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="F141" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:36</t>
+          <t>03/07/2025 15:52</t>
         </is>
       </c>
       <c r="G141" s="6" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="I141" s="6" t="inlineStr">
         <is>
-          <t>API Test Site</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J141" s="6" t="inlineStr">
@@ -8272,7 +8272,7 @@
     <row r="142">
       <c r="A142" s="5" t="inlineStr">
         <is>
-          <t>TKT-0008</t>
+          <t>TKT-0009</t>
         </is>
       </c>
       <c r="B142" s="6" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="C142" s="6" t="inlineStr">
         <is>
-          <t>ssdsd</t>
+          <t>jkjlk</t>
         </is>
       </c>
       <c r="D142" s="5" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="F142" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:16</t>
+          <t>03/07/2025 15:36</t>
         </is>
       </c>
       <c r="G142" s="6" t="inlineStr">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="I142" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>API Test Site</t>
         </is>
       </c>
       <c r="J142" s="6" t="inlineStr">
@@ -8329,7 +8329,7 @@
     <row r="143">
       <c r="A143" s="5" t="inlineStr">
         <is>
-          <t>TKT-0007</t>
+          <t>TKT-0008</t>
         </is>
       </c>
       <c r="B143" s="6" t="inlineStr">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="C143" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>ssdsd</t>
         </is>
       </c>
       <c r="D143" s="5" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="F143" s="6" t="inlineStr">
         <is>
-          <t>02/07/2025 02:02</t>
+          <t>03/07/2025 15:16</t>
         </is>
       </c>
       <c r="G143" s="6" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I143" s="6" t="inlineStr">
         <is>
-          <t>API Test Site</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J143" s="6" t="inlineStr">
@@ -8386,7 +8386,7 @@
     <row r="144">
       <c r="A144" s="5" t="inlineStr">
         <is>
-          <t>TKT-0006</t>
+          <t>TKT-0007</t>
         </is>
       </c>
       <c r="B144" s="6" t="inlineStr">
@@ -8396,12 +8396,12 @@
       </c>
       <c r="C144" s="6" t="inlineStr">
         <is>
-          <t>prueba api test site</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D144" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E144" s="5" t="inlineStr">
@@ -8411,12 +8411,12 @@
       </c>
       <c r="F144" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 18:48</t>
+          <t>02/07/2025 02:02</t>
         </is>
       </c>
       <c r="G144" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H144" s="6" t="inlineStr">
@@ -8431,12 +8431,12 @@
       </c>
       <c r="J144" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K144" s="6" t="inlineStr">
         <is>
-          <t>34343434</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="K146" s="6" t="inlineStr">
         <is>
-          <t>prueba de resolucion 40</t>
+          <t>34343434</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
     <row r="148">
       <c r="A148" s="5" t="inlineStr">
         <is>
-          <t>TKT-0005</t>
+          <t>TKT-0006</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr">
@@ -8624,12 +8624,12 @@
       </c>
       <c r="C148" s="6" t="inlineStr">
         <is>
-          <t>sdjhsjdsh</t>
+          <t>prueba api test site</t>
         </is>
       </c>
       <c r="D148" s="5" t="inlineStr">
         <is>
-          <t>en_proceso</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E148" s="5" t="inlineStr">
@@ -8639,12 +8639,12 @@
       </c>
       <c r="F148" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:37</t>
+          <t>01/07/2025 18:48</t>
         </is>
       </c>
       <c r="G148" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="H148" s="6" t="inlineStr">
@@ -8654,39 +8654,39 @@
       </c>
       <c r="I148" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>API Test Site</t>
         </is>
       </c>
       <c r="J148" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="K148" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>prueba de resolucion 40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5" t="inlineStr">
         <is>
-          <t>TKT-0004</t>
+          <t>TKT-0005</t>
         </is>
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C149" s="6" t="inlineStr">
         <is>
-          <t>Test desde Python</t>
+          <t>sdjhsjdsh</t>
         </is>
       </c>
       <c r="D149" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>en_proceso</t>
         </is>
       </c>
       <c r="E149" s="5" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="F149" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:12</t>
+          <t>01/07/2025 17:37</t>
         </is>
       </c>
       <c r="G149" s="6" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="I149" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J149" s="6" t="inlineStr">
@@ -8728,7 +8728,7 @@
     <row r="150">
       <c r="A150" s="5" t="inlineStr">
         <is>
-          <t>TKT-0003</t>
+          <t>TKT-0004</t>
         </is>
       </c>
       <c r="B150" s="6" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="C150" s="6" t="inlineStr">
         <is>
-          <t>Ticket de Prueba #3</t>
+          <t>Test desde Python</t>
         </is>
       </c>
       <c r="D150" s="5" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="F150" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:09</t>
+          <t>01/07/2025 17:12</t>
         </is>
       </c>
       <c r="G150" s="6" t="inlineStr">
@@ -8785,7 +8785,7 @@
     <row r="151">
       <c r="A151" s="5" t="inlineStr">
         <is>
-          <t>TKT-0002</t>
+          <t>TKT-0003</t>
         </is>
       </c>
       <c r="B151" s="6" t="inlineStr">
@@ -8795,12 +8795,12 @@
       </c>
       <c r="C151" s="6" t="inlineStr">
         <is>
-          <t>Ticket de Prueba #2</t>
+          <t>Ticket de Prueba #3</t>
         </is>
       </c>
       <c r="D151" s="5" t="inlineStr">
         <is>
-          <t>en_proceso</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E151" s="5" t="inlineStr">
@@ -8842,55 +8842,112 @@
     <row r="152">
       <c r="A152" s="5" t="inlineStr">
         <is>
+          <t>TKT-0002</t>
+        </is>
+      </c>
+      <c r="B152" s="6" t="inlineStr">
+        <is>
+          <t>Cafe Mexico S.A. de C.V.</t>
+        </is>
+      </c>
+      <c r="C152" s="6" t="inlineStr">
+        <is>
+          <t>Ticket de Prueba #2</t>
+        </is>
+      </c>
+      <c r="D152" s="5" t="inlineStr">
+        <is>
+          <t>en_proceso</t>
+        </is>
+      </c>
+      <c r="E152" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F152" s="6" t="inlineStr">
+        <is>
+          <t>01/07/2025 17:09</t>
+        </is>
+      </c>
+      <c r="G152" s="6" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H152" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I152" s="6" t="inlineStr">
+        <is>
+          <t>Oficina Principal CDMX</t>
+        </is>
+      </c>
+      <c r="J152" s="6" t="inlineStr">
+        <is>
+          <t>Sin fecha</t>
+        </is>
+      </c>
+      <c r="K152" s="6" t="inlineStr">
+        <is>
+          <t>Sin resolución</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="inlineStr">
+        <is>
           <t>TKT-0001</t>
         </is>
       </c>
-      <c r="B152" s="6" t="inlineStr">
+      <c r="B153" s="6" t="inlineStr">
         <is>
           <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
-      <c r="C152" s="6" t="inlineStr">
+      <c r="C153" s="6" t="inlineStr">
         <is>
           <t>Ticket de Prueba #1</t>
         </is>
       </c>
-      <c r="D152" s="5" t="inlineStr">
+      <c r="D153" s="5" t="inlineStr">
         <is>
           <t>espera_cliente</t>
         </is>
       </c>
-      <c r="E152" s="5" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="F152" s="6" t="inlineStr">
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F153" s="6" t="inlineStr">
         <is>
           <t>01/07/2025 17:09</t>
         </is>
       </c>
-      <c r="G152" s="6" t="inlineStr">
+      <c r="G153" s="6" t="inlineStr">
         <is>
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H152" s="6" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="I152" s="6" t="inlineStr">
+      <c r="H153" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I153" s="6" t="inlineStr">
         <is>
           <t>Oficina Principal CDMX</t>
         </is>
       </c>
-      <c r="J152" s="6" t="inlineStr">
+      <c r="J153" s="6" t="inlineStr">
         <is>
           <t>Sin fecha</t>
         </is>
       </c>
-      <c r="K152" s="6" t="inlineStr">
+      <c r="K153" s="6" t="inlineStr">
         <is>
           <t>Sin resolución</t>
         </is>

--- a/backend/reports_files/reporte_consolidado_2025_07.xlsx
+++ b/backend/reports_files/reporte_consolidado_2025_07.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Generado: 15/07/2025 05:58 | Total de Tickets: 147</t>
+          <t>Generado: 18/07/2025 05:15 | Total de Tickets: 150</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>TKT-000143</t>
+          <t>TKT-000146</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion masiva</t>
+          <t>Prueba 7:30</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>en_proceso</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -602,17 +602,17 @@
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 17:09</t>
+          <t>16/07/2025 07:32</t>
         </is>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:09</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I7" s="6" t="inlineStr">
@@ -622,19 +622,19 @@
       </c>
       <c r="J7" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:09</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K7" s="6" t="inlineStr">
         <is>
-          <t>resolucuon masiva prueba lksjsdjskdjs</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>TKT-000142</t>
+          <t>TKT-000145</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
@@ -644,12 +644,12 @@
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>asasasasajklsj</t>
+          <t>prueba 7:21</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>en_proceso</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -659,17 +659,17 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 17:07</t>
+          <t>16/07/2025 07:22</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>15/07/2025 11:57</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I8" s="6" t="inlineStr">
@@ -679,19 +679,19 @@
       </c>
       <c r="J8" s="6" t="inlineStr">
         <is>
-          <t>15/07/2025 11:57</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>prueba de resolucion 2 ticket 142</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>TKT-000142</t>
+          <t>TKT-000144</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>asasasasajklsj</t>
+          <t>Prueba 6:32</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>en_proceso</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 17:07</t>
+          <t>16/07/2025 06:34</t>
         </is>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>15/07/2025 11:57</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H9" s="6" t="inlineStr">
@@ -736,19 +736,19 @@
       </c>
       <c r="J9" s="6" t="inlineStr">
         <is>
-          <t>15/07/2025 11:57</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K9" s="6" t="inlineStr">
         <is>
-          <t>prueba de que si se resolvio</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>TKT-000141</t>
+          <t>TKT-000143</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>prueba de ticket abierto</t>
+          <t>prueba resolucion masiva</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 17:02</t>
+          <t>12/07/2025 17:09</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:04</t>
+          <t>12/07/2025 23:09</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
@@ -793,19 +793,19 @@
       </c>
       <c r="J10" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:04</t>
+          <t>12/07/2025 23:09</t>
         </is>
       </c>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>resolucuon masiva prueba lksjsdjskdjs</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>TKT-000140</t>
+          <t>TKT-000142</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>prueba desde correo 8:31</t>
+          <t>asasasasajklsj</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -830,17 +830,17 @@
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 08:34</t>
+          <t>12/07/2025 17:07</t>
         </is>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 13:30</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I11" s="6" t="inlineStr">
@@ -850,19 +850,19 @@
       </c>
       <c r="J11" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 13:30</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>resolucion proporcionada por benjamin aharonov</t>
+          <t>prueba de que si se resolvio</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>TKT-000139</t>
+          <t>TKT-000142</t>
         </is>
       </c>
       <c r="B12" s="6" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>asasasasajklsj</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="F12" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 06:34</t>
+          <t>12/07/2025 17:07</t>
         </is>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:34</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I12" s="6" t="inlineStr">
@@ -907,19 +907,19 @@
       </c>
       <c r="J12" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:34</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>prueba de resolucion 2 ticket 142</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>TKT-000138</t>
+          <t>TKT-000141</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>prueba 6:56</t>
+          <t>prueba de ticket abierto</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -944,17 +944,17 @@
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 18:59</t>
+          <t>12/07/2025 17:02</t>
         </is>
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>12/07/2025 23:04</t>
         </is>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I13" s="6" t="inlineStr">
@@ -964,19 +964,19 @@
       </c>
       <c r="J13" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>12/07/2025 23:04</t>
         </is>
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>TKT-000137</t>
+          <t>TKT-000140</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>prueba 6:55</t>
+          <t>prueba desde correo 8:31</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 18:55</t>
+          <t>11/07/2025 08:34</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>12/07/2025 13:30</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>12/07/2025 13:30</t>
         </is>
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>resolucion proporcionada por benjamin aharonov</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>TKT-000131</t>
+          <t>TKT-000139</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
@@ -1043,12 +1043,12 @@
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>prueba 4:40 sdsds</t>
+          <t>sdsd</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="F15" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:42</t>
+          <t>11/07/2025 06:34</t>
         </is>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>11/07/2025 12:34</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="J15" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>11/07/2025 12:34</t>
         </is>
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>TKT-000131</t>
+          <t>TKT-000138</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>prueba 4:40 sdsds</t>
+          <t>prueba 6:56</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="F16" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:42</t>
+          <t>10/07/2025 18:59</t>
         </is>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I16" s="6" t="inlineStr">
@@ -1135,19 +1135,19 @@
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="K16" s="6" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>TKT-000127</t>
+          <t>TKT-000137</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>Prueba de timezone - 4:16 PM</t>
+          <t>prueba 6:55</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:14</t>
+          <t>10/07/2025 18:55</t>
         </is>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I17" s="6" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="J17" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="K17" s="6" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>TKT-000126</t>
+          <t>TKT-000131</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>Prueba con teléfono de contacto</t>
+          <t>prueba 4:40 sdsds</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:02</t>
+          <t>09/07/2025 22:42</t>
         </is>
       </c>
       <c r="G18" s="6" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I18" s="6" t="inlineStr">
@@ -1254,14 +1254,14 @@
       </c>
       <c r="K18" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>TKT-000125</t>
+          <t>TKT-000131</t>
         </is>
       </c>
       <c r="B19" s="6" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>prueba de asunto</t>
+          <t>prueba 4:40 sdsds</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 21:58</t>
+          <t>09/07/2025 22:42</t>
         </is>
       </c>
       <c r="G19" s="6" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>Usuario Test API</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I19" s="6" t="inlineStr">
@@ -1311,14 +1311,14 @@
       </c>
       <c r="K19" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>resuelto</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>TKT-000124</t>
+          <t>TKT-000127</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>Prueba de timezone - 4:16 PM</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 21:58</t>
+          <t>09/07/2025 22:14</t>
         </is>
       </c>
       <c r="G20" s="6" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I20" s="6" t="inlineStr">
@@ -1375,7 +1375,7 @@
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>TKT-000136</t>
+          <t>TKT-000126</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>prueba 8:54 pm</t>
+          <t>Prueba con teléfono de contacto</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -1400,12 +1400,12 @@
       </c>
       <c r="F21" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 20:58</t>
+          <t>09/07/2025 22:02</t>
         </is>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="H21" s="6" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="J21" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="K21" s="6" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>TKT-000135</t>
+          <t>TKT-000125</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>prueba 8:10 pm</t>
+          <t>prueba de asunto</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 20:09</t>
+          <t>09/07/2025 21:58</t>
         </is>
       </c>
       <c r="G22" s="6" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>Usuario Test API</t>
         </is>
       </c>
       <c r="I22" s="6" t="inlineStr">
@@ -1489,7 +1489,7 @@
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>TKT-000134</t>
+          <t>TKT-000124</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>prueba 7:32</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="F23" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 19:32</t>
+          <t>09/07/2025 21:58</t>
         </is>
       </c>
       <c r="G23" s="6" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I23" s="6" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>TKT-000133</t>
+          <t>TKT-000136</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>prueba ticket 7:27</t>
+          <t>prueba 8:54 pm</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -1571,17 +1571,17 @@
       </c>
       <c r="F24" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 19:29</t>
+          <t>09/07/2025 20:58</t>
         </is>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>Usuario Test API</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I24" s="6" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="J24" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="K24" s="6" t="inlineStr">
@@ -1603,7 +1603,7 @@
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>TKT-000132</t>
+          <t>TKT-000135</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>prueba de decripcion</t>
+          <t>prueba 8:10 pm</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 17:14</t>
+          <t>09/07/2025 20:09</t>
         </is>
       </c>
       <c r="G25" s="6" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I25" s="6" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>TKT-000130</t>
+          <t>TKT-000134</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>TIMEZONE FIX TEST - 4:38 PM - EDITADO VIA CURL</t>
+          <t>prueba 7:32</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 16:39</t>
+          <t>09/07/2025 19:32</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I26" s="6" t="inlineStr">
@@ -1717,7 +1717,7 @@
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>TKT-000129</t>
+          <t>TKT-000133</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>Test directo DB 4:18 PM</t>
+          <t>prueba ticket 7:27</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 16:36</t>
+          <t>09/07/2025 19:29</t>
         </is>
       </c>
       <c r="G27" s="6" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Usuario Test API</t>
         </is>
       </c>
       <c r="I27" s="6" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>TKT-000123</t>
+          <t>TKT-000132</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>prueba 10:12 am</t>
+          <t>prueba de decripcion</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 16:12</t>
+          <t>09/07/2025 17:14</t>
         </is>
       </c>
       <c r="G28" s="6" t="inlineStr">
@@ -1831,7 +1831,7 @@
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>TKT-000120</t>
+          <t>TKT-000130</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>TIMEZONE FIX TEST - 4:38 PM - EDITADO VIA CURL</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 14:41</t>
+          <t>09/07/2025 16:39</t>
         </is>
       </c>
       <c r="G29" s="6" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I29" s="6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>TKT-000117</t>
+          <t>TKT-000129</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>sddsds</t>
+          <t>Test directo DB 4:18 PM</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>baja</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 21:42</t>
+          <t>09/07/2025 16:36</t>
         </is>
       </c>
       <c r="G30" s="6" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="I30" s="6" t="inlineStr">
@@ -1945,17 +1945,17 @@
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
         <is>
-          <t>TKT-000116</t>
+          <t>TKT-000123</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>Ticket Test API</t>
+          <t>prueba 10:12 am</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:44</t>
+          <t>09/07/2025 16:12</t>
         </is>
       </c>
       <c r="G31" s="6" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="I31" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J31" s="6" t="inlineStr">
@@ -1995,14 +1995,14 @@
       </c>
       <c r="K31" s="6" t="inlineStr">
         <is>
-          <t>dffdf</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
         <is>
-          <t>TKT-000115</t>
+          <t>TKT-000120</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="F32" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:15</t>
+          <t>09/07/2025 14:41</t>
         </is>
       </c>
       <c r="G32" s="6" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="H32" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I32" s="6" t="inlineStr">
@@ -2059,7 +2059,7 @@
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>TKT-000114</t>
+          <t>TKT-000117</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>aasa</t>
+          <t>sddsds</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>baja</t>
         </is>
       </c>
       <c r="F33" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:02</t>
+          <t>08/07/2025 21:42</t>
         </is>
       </c>
       <c r="G33" s="6" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="H33" s="6" t="inlineStr">
         <is>
-          <t>Benjamin Aharonov</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I33" s="6" t="inlineStr">
@@ -2116,17 +2116,17 @@
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>TKT-000113</t>
+          <t>TKT-000116</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:42</t>
+          <t>Ticket Test API</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:47</t>
+          <t>08/07/2025 11:44</t>
         </is>
       </c>
       <c r="G34" s="6" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="H34" s="6" t="inlineStr">
         <is>
-          <t>Benjamin Aharonov</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I34" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J34" s="6" t="inlineStr">
@@ -2166,14 +2166,14 @@
       </c>
       <c r="K34" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>dffdf</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>TKT-000112</t>
+          <t>TKT-000115</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:25</t>
+          <t>sdsd</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F35" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:26</t>
+          <t>08/07/2025 11:15</t>
         </is>
       </c>
       <c r="G35" s="6" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="H35" s="6" t="inlineStr">
         <is>
-          <t>Benjamin Aharonov</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I35" s="6" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>TKT-000111</t>
+          <t>TKT-000114</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:15</t>
+          <t>aasa</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:19</t>
+          <t>08/07/2025 11:02</t>
         </is>
       </c>
       <c r="G36" s="6" t="inlineStr">
@@ -2287,7 +2287,7 @@
     <row r="37">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>TKT-000110</t>
+          <t>TKT-000113</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:05</t>
+          <t>prueba 1:42</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:09</t>
+          <t>07/07/2025 19:47</t>
         </is>
       </c>
       <c r="G37" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:38</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="H37" s="6" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="J37" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:38</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="K37" s="6" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>TKT-000109</t>
+          <t>TKT-000112</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="C38" s="6" t="inlineStr">
         <is>
-          <t>otra prueba</t>
+          <t>prueba 1:25</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 18:14</t>
+          <t>07/07/2025 19:26</t>
         </is>
       </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 14:31</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="H38" s="6" t="inlineStr">
@@ -2389,19 +2389,19 @@
       </c>
       <c r="J38" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 14:31</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="K38" s="6" t="inlineStr">
         <is>
-          <t>descripcion de la resolucion</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="inlineStr">
         <is>
-          <t>TKT-000108</t>
+          <t>TKT-000111</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>prueba de ticket 7 de julio</t>
+          <t>prueba 1:15</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F39" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 18:04</t>
+          <t>07/07/2025 19:19</t>
         </is>
       </c>
       <c r="G39" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 21:35</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="H39" s="6" t="inlineStr">
@@ -2446,19 +2446,19 @@
       </c>
       <c r="J39" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 21:35</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="K39" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>TKT-000107</t>
+          <t>TKT-000110</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>dsds</t>
+          <t>prueba 1:05</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
@@ -2483,12 +2483,12 @@
       </c>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 17:44</t>
+          <t>07/07/2025 19:09</t>
         </is>
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:00</t>
+          <t>11/07/2025 12:38</t>
         </is>
       </c>
       <c r="H40" s="6" t="inlineStr">
@@ -2503,19 +2503,19 @@
       </c>
       <c r="J40" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:00</t>
+          <t>11/07/2025 12:38</t>
         </is>
       </c>
       <c r="K40" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucon</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="inlineStr">
         <is>
-          <t>TKT-000106</t>
+          <t>TKT-000109</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>dsdsdsds</t>
+          <t>otra prueba</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="F41" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 16:34</t>
+          <t>07/07/2025 18:14</t>
         </is>
       </c>
       <c r="G41" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:18</t>
+          <t>11/07/2025 14:31</t>
         </is>
       </c>
       <c r="H41" s="6" t="inlineStr">
@@ -2560,19 +2560,19 @@
       </c>
       <c r="J41" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:18</t>
+          <t>11/07/2025 14:31</t>
         </is>
       </c>
       <c r="K41" s="6" t="inlineStr">
         <is>
-          <t>TEST RESOLUTION NOTES for TKT-000106 - This should appear in email notifications</t>
+          <t>descripcion de la resolucion</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="inlineStr">
         <is>
-          <t>TKT-000105</t>
+          <t>TKT-000108</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>prueba de ticket 7 de julio</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>reabierto</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 15:35</t>
+          <t>07/07/2025 18:04</t>
         </is>
       </c>
       <c r="G42" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 21:35</t>
         </is>
       </c>
       <c r="H42" s="6" t="inlineStr">
@@ -2617,19 +2617,19 @@
       </c>
       <c r="J42" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 21:35</t>
         </is>
       </c>
       <c r="K42" s="6" t="inlineStr">
         <is>
-          <t>resolucion 2</t>
+          <t>prueba resolucion</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
         <is>
-          <t>TKT-000105</t>
+          <t>TKT-000107</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>dsds</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>reabierto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -2654,12 +2654,12 @@
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 15:35</t>
+          <t>07/07/2025 17:44</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:00</t>
         </is>
       </c>
       <c r="H43" s="6" t="inlineStr">
@@ -2674,19 +2674,19 @@
       </c>
       <c r="J43" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:00</t>
         </is>
       </c>
       <c r="K43" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>prueba resolucon</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
         <is>
-          <t>TKT-000104</t>
+          <t>TKT-000106</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>dsdds</t>
+          <t>dsdsdsds</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>asignado</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -2711,12 +2711,12 @@
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 04:18</t>
+          <t>07/07/2025 16:34</t>
         </is>
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:18</t>
         </is>
       </c>
       <c r="H44" s="6" t="inlineStr">
@@ -2731,19 +2731,19 @@
       </c>
       <c r="J44" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:18</t>
         </is>
       </c>
       <c r="K44" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>TEST RESOLUTION NOTES for TKT-000106 - This should appear in email notifications</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="inlineStr">
         <is>
-          <t>TKT-000103</t>
+          <t>TKT-000105</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>dssd</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>asignado</t>
+          <t>reabierto</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="F45" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 04:09</t>
+          <t>07/07/2025 15:35</t>
         </is>
       </c>
       <c r="G45" s="6" t="inlineStr">
@@ -2793,14 +2793,14 @@
       </c>
       <c r="K45" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>resolucion 2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="inlineStr">
         <is>
-          <t>TKT-000102</t>
+          <t>TKT-000105</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
@@ -2810,12 +2810,12 @@
       </c>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>skdjlskdjksj</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
         <is>
-          <t>asignado</t>
+          <t>reabierto</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="F46" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 17:06</t>
+          <t>07/07/2025 15:35</t>
         </is>
       </c>
       <c r="G46" s="6" t="inlineStr">
@@ -2850,14 +2850,14 @@
       </c>
       <c r="K46" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t>TKT-000101</t>
+          <t>TKT-000104</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>oeowiewopi</t>
+          <t>dsdds</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="F47" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 17:06</t>
+          <t>07/07/2025 04:18</t>
         </is>
       </c>
       <c r="G47" s="6" t="inlineStr">
@@ -2914,7 +2914,7 @@
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>TKT-000100</t>
+          <t>TKT-000103</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
+          <t>dssd</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 17:06</t>
+          <t>07/07/2025 04:09</t>
         </is>
       </c>
       <c r="G48" s="6" t="inlineStr">
@@ -2971,7 +2971,7 @@
     <row r="49">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>TKT-000099</t>
+          <t>TKT-000102</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
+          <t>skdjlskdjksj</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>TKT-000098</t>
+          <t>TKT-000101</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>sjdlsdjs l</t>
+          <t>oeowiewopi</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -3085,7 +3085,7 @@
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
         <is>
-          <t>TKT-000097</t>
+          <t>TKT-000100</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>sdnsdslk</t>
+          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
@@ -3142,7 +3142,7 @@
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
         <is>
-          <t>TKT-000096</t>
+          <t>TKT-000099</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>prueba potra vez</t>
+          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -3199,7 +3199,7 @@
     <row r="53">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>TKT-000095</t>
+          <t>TKT-000098</t>
         </is>
       </c>
       <c r="B53" s="6" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>ksjlsdkjl</t>
+          <t>sjdlsdjs l</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="F53" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 17:05</t>
+          <t>06/07/2025 17:06</t>
         </is>
       </c>
       <c r="G53" s="6" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="54">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>TKT-000094</t>
+          <t>TKT-000097</t>
         </is>
       </c>
       <c r="B54" s="6" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C54" s="6" t="inlineStr">
         <is>
-          <t>prueba</t>
+          <t>sdnsdslk</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F54" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 16:10</t>
+          <t>06/07/2025 17:06</t>
         </is>
       </c>
       <c r="G54" s="6" t="inlineStr">
@@ -3313,17 +3313,17 @@
     <row r="55">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>TKT-000093</t>
+          <t>TKT-000096</t>
         </is>
       </c>
       <c r="B55" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>Test Assignment Logic</t>
+          <t>prueba potra vez</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="F55" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 14:50</t>
+          <t>06/07/2025 17:06</t>
         </is>
       </c>
       <c r="G55" s="6" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="I55" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J55" s="6" t="inlineStr">
@@ -3370,22 +3370,22 @@
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>TKT-000092</t>
+          <t>TKT-000095</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>Test Assignment Logic</t>
+          <t>ksjlsdkjl</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>asignado</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
@@ -3395,54 +3395,54 @@
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 14:49</t>
+          <t>06/07/2025 17:05</t>
         </is>
       </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:06</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H56" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Benjamin Aharonov</t>
         </is>
       </c>
       <c r="I56" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J56" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:06</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K56" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>TKT-000091</t>
+          <t>TKT-000094</t>
         </is>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>Test Assignment Logic</t>
+          <t>prueba</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>asignado</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
@@ -3452,54 +3452,54 @@
       </c>
       <c r="F57" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 14:49</t>
+          <t>06/07/2025 16:10</t>
         </is>
       </c>
       <c r="G57" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H57" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Benjamin Aharonov</t>
         </is>
       </c>
       <c r="I57" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J57" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K57" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion 20 tickets</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="inlineStr">
         <is>
-          <t>TKT-000090</t>
+          <t>TKT-000093</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>jhkjh</t>
+          <t>Test Assignment Logic</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>asignado</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
@@ -3509,49 +3509,49 @@
       </c>
       <c r="F58" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:39</t>
+          <t>06/07/2025 14:50</t>
         </is>
       </c>
       <c r="G58" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H58" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Benjamin Aharonov</t>
         </is>
       </c>
       <c r="I58" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J58" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K58" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion 20 tickets</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
         <is>
-          <t>TKT-000089</t>
+          <t>TKT-000092</t>
         </is>
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>Frontend Test Ticket</t>
+          <t>Test Assignment Logic</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="F59" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:39</t>
+          <t>06/07/2025 14:49</t>
         </is>
       </c>
       <c r="G59" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>12/07/2025 23:06</t>
         </is>
       </c>
       <c r="H59" s="6" t="inlineStr">
@@ -3581,24 +3581,24 @@
       </c>
       <c r="I59" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J59" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>12/07/2025 23:06</t>
         </is>
       </c>
       <c r="K59" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion 20 tickets</t>
+          <t>prueba resolucion</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="inlineStr">
         <is>
-          <t>TKT-000088</t>
+          <t>TKT-000091</t>
         </is>
       </c>
       <c r="B60" s="6" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>Test Assignment Logic</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="F60" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:38</t>
+          <t>06/07/2025 14:49</t>
         </is>
       </c>
       <c r="G60" s="6" t="inlineStr">
@@ -3655,17 +3655,17 @@
     <row r="61">
       <c r="A61" s="5" t="inlineStr">
         <is>
-          <t>TKT-000085</t>
+          <t>TKT-000090</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>jhkjh</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>baja</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F61" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:29</t>
+          <t>05/07/2025 15:39</t>
         </is>
       </c>
       <c r="G61" s="6" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I61" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J61" s="6" t="inlineStr">
@@ -3712,17 +3712,17 @@
     <row r="62">
       <c r="A62" s="5" t="inlineStr">
         <is>
-          <t>TKT-000084</t>
+          <t>TKT-000089</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C62" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>Frontend Test Ticket</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="F62" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:29</t>
+          <t>05/07/2025 15:39</t>
         </is>
       </c>
       <c r="G62" s="6" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="I62" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J62" s="6" t="inlineStr">
@@ -3769,7 +3769,7 @@
     <row r="63">
       <c r="A63" s="5" t="inlineStr">
         <is>
-          <t>TKT-000083</t>
+          <t>TKT-000088</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="F63" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:29</t>
+          <t>05/07/2025 15:38</t>
         </is>
       </c>
       <c r="G63" s="6" t="inlineStr">
@@ -3826,17 +3826,17 @@
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>TKT-000082</t>
+          <t>TKT-000085</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C64" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -3846,12 +3846,12 @@
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>baja</t>
         </is>
       </c>
       <c r="F64" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:27</t>
+          <t>05/07/2025 15:29</t>
         </is>
       </c>
       <c r="G64" s="6" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="I64" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J64" s="6" t="inlineStr">
@@ -3883,17 +3883,17 @@
     <row r="65">
       <c r="A65" s="5" t="inlineStr">
         <is>
-          <t>TKT-000079</t>
+          <t>TKT-000084</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="F65" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:24</t>
+          <t>05/07/2025 15:29</t>
         </is>
       </c>
       <c r="G65" s="6" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="I65" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J65" s="6" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="66">
       <c r="A66" s="5" t="inlineStr">
         <is>
-          <t>TKT-000078</t>
+          <t>TKT-000083</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C66" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="F66" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:24</t>
+          <t>05/07/2025 15:29</t>
         </is>
       </c>
       <c r="G66" s="6" t="inlineStr">
@@ -3997,7 +3997,7 @@
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>TKT-000077</t>
+          <t>TKT-000082</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="F67" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:24</t>
+          <t>05/07/2025 15:27</t>
         </is>
       </c>
       <c r="G67" s="6" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
         <is>
-          <t>TKT-000076</t>
+          <t>TKT-000079</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C68" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="F68" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:01</t>
+          <t>05/07/2025 15:24</t>
         </is>
       </c>
       <c r="G68" s="6" t="inlineStr">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="I68" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J68" s="6" t="inlineStr">
@@ -4111,7 +4111,7 @@
     <row r="69">
       <c r="A69" s="5" t="inlineStr">
         <is>
-          <t>TKT-000075</t>
+          <t>TKT-000078</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="F69" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:58</t>
+          <t>05/07/2025 15:24</t>
         </is>
       </c>
       <c r="G69" s="6" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="70">
       <c r="A70" s="5" t="inlineStr">
         <is>
-          <t>TKT-000074</t>
+          <t>TKT-000077</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="F70" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:40</t>
+          <t>05/07/2025 15:24</t>
         </is>
       </c>
       <c r="G70" s="6" t="inlineStr">
@@ -4225,7 +4225,7 @@
     <row r="71">
       <c r="A71" s="5" t="inlineStr">
         <is>
-          <t>TKT-000073</t>
+          <t>TKT-000076</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="F71" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:39</t>
+          <t>05/07/2025 15:01</t>
         </is>
       </c>
       <c r="G71" s="6" t="inlineStr">
@@ -4282,7 +4282,7 @@
     <row r="72">
       <c r="A72" s="5" t="inlineStr">
         <is>
-          <t>TKT-000072</t>
+          <t>TKT-000075</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C72" s="6" t="inlineStr">
         <is>
-          <t>DEBUG API Test Ticket</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D72" s="5" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="F72" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:38</t>
+          <t>05/07/2025 14:58</t>
         </is>
       </c>
       <c r="G72" s="6" t="inlineStr">
@@ -4339,17 +4339,17 @@
     <row r="73">
       <c r="A73" s="5" t="inlineStr">
         <is>
-          <t>TKT-000069</t>
+          <t>TKT-000074</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D73" s="5" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F73" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:33</t>
+          <t>05/07/2025 14:40</t>
         </is>
       </c>
       <c r="G73" s="6" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="I73" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J73" s="6" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="74">
       <c r="A74" s="5" t="inlineStr">
         <is>
-          <t>TKT-000068</t>
+          <t>TKT-000073</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C74" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D74" s="5" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:33</t>
+          <t>05/07/2025 14:39</t>
         </is>
       </c>
       <c r="G74" s="6" t="inlineStr">
@@ -4453,17 +4453,17 @@
     <row r="75">
       <c r="A75" s="5" t="inlineStr">
         <is>
-          <t>TKT-000067</t>
+          <t>TKT-000072</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>DEBUG API Test Ticket</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="F75" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:33</t>
+          <t>05/07/2025 14:38</t>
         </is>
       </c>
       <c r="G75" s="6" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="I75" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J75" s="6" t="inlineStr">
@@ -4510,17 +4510,17 @@
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
         <is>
-          <t>TKT-000066</t>
+          <t>TKT-000069</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="I76" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J76" s="6" t="inlineStr">
@@ -4567,7 +4567,7 @@
     <row r="77">
       <c r="A77" s="5" t="inlineStr">
         <is>
-          <t>TKT-000065</t>
+          <t>TKT-000068</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="D77" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
@@ -4592,12 +4592,12 @@
       </c>
       <c r="F77" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:30</t>
+          <t>05/07/2025 14:33</t>
         </is>
       </c>
       <c r="G77" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:19</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="H77" s="6" t="inlineStr">
@@ -4612,34 +4612,34 @@
       </c>
       <c r="J77" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:19</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="K77" s="6" t="inlineStr">
         <is>
-          <t>prueba de que si se resolvvio ticket 65</t>
+          <t>prueba resolucion 20 tickets</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="inlineStr">
         <is>
-          <t>TKT-000064</t>
+          <t>TKT-000067</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C78" s="6" t="inlineStr">
         <is>
-          <t>DIRECT ROUTE TEST - Unified Numbering</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="F78" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:30</t>
+          <t>05/07/2025 14:33</t>
         </is>
       </c>
       <c r="G78" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:27</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="H78" s="6" t="inlineStr">
@@ -4664,24 +4664,24 @@
       </c>
       <c r="I78" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J78" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:27</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="K78" s="6" t="inlineStr">
         <is>
-          <t>resolucion ticket 64</t>
+          <t>prueba resolucion 20 tickets</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>TKT-000063</t>
+          <t>TKT-000066</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="C79" s="6" t="inlineStr">
         <is>
-          <t>DIRECT ROUTE TEST - Unified Numbering</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
@@ -4706,12 +4706,12 @@
       </c>
       <c r="F79" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:28</t>
+          <t>05/07/2025 14:33</t>
         </is>
       </c>
       <c r="G79" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="H79" s="6" t="inlineStr">
@@ -4726,19 +4726,19 @@
       </c>
       <c r="J79" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="K79" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>prueba resolucion 20 tickets</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>TKT-000061</t>
+          <t>TKT-000065</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="C80" s="6" t="inlineStr">
         <is>
-          <t>UNIFIED NUMBERING TEST</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
@@ -4763,12 +4763,12 @@
       </c>
       <c r="F80" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:27</t>
+          <t>05/07/2025 14:30</t>
         </is>
       </c>
       <c r="G80" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:19</t>
         </is>
       </c>
       <c r="H80" s="6" t="inlineStr">
@@ -4783,34 +4783,34 @@
       </c>
       <c r="J80" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:19</t>
         </is>
       </c>
       <c r="K80" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>prueba de que si se resolvvio ticket 65</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>TKT-000024</t>
+          <t>TKT-000064</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
         <is>
-          <t>skdjlskdjksj</t>
+          <t>DIRECT ROUTE TEST - Unified Numbering</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
@@ -4820,12 +4820,12 @@
       </c>
       <c r="F81" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:17</t>
+          <t>05/07/2025 14:30</t>
         </is>
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:27</t>
         </is>
       </c>
       <c r="H81" s="6" t="inlineStr">
@@ -4835,34 +4835,34 @@
       </c>
       <c r="I81" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J81" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:27</t>
         </is>
       </c>
       <c r="K81" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>resolucion ticket 64</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>TKT-000023</t>
+          <t>TKT-000063</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C82" s="6" t="inlineStr">
         <is>
-          <t>oeowiewopi</t>
+          <t>DIRECT ROUTE TEST - Unified Numbering</t>
         </is>
       </c>
       <c r="D82" s="5" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:17</t>
+          <t>05/07/2025 14:28</t>
         </is>
       </c>
       <c r="G82" s="6" t="inlineStr">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="I82" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J82" s="6" t="inlineStr">
@@ -4909,17 +4909,17 @@
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
-          <t>TKT-000022</t>
+          <t>TKT-000061</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
+          <t>UNIFIED NUMBERING TEST</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="F83" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:17</t>
+          <t>05/07/2025 14:27</t>
         </is>
       </c>
       <c r="G83" s="6" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="I83" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J83" s="6" t="inlineStr">
@@ -4966,7 +4966,7 @@
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
         <is>
-          <t>TKT-000021</t>
+          <t>TKT-000024</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C84" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
+          <t>skdjlskdjksj</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -5023,7 +5023,7 @@
     <row r="85">
       <c r="A85" s="5" t="inlineStr">
         <is>
-          <t>TKT-000020</t>
+          <t>TKT-000023</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="C85" s="6" t="inlineStr">
         <is>
-          <t>sjdlsdjs l</t>
+          <t>oeowiewopi</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
@@ -5080,7 +5080,7 @@
     <row r="86">
       <c r="A86" s="5" t="inlineStr">
         <is>
-          <t>TKT-000019</t>
+          <t>TKT-000022</t>
         </is>
       </c>
       <c r="B86" s="6" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C86" s="6" t="inlineStr">
         <is>
-          <t>sdnsdslk</t>
+          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="87">
       <c r="A87" s="5" t="inlineStr">
         <is>
-          <t>TKT-000016</t>
+          <t>TKT-000021</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="C87" s="6" t="inlineStr">
         <is>
-          <t>prueba potra vez</t>
+          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="F87" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 02:57</t>
+          <t>05/07/2025 14:17</t>
         </is>
       </c>
       <c r="G87" s="6" t="inlineStr">
@@ -5194,7 +5194,7 @@
     <row r="88">
       <c r="A88" s="5" t="inlineStr">
         <is>
-          <t>TKT-000013</t>
+          <t>TKT-000020</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C88" s="6" t="inlineStr">
         <is>
-          <t>prueba 93839048</t>
+          <t>sjdlsdjs l</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="F88" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 02:50</t>
+          <t>05/07/2025 14:17</t>
         </is>
       </c>
       <c r="G88" s="6" t="inlineStr">
@@ -5251,7 +5251,7 @@
     <row r="89">
       <c r="A89" s="5" t="inlineStr">
         <is>
-          <t>TKT-000012</t>
+          <t>TKT-000019</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C89" s="6" t="inlineStr">
         <is>
-          <t>prueva 9348309</t>
+          <t>sdnsdslk</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="F89" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 02:45</t>
+          <t>05/07/2025 14:17</t>
         </is>
       </c>
       <c r="G89" s="6" t="inlineStr">
@@ -5308,17 +5308,17 @@
     <row r="90">
       <c r="A90" s="5" t="inlineStr">
         <is>
-          <t>TKT-000008</t>
+          <t>TKT-000016</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C90" s="6" t="inlineStr">
         <is>
-          <t>Test Sequential Ticket Number</t>
+          <t>prueba potra vez</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 00:59</t>
+          <t>05/07/2025 02:57</t>
         </is>
       </c>
       <c r="G90" s="6" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="I90" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J90" s="6" t="inlineStr">
@@ -5365,7 +5365,7 @@
     <row r="91">
       <c r="A91" s="5" t="inlineStr">
         <is>
-          <t>TKT-41FDBC9C</t>
+          <t>TKT-000013</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="C91" s="6" t="inlineStr">
         <is>
-          <t>prueba 2897897</t>
+          <t>prueba 93839048</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 00:33</t>
+          <t>05/07/2025 02:50</t>
         </is>
       </c>
       <c r="G91" s="6" t="inlineStr">
@@ -5422,7 +5422,7 @@
     <row r="92">
       <c r="A92" s="5" t="inlineStr">
         <is>
-          <t>TKT-0058</t>
+          <t>TKT-000012</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
@@ -5432,12 +5432,12 @@
       </c>
       <c r="C92" s="6" t="inlineStr">
         <is>
-          <t>prueba de screege@hotmail.com</t>
+          <t>prueva 9348309</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
         <is>
-          <t>reabierto</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E92" s="5" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="F92" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:42</t>
+          <t>05/07/2025 02:45</t>
         </is>
       </c>
       <c r="G92" s="6" t="inlineStr">
@@ -5472,24 +5472,24 @@
       </c>
       <c r="K92" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="inlineStr">
         <is>
-          <t>TKT-0057</t>
+          <t>TKT-000008</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>qqqwqwqw</t>
+          <t>Test Sequential Ticket Number</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="F93" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:37</t>
+          <t>05/07/2025 00:59</t>
         </is>
       </c>
       <c r="G93" s="6" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="I93" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J93" s="6" t="inlineStr">
@@ -5536,7 +5536,7 @@
     <row r="94">
       <c r="A94" s="5" t="inlineStr">
         <is>
-          <t>TKT-0056</t>
+          <t>TKT-41FDBC9C</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C94" s="6" t="inlineStr">
         <is>
-          <t>TEST NOTIFICATION ROUTING - Should notify both emails</t>
+          <t>prueba 2897897</t>
         </is>
       </c>
       <c r="D94" s="5" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F94" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:14</t>
+          <t>05/07/2025 00:33</t>
         </is>
       </c>
       <c r="G94" s="6" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="I94" s="6" t="inlineStr">
         <is>
-          <t>Test Site Fixed</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J94" s="6" t="inlineStr">
@@ -5593,32 +5593,32 @@
     <row r="95">
       <c r="A95" s="5" t="inlineStr">
         <is>
-          <t>TKT-0055</t>
+          <t>TKT-0058</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
         <is>
-          <t>PRUEBA FINAL SLA MONITOR - Segundo Ticket</t>
+          <t>prueba de screege@hotmail.com</t>
         </is>
       </c>
       <c r="D95" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>reabierto</t>
         </is>
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F95" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:02</t>
+          <t>04/07/2025 03:42</t>
         </is>
       </c>
       <c r="G95" s="6" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="I95" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J95" s="6" t="inlineStr">
@@ -5643,14 +5643,14 @@
       </c>
       <c r="K95" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="inlineStr">
         <is>
-          <t>TKT-0054</t>
+          <t>TKT-0057</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="C96" s="6" t="inlineStr">
         <is>
-          <t>sfsfs</t>
+          <t>qqqwqwqw</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="F96" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:00</t>
+          <t>04/07/2025 03:37</t>
         </is>
       </c>
       <c r="G96" s="6" t="inlineStr">
@@ -5707,17 +5707,17 @@
     <row r="97">
       <c r="A97" s="5" t="inlineStr">
         <is>
-          <t>TKT-0053</t>
+          <t>TKT-0056</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION TRACE TEST - Rastreo completo del sistema</t>
+          <t>TEST NOTIFICATION ROUTING - Should notify both emails</t>
         </is>
       </c>
       <c r="D97" s="5" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="F97" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:55</t>
+          <t>04/07/2025 03:14</t>
         </is>
       </c>
       <c r="G97" s="6" t="inlineStr">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="I97" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Test Site Fixed</t>
         </is>
       </c>
       <c r="J97" s="6" t="inlineStr">
@@ -5764,17 +5764,17 @@
     <row r="98">
       <c r="A98" s="5" t="inlineStr">
         <is>
-          <t>TKT-0052</t>
+          <t>TKT-0055</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>Ficein Test 20250630_143536</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C98" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>PRUEBA FINAL SLA MONITOR - Segundo Ticket</t>
         </is>
       </c>
       <c r="D98" s="5" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="E98" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F98" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:52</t>
+          <t>04/07/2025 03:02</t>
         </is>
       </c>
       <c r="G98" s="6" t="inlineStr">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="I98" s="6" t="inlineStr">
         <is>
-          <t>polanco</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J98" s="6" t="inlineStr">
@@ -5821,17 +5821,17 @@
     <row r="99">
       <c r="A99" s="5" t="inlineStr">
         <is>
-          <t>TKT-0051</t>
+          <t>TKT-0054</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>Diseno Nono Creativo</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C99" s="6" t="inlineStr">
         <is>
-          <t>asasa</t>
+          <t>sfsfs</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F99" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:45</t>
+          <t>04/07/2025 03:00</t>
         </is>
       </c>
       <c r="G99" s="6" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="I99" s="6" t="inlineStr">
         <is>
-          <t>Estudio Creativo GDL</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J99" s="6" t="inlineStr">
@@ -5878,7 +5878,7 @@
     <row r="100">
       <c r="A100" s="5" t="inlineStr">
         <is>
-          <t>TKT-0050</t>
+          <t>TKT-0053</t>
         </is>
       </c>
       <c r="B100" s="6" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="C100" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION DEBUG TEST - Should trigger emails</t>
+          <t>NOTIFICATION TRACE TEST - Rastreo completo del sistema</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="F100" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:44</t>
+          <t>04/07/2025 02:55</t>
         </is>
       </c>
       <c r="G100" s="6" t="inlineStr">
@@ -5935,17 +5935,17 @@
     <row r="101">
       <c r="A101" s="5" t="inlineStr">
         <is>
-          <t>TKT-0049</t>
+          <t>TKT-0052</t>
         </is>
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Ficein Test 20250630_143536</t>
         </is>
       </c>
       <c r="C101" s="6" t="inlineStr">
         <is>
-          <t>BACKWARD COMPATIBILITY TEST - Old Field Name</t>
+          <t>sdsd</t>
         </is>
       </c>
       <c r="D101" s="5" t="inlineStr">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F101" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:35</t>
+          <t>04/07/2025 02:52</t>
         </is>
       </c>
       <c r="G101" s="6" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="I101" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>polanco</t>
         </is>
       </c>
       <c r="J101" s="6" t="inlineStr">
@@ -5992,17 +5992,17 @@
     <row r="102">
       <c r="A102" s="5" t="inlineStr">
         <is>
-          <t>TKT-0048</t>
+          <t>TKT-0051</t>
         </is>
       </c>
       <c r="B102" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Diseno Nono Creativo</t>
         </is>
       </c>
       <c r="C102" s="6" t="inlineStr">
         <is>
-          <t>TEST NEW FIELDS - Phone and Email Separation</t>
+          <t>asasa</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr">
@@ -6012,12 +6012,12 @@
       </c>
       <c r="E102" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F102" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:33</t>
+          <t>04/07/2025 02:45</t>
         </is>
       </c>
       <c r="G102" s="6" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="I102" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Estudio Creativo GDL</t>
         </is>
       </c>
       <c r="J102" s="6" t="inlineStr">
@@ -6049,7 +6049,7 @@
     <row r="103">
       <c r="A103" s="5" t="inlineStr">
         <is>
-          <t>TKT-0047</t>
+          <t>TKT-0050</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="C103" s="6" t="inlineStr">
         <is>
-          <t>TEST NEW FIELDS - Phone and Email Separation</t>
+          <t>NOTIFICATION DEBUG TEST - Should trigger emails</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="F103" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:08</t>
+          <t>04/07/2025 02:44</t>
         </is>
       </c>
       <c r="G103" s="6" t="inlineStr">
@@ -6106,7 +6106,7 @@
     <row r="104">
       <c r="A104" s="5" t="inlineStr">
         <is>
-          <t>TKT-0046</t>
+          <t>TKT-0049</t>
         </is>
       </c>
       <c r="B104" s="6" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C104" s="6" t="inlineStr">
         <is>
-          <t>MANUAL PROCESSING TEST - Should work with manual queue processing</t>
+          <t>BACKWARD COMPATIBILITY TEST - Old Field Name</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="F104" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:48</t>
+          <t>04/07/2025 02:35</t>
         </is>
       </c>
       <c r="G104" s="6" t="inlineStr">
@@ -6163,17 +6163,17 @@
     <row r="105">
       <c r="A105" s="5" t="inlineStr">
         <is>
-          <t>TKT-0045</t>
+          <t>TKT-0048</t>
         </is>
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C105" s="6" t="inlineStr">
         <is>
-          <t>prueba oyra vez</t>
+          <t>TEST NEW FIELDS - Phone and Email Separation</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="E105" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F105" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:48</t>
+          <t>04/07/2025 02:33</t>
         </is>
       </c>
       <c r="G105" s="6" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="I105" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J105" s="6" t="inlineStr">
@@ -6220,17 +6220,17 @@
     <row r="106">
       <c r="A106" s="5" t="inlineStr">
         <is>
-          <t>TKT-0044</t>
+          <t>TKT-0047</t>
         </is>
       </c>
       <c r="B106" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C106" s="6" t="inlineStr">
         <is>
-          <t>7:42</t>
+          <t>TEST NEW FIELDS - Phone and Email Separation</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:43</t>
+          <t>04/07/2025 02:08</t>
         </is>
       </c>
       <c r="G106" s="6" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="I106" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J106" s="6" t="inlineStr">
@@ -6277,17 +6277,17 @@
     <row r="107">
       <c r="A107" s="5" t="inlineStr">
         <is>
-          <t>TKT-0043</t>
+          <t>TKT-0046</t>
         </is>
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C107" s="6" t="inlineStr">
         <is>
-          <t>prueba automatico</t>
+          <t>MANUAL PROCESSING TEST - Should work with manual queue processing</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr">
@@ -6297,12 +6297,12 @@
       </c>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F107" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:40</t>
+          <t>04/07/2025 01:48</t>
         </is>
       </c>
       <c r="G107" s="6" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="I107" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J107" s="6" t="inlineStr">
@@ -6334,7 +6334,7 @@
     <row r="108">
       <c r="A108" s="5" t="inlineStr">
         <is>
-          <t>TKT-0042</t>
+          <t>TKT-0045</t>
         </is>
       </c>
       <c r="B108" s="6" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="C108" s="6" t="inlineStr">
         <is>
-          <t>prueba a hotmail</t>
+          <t>prueba oyra vez</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="F108" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:32</t>
+          <t>04/07/2025 01:48</t>
         </is>
       </c>
       <c r="G108" s="6" t="inlineStr">
@@ -6391,7 +6391,7 @@
     <row r="109">
       <c r="A109" s="5" t="inlineStr">
         <is>
-          <t>TKT-0041</t>
+          <t>TKT-0044</t>
         </is>
       </c>
       <c r="B109" s="6" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C109" s="6" t="inlineStr">
         <is>
-          <t>prueba de comunciacion</t>
+          <t>7:42</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="F109" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:28</t>
+          <t>04/07/2025 01:43</t>
         </is>
       </c>
       <c r="G109" s="6" t="inlineStr">
@@ -6448,17 +6448,17 @@
     <row r="110">
       <c r="A110" s="5" t="inlineStr">
         <is>
-          <t>TKT-0040</t>
+          <t>TKT-0043</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C110" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION FIX TEST - Should trigger emails now</t>
+          <t>prueba automatico</t>
         </is>
       </c>
       <c r="D110" s="5" t="inlineStr">
@@ -6468,12 +6468,12 @@
       </c>
       <c r="E110" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F110" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:26</t>
+          <t>04/07/2025 01:40</t>
         </is>
       </c>
       <c r="G110" s="6" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="I110" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J110" s="6" t="inlineStr">
@@ -6505,7 +6505,7 @@
     <row r="111">
       <c r="A111" s="5" t="inlineStr">
         <is>
-          <t>TKT-0039</t>
+          <t>TKT-0042</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="C111" s="6" t="inlineStr">
         <is>
-          <t>prueba de ticket</t>
+          <t>prueba a hotmail</t>
         </is>
       </c>
       <c r="D111" s="5" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="F111" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:21</t>
+          <t>04/07/2025 01:32</t>
         </is>
       </c>
       <c r="G111" s="6" t="inlineStr">
@@ -6562,17 +6562,17 @@
     <row r="112">
       <c r="A112" s="5" t="inlineStr">
         <is>
-          <t>TKT-0038</t>
+          <t>TKT-0041</t>
         </is>
       </c>
       <c r="B112" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C112" s="6" t="inlineStr">
         <is>
-          <t>ENHANCED LOGGING TEST - Detailed Email Processing</t>
+          <t>prueba de comunciacion</t>
         </is>
       </c>
       <c r="D112" s="5" t="inlineStr">
@@ -6582,12 +6582,12 @@
       </c>
       <c r="E112" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F112" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:15</t>
+          <t>04/07/2025 01:28</t>
         </is>
       </c>
       <c r="G112" s="6" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="I112" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J112" s="6" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="113">
       <c r="A113" s="5" t="inlineStr">
         <is>
-          <t>TKT-0037</t>
+          <t>TKT-0040</t>
         </is>
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C113" s="6" t="inlineStr">
         <is>
-          <t>prueba ticket nuevo</t>
+          <t>NOTIFICATION FIX TEST - Should trigger emails now</t>
         </is>
       </c>
       <c r="D113" s="5" t="inlineStr">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="E113" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F113" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:11</t>
+          <t>04/07/2025 01:26</t>
         </is>
       </c>
       <c r="G113" s="6" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="I113" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J113" s="6" t="inlineStr">
@@ -6676,17 +6676,17 @@
     <row r="114">
       <c r="A114" s="5" t="inlineStr">
         <is>
-          <t>TKT-0036</t>
+          <t>TKT-0039</t>
         </is>
       </c>
       <c r="B114" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C114" s="6" t="inlineStr">
         <is>
-          <t>FIXED NOTIFICATION TEST - ba@lanet.mx should receive this</t>
+          <t>prueba de ticket</t>
         </is>
       </c>
       <c r="D114" s="5" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="E114" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:45</t>
+          <t>04/07/2025 01:21</t>
         </is>
       </c>
       <c r="G114" s="6" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="I114" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J114" s="6" t="inlineStr">
@@ -6733,7 +6733,7 @@
     <row r="115">
       <c r="A115" s="5" t="inlineStr">
         <is>
-          <t>TKT-0035</t>
+          <t>TKT-0038</t>
         </is>
       </c>
       <c r="B115" s="6" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="C115" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION TEST - Should send to ba@lanet.mx</t>
+          <t>ENHANCED LOGGING TEST - Detailed Email Processing</t>
         </is>
       </c>
       <c r="D115" s="5" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="F115" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:38</t>
+          <t>04/07/2025 01:15</t>
         </is>
       </c>
       <c r="G115" s="6" t="inlineStr">
@@ -6790,7 +6790,7 @@
     <row r="116">
       <c r="A116" s="5" t="inlineStr">
         <is>
-          <t>TKT-0034</t>
+          <t>TKT-0037</t>
         </is>
       </c>
       <c r="B116" s="6" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="C116" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>prueba ticket nuevo</t>
         </is>
       </c>
       <c r="D116" s="5" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="F116" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:35</t>
+          <t>04/07/2025 01:11</t>
         </is>
       </c>
       <c r="G116" s="6" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="I116" s="6" t="inlineStr">
         <is>
-          <t>Test Site Fixed</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J116" s="6" t="inlineStr">
@@ -6847,7 +6847,7 @@
     <row r="117">
       <c r="A117" s="5" t="inlineStr">
         <is>
-          <t>TKT-0033</t>
+          <t>TKT-0036</t>
         </is>
       </c>
       <c r="B117" s="6" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="C117" s="6" t="inlineStr">
         <is>
-          <t>Test Notification Ticket</t>
+          <t>FIXED NOTIFICATION TEST - ba@lanet.mx should receive this</t>
         </is>
       </c>
       <c r="D117" s="5" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="E117" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F117" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:32</t>
+          <t>04/07/2025 00:45</t>
         </is>
       </c>
       <c r="G117" s="6" t="inlineStr">
@@ -6904,32 +6904,32 @@
     <row r="118">
       <c r="A118" s="5" t="inlineStr">
         <is>
-          <t>TKT-0032</t>
+          <t>TKT-0035</t>
         </is>
       </c>
       <c r="B118" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C118" s="6" t="inlineStr">
         <is>
-          <t>prueba ticket</t>
+          <t>NOTIFICATION TEST - Should send to ba@lanet.mx</t>
         </is>
       </c>
       <c r="D118" s="5" t="inlineStr">
         <is>
-          <t>asignado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E118" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 23:59</t>
+          <t>04/07/2025 00:38</t>
         </is>
       </c>
       <c r="G118" s="6" t="inlineStr">
@@ -6939,12 +6939,12 @@
       </c>
       <c r="H118" s="6" t="inlineStr">
         <is>
-          <t>Carlos Rodriguez Tech</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="I118" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J118" s="6" t="inlineStr">
@@ -6961,17 +6961,17 @@
     <row r="119">
       <c r="A119" s="5" t="inlineStr">
         <is>
-          <t>TKT-0031</t>
+          <t>TKT-0034</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>Ficein Test 20250630_143536</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C119" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D119" s="5" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 23:20</t>
+          <t>04/07/2025 00:35</t>
         </is>
       </c>
       <c r="G119" s="6" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="I119" s="6" t="inlineStr">
         <is>
-          <t>polanco</t>
+          <t>Test Site Fixed</t>
         </is>
       </c>
       <c r="J119" s="6" t="inlineStr">
@@ -7018,17 +7018,17 @@
     <row r="120">
       <c r="A120" s="5" t="inlineStr">
         <is>
-          <t>TKT-0030</t>
+          <t>TKT-0033</t>
         </is>
       </c>
       <c r="B120" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C120" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>Test Notification Ticket</t>
         </is>
       </c>
       <c r="D120" s="5" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="F120" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 23:08</t>
+          <t>04/07/2025 00:32</t>
         </is>
       </c>
       <c r="G120" s="6" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="I120" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J120" s="6" t="inlineStr">
@@ -7075,7 +7075,7 @@
     <row r="121">
       <c r="A121" s="5" t="inlineStr">
         <is>
-          <t>TKT-0029</t>
+          <t>TKT-0032</t>
         </is>
       </c>
       <c r="B121" s="6" t="inlineStr">
@@ -7085,12 +7085,12 @@
       </c>
       <c r="C121" s="6" t="inlineStr">
         <is>
-          <t>FIXED - File Upload Test</t>
+          <t>prueba ticket</t>
         </is>
       </c>
       <c r="D121" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>asignado</t>
         </is>
       </c>
       <c r="E121" s="5" t="inlineStr">
@@ -7100,17 +7100,17 @@
       </c>
       <c r="F121" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:31</t>
+          <t>03/07/2025 23:59</t>
         </is>
       </c>
       <c r="G121" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:21</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H121" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Carlos Rodriguez Tech</t>
         </is>
       </c>
       <c r="I121" s="6" t="inlineStr">
@@ -7120,34 +7120,34 @@
       </c>
       <c r="J121" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:21</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K121" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="inlineStr">
         <is>
-          <t>TKT-0028</t>
+          <t>TKT-0031</t>
         </is>
       </c>
       <c r="B122" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Ficein Test 20250630_143536</t>
         </is>
       </c>
       <c r="C122" s="6" t="inlineStr">
         <is>
-          <t>Backend Debug Test Final</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D122" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E122" s="5" t="inlineStr">
@@ -7157,12 +7157,12 @@
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:29</t>
+          <t>03/07/2025 23:20</t>
         </is>
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:13</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H122" s="6" t="inlineStr">
@@ -7172,24 +7172,24 @@
       </c>
       <c r="I122" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>polanco</t>
         </is>
       </c>
       <c r="J122" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:13</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K122" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="inlineStr">
         <is>
-          <t>TKT-0027</t>
+          <t>TKT-0030</t>
         </is>
       </c>
       <c r="B123" s="6" t="inlineStr">
@@ -7199,12 +7199,12 @@
       </c>
       <c r="C123" s="6" t="inlineStr">
         <is>
-          <t>Debug Output Test</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E123" s="5" t="inlineStr">
@@ -7214,12 +7214,12 @@
       </c>
       <c r="F123" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:22</t>
+          <t>03/07/2025 23:08</t>
         </is>
       </c>
       <c r="G123" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:23</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H123" s="6" t="inlineStr">
@@ -7234,19 +7234,19 @@
       </c>
       <c r="J123" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:23</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K123" s="6" t="inlineStr">
         <is>
-          <t>Problema resuelto. Se realizó la depuración del sistema y se corrigieron los errores encontrados. El sistema está funcionando correctamente.</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="inlineStr">
         <is>
-          <t>TKT-0026</t>
+          <t>TKT-0029</t>
         </is>
       </c>
       <c r="B124" s="6" t="inlineStr">
@@ -7256,12 +7256,12 @@
       </c>
       <c r="C124" s="6" t="inlineStr">
         <is>
-          <t>Backend Debug Test</t>
+          <t>FIXED - File Upload Test</t>
         </is>
       </c>
       <c r="D124" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E124" s="5" t="inlineStr">
@@ -7271,12 +7271,12 @@
       </c>
       <c r="F124" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:20</t>
+          <t>03/07/2025 18:31</t>
         </is>
       </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:25</t>
+          <t>03/07/2025 19:21</t>
         </is>
       </c>
       <c r="H124" s="6" t="inlineStr">
@@ -7291,19 +7291,19 @@
       </c>
       <c r="J124" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:25</t>
+          <t>03/07/2025 19:21</t>
         </is>
       </c>
       <c r="K124" s="6" t="inlineStr">
         <is>
-          <t>Problema resuelto mediante configuración del backend. Se ajustaron los parámetros de debug y se verificó el funcionamiento correcto del sistema.</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="inlineStr">
         <is>
-          <t>TKT-0025</t>
+          <t>TKT-0028</t>
         </is>
       </c>
       <c r="B125" s="6" t="inlineStr">
@@ -7313,12 +7313,12 @@
       </c>
       <c r="C125" s="6" t="inlineStr">
         <is>
-          <t>Debug Console Test</t>
+          <t>Backend Debug Test Final</t>
         </is>
       </c>
       <c r="D125" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E125" s="5" t="inlineStr">
@@ -7328,12 +7328,12 @@
       </c>
       <c r="F125" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:16</t>
+          <t>03/07/2025 18:29</t>
         </is>
       </c>
       <c r="G125" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>03/07/2025 19:13</t>
         </is>
       </c>
       <c r="H125" s="6" t="inlineStr">
@@ -7348,19 +7348,19 @@
       </c>
       <c r="J125" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>03/07/2025 19:13</t>
         </is>
       </c>
       <c r="K125" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="inlineStr">
         <is>
-          <t>TKT-0024</t>
+          <t>TKT-0027</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr">
@@ -7370,12 +7370,12 @@
       </c>
       <c r="C126" s="6" t="inlineStr">
         <is>
-          <t>Final Debug Test</t>
+          <t>Debug Output Test</t>
         </is>
       </c>
       <c r="D126" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E126" s="5" t="inlineStr">
@@ -7385,12 +7385,12 @@
       </c>
       <c r="F126" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:13</t>
+          <t>03/07/2025 18:22</t>
         </is>
       </c>
       <c r="G126" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>03/07/2025 19:23</t>
         </is>
       </c>
       <c r="H126" s="6" t="inlineStr">
@@ -7405,19 +7405,19 @@
       </c>
       <c r="J126" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>03/07/2025 19:23</t>
         </is>
       </c>
       <c r="K126" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>Problema resuelto. Se realizó la depuración del sistema y se corrigieron los errores encontrados. El sistema está funcionando correctamente.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="inlineStr">
         <is>
-          <t>TKT-0023</t>
+          <t>TKT-0026</t>
         </is>
       </c>
       <c r="B127" s="6" t="inlineStr">
@@ -7427,12 +7427,12 @@
       </c>
       <c r="C127" s="6" t="inlineStr">
         <is>
-          <t>Debug Attachment Test</t>
+          <t>Backend Debug Test</t>
         </is>
       </c>
       <c r="D127" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E127" s="5" t="inlineStr">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="F127" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:08</t>
+          <t>03/07/2025 18:20</t>
         </is>
       </c>
       <c r="G127" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:18</t>
+          <t>03/07/2025 19:25</t>
         </is>
       </c>
       <c r="H127" s="6" t="inlineStr">
@@ -7462,19 +7462,19 @@
       </c>
       <c r="J127" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:18</t>
+          <t>03/07/2025 19:25</t>
         </is>
       </c>
       <c r="K127" s="6" t="inlineStr">
         <is>
-          <t>sdsdsds</t>
+          <t>Problema resuelto mediante configuración del backend. Se ajustaron los parámetros de debug y se verificó el funcionamiento correcto del sistema.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="inlineStr">
         <is>
-          <t>TKT-0022</t>
+          <t>TKT-0025</t>
         </is>
       </c>
       <c r="B128" s="6" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="C128" s="6" t="inlineStr">
         <is>
-          <t>Test Ticket with Attachment</t>
+          <t>Debug Console Test</t>
         </is>
       </c>
       <c r="D128" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E128" s="5" t="inlineStr">
@@ -7499,12 +7499,12 @@
       </c>
       <c r="F128" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:00</t>
+          <t>03/07/2025 18:16</t>
         </is>
       </c>
       <c r="G128" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:18</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H128" s="6" t="inlineStr">
@@ -7519,19 +7519,19 @@
       </c>
       <c r="J128" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:18</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K128" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="inlineStr">
         <is>
-          <t>TKT-0021</t>
+          <t>TKT-0024</t>
         </is>
       </c>
       <c r="B129" s="6" t="inlineStr">
@@ -7541,12 +7541,12 @@
       </c>
       <c r="C129" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>Final Debug Test</t>
         </is>
       </c>
       <c r="D129" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E129" s="5" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="F129" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 17:57</t>
+          <t>03/07/2025 18:13</t>
         </is>
       </c>
       <c r="G129" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 17:58</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H129" s="6" t="inlineStr">
@@ -7576,19 +7576,19 @@
       </c>
       <c r="J129" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 17:58</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K129" s="6" t="inlineStr">
         <is>
-          <t>sdsdsds</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="inlineStr">
         <is>
-          <t>TKT-0021</t>
+          <t>TKT-0023</t>
         </is>
       </c>
       <c r="B130" s="6" t="inlineStr">
@@ -7598,12 +7598,12 @@
       </c>
       <c r="C130" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>Debug Attachment Test</t>
         </is>
       </c>
       <c r="D130" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E130" s="5" t="inlineStr">
@@ -7613,12 +7613,12 @@
       </c>
       <c r="F130" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 17:57</t>
+          <t>03/07/2025 18:08</t>
         </is>
       </c>
       <c r="G130" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 17:58</t>
+          <t>08/07/2025 11:18</t>
         </is>
       </c>
       <c r="H130" s="6" t="inlineStr">
@@ -7633,19 +7633,19 @@
       </c>
       <c r="J130" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 17:58</t>
+          <t>08/07/2025 11:18</t>
         </is>
       </c>
       <c r="K130" s="6" t="inlineStr">
         <is>
-          <t>ssdsdsdsd</t>
+          <t>sdsdsds</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="inlineStr">
         <is>
-          <t>TKT-0020</t>
+          <t>TKT-0022</t>
         </is>
       </c>
       <c r="B131" s="6" t="inlineStr">
@@ -7655,54 +7655,54 @@
       </c>
       <c r="C131" s="6" t="inlineStr">
         <is>
+          <t>Test Ticket with Attachment</t>
+        </is>
+      </c>
+      <c r="D131" s="5" t="inlineStr">
+        <is>
+          <t>cerrado</t>
+        </is>
+      </c>
+      <c r="E131" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F131" s="6" t="inlineStr">
+        <is>
+          <t>03/07/2025 18:00</t>
+        </is>
+      </c>
+      <c r="G131" s="6" t="inlineStr">
+        <is>
+          <t>08/07/2025 11:18</t>
+        </is>
+      </c>
+      <c r="H131" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I131" s="6" t="inlineStr">
+        <is>
+          <t>Naucalpan</t>
+        </is>
+      </c>
+      <c r="J131" s="6" t="inlineStr">
+        <is>
+          <t>08/07/2025 11:18</t>
+        </is>
+      </c>
+      <c r="K131" s="6" t="inlineStr">
+        <is>
           <t>sdsds</t>
-        </is>
-      </c>
-      <c r="D131" s="5" t="inlineStr">
-        <is>
-          <t>cerrado</t>
-        </is>
-      </c>
-      <c r="E131" s="5" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="F131" s="6" t="inlineStr">
-        <is>
-          <t>03/07/2025 16:45</t>
-        </is>
-      </c>
-      <c r="G131" s="6" t="inlineStr">
-        <is>
-          <t>08/07/2025 11:17</t>
-        </is>
-      </c>
-      <c r="H131" s="6" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="I131" s="6" t="inlineStr">
-        <is>
-          <t>Naucalpan</t>
-        </is>
-      </c>
-      <c r="J131" s="6" t="inlineStr">
-        <is>
-          <t>08/07/2025 11:17</t>
-        </is>
-      </c>
-      <c r="K131" s="6" t="inlineStr">
-        <is>
-          <t>sdsdsds</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="inlineStr">
         <is>
-          <t>TKT-0019</t>
+          <t>TKT-0021</t>
         </is>
       </c>
       <c r="B132" s="6" t="inlineStr">
@@ -7712,12 +7712,12 @@
       </c>
       <c r="C132" s="6" t="inlineStr">
         <is>
-          <t>sdhksldj</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D132" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E132" s="5" t="inlineStr">
@@ -7727,12 +7727,12 @@
       </c>
       <c r="F132" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:41</t>
+          <t>03/07/2025 17:57</t>
         </is>
       </c>
       <c r="G132" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:17</t>
+          <t>03/07/2025 17:58</t>
         </is>
       </c>
       <c r="H132" s="6" t="inlineStr">
@@ -7747,19 +7747,19 @@
       </c>
       <c r="J132" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:17</t>
+          <t>03/07/2025 17:58</t>
         </is>
       </c>
       <c r="K132" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>sdsdsds</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="inlineStr">
         <is>
-          <t>TKT-0018</t>
+          <t>TKT-0021</t>
         </is>
       </c>
       <c r="B133" s="6" t="inlineStr">
@@ -7769,12 +7769,12 @@
       </c>
       <c r="C133" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D133" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E133" s="5" t="inlineStr">
@@ -7784,12 +7784,12 @@
       </c>
       <c r="F133" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:36</t>
+          <t>03/07/2025 17:57</t>
         </is>
       </c>
       <c r="G133" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:16</t>
+          <t>03/07/2025 17:58</t>
         </is>
       </c>
       <c r="H133" s="6" t="inlineStr">
@@ -7804,19 +7804,19 @@
       </c>
       <c r="J133" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:16</t>
+          <t>03/07/2025 17:58</t>
         </is>
       </c>
       <c r="K133" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>ssdsdsdsd</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="inlineStr">
         <is>
-          <t>TKT-0017</t>
+          <t>TKT-0020</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr">
@@ -7826,12 +7826,12 @@
       </c>
       <c r="C134" s="6" t="inlineStr">
         <is>
-          <t>prueba 4839048</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D134" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E134" s="5" t="inlineStr">
@@ -7841,12 +7841,12 @@
       </c>
       <c r="F134" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:33</t>
+          <t>03/07/2025 16:45</t>
         </is>
       </c>
       <c r="G134" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>08/07/2025 11:17</t>
         </is>
       </c>
       <c r="H134" s="6" t="inlineStr">
@@ -7861,19 +7861,19 @@
       </c>
       <c r="J134" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>08/07/2025 11:17</t>
         </is>
       </c>
       <c r="K134" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>sdsdsds</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="inlineStr">
         <is>
-          <t>TKT-0016</t>
+          <t>TKT-0019</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr">
@@ -7883,12 +7883,12 @@
       </c>
       <c r="C135" s="6" t="inlineStr">
         <is>
-          <t>prueba adjunto 5</t>
+          <t>sdhksldj</t>
         </is>
       </c>
       <c r="D135" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E135" s="5" t="inlineStr">
@@ -7898,12 +7898,12 @@
       </c>
       <c r="F135" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:31</t>
+          <t>03/07/2025 16:41</t>
         </is>
       </c>
       <c r="G135" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>08/07/2025 11:17</t>
         </is>
       </c>
       <c r="H135" s="6" t="inlineStr">
@@ -7918,19 +7918,19 @@
       </c>
       <c r="J135" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>08/07/2025 11:17</t>
         </is>
       </c>
       <c r="K135" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="5" t="inlineStr">
         <is>
-          <t>TKT-0015</t>
+          <t>TKT-0018</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
@@ -7940,12 +7940,12 @@
       </c>
       <c r="C136" s="6" t="inlineStr">
         <is>
-          <t>prueba de adjunto 4</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D136" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E136" s="5" t="inlineStr">
@@ -7955,12 +7955,12 @@
       </c>
       <c r="F136" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:27</t>
+          <t>03/07/2025 16:36</t>
         </is>
       </c>
       <c r="G136" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>08/07/2025 11:16</t>
         </is>
       </c>
       <c r="H136" s="6" t="inlineStr">
@@ -7975,19 +7975,19 @@
       </c>
       <c r="J136" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>08/07/2025 11:16</t>
         </is>
       </c>
       <c r="K136" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>sdsd</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="inlineStr">
         <is>
-          <t>TKT-0014</t>
+          <t>TKT-0017</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="C137" s="6" t="inlineStr">
         <is>
-          <t>prueba adjunto 2</t>
+          <t>prueba 4839048</t>
         </is>
       </c>
       <c r="D137" s="5" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="F137" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:20</t>
+          <t>03/07/2025 16:33</t>
         </is>
       </c>
       <c r="G137" s="6" t="inlineStr">
@@ -8044,7 +8044,7 @@
     <row r="138">
       <c r="A138" s="5" t="inlineStr">
         <is>
-          <t>TKT-0013</t>
+          <t>TKT-0016</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="C138" s="6" t="inlineStr">
         <is>
-          <t>prueba adjunto</t>
+          <t>prueba adjunto 5</t>
         </is>
       </c>
       <c r="D138" s="5" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="F138" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:17</t>
+          <t>03/07/2025 16:31</t>
         </is>
       </c>
       <c r="G138" s="6" t="inlineStr">
@@ -8101,7 +8101,7 @@
     <row r="139">
       <c r="A139" s="5" t="inlineStr">
         <is>
-          <t>TKT-0012</t>
+          <t>TKT-0015</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="C139" s="6" t="inlineStr">
         <is>
-          <t>prueba 10 am</t>
+          <t>prueba de adjunto 4</t>
         </is>
       </c>
       <c r="D139" s="5" t="inlineStr">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="F139" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:59</t>
+          <t>03/07/2025 16:27</t>
         </is>
       </c>
       <c r="G139" s="6" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="140">
       <c r="A140" s="5" t="inlineStr">
         <is>
-          <t>TKT-0011</t>
+          <t>TKT-0014</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="C140" s="6" t="inlineStr">
         <is>
-          <t>prueba 40</t>
+          <t>prueba adjunto 2</t>
         </is>
       </c>
       <c r="D140" s="5" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="F140" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:53</t>
+          <t>03/07/2025 16:20</t>
         </is>
       </c>
       <c r="G140" s="6" t="inlineStr">
@@ -8215,7 +8215,7 @@
     <row r="141">
       <c r="A141" s="5" t="inlineStr">
         <is>
-          <t>TKT-0010</t>
+          <t>TKT-0013</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="C141" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>prueba adjunto</t>
         </is>
       </c>
       <c r="D141" s="5" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="F141" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:52</t>
+          <t>03/07/2025 16:17</t>
         </is>
       </c>
       <c r="G141" s="6" t="inlineStr">
@@ -8272,7 +8272,7 @@
     <row r="142">
       <c r="A142" s="5" t="inlineStr">
         <is>
-          <t>TKT-0009</t>
+          <t>TKT-0012</t>
         </is>
       </c>
       <c r="B142" s="6" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="C142" s="6" t="inlineStr">
         <is>
-          <t>jkjlk</t>
+          <t>prueba 10 am</t>
         </is>
       </c>
       <c r="D142" s="5" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="F142" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:36</t>
+          <t>03/07/2025 15:59</t>
         </is>
       </c>
       <c r="G142" s="6" t="inlineStr">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="I142" s="6" t="inlineStr">
         <is>
-          <t>API Test Site</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J142" s="6" t="inlineStr">
@@ -8329,7 +8329,7 @@
     <row r="143">
       <c r="A143" s="5" t="inlineStr">
         <is>
-          <t>TKT-0008</t>
+          <t>TKT-0011</t>
         </is>
       </c>
       <c r="B143" s="6" t="inlineStr">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="C143" s="6" t="inlineStr">
         <is>
-          <t>ssdsd</t>
+          <t>prueba 40</t>
         </is>
       </c>
       <c r="D143" s="5" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="F143" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:16</t>
+          <t>03/07/2025 15:53</t>
         </is>
       </c>
       <c r="G143" s="6" t="inlineStr">
@@ -8386,7 +8386,7 @@
     <row r="144">
       <c r="A144" s="5" t="inlineStr">
         <is>
-          <t>TKT-0007</t>
+          <t>TKT-0010</t>
         </is>
       </c>
       <c r="B144" s="6" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C144" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D144" s="5" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="F144" s="6" t="inlineStr">
         <is>
-          <t>02/07/2025 02:02</t>
+          <t>03/07/2025 15:52</t>
         </is>
       </c>
       <c r="G144" s="6" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="I144" s="6" t="inlineStr">
         <is>
-          <t>API Test Site</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J144" s="6" t="inlineStr">
@@ -8443,7 +8443,7 @@
     <row r="145">
       <c r="A145" s="5" t="inlineStr">
         <is>
-          <t>TKT-0006</t>
+          <t>TKT-0009</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr">
@@ -8453,12 +8453,12 @@
       </c>
       <c r="C145" s="6" t="inlineStr">
         <is>
-          <t>prueba api test site</t>
+          <t>jkjlk</t>
         </is>
       </c>
       <c r="D145" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E145" s="5" t="inlineStr">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="F145" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 18:48</t>
+          <t>03/07/2025 15:36</t>
         </is>
       </c>
       <c r="G145" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H145" s="6" t="inlineStr">
@@ -8488,19 +8488,19 @@
       </c>
       <c r="J145" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K145" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="5" t="inlineStr">
         <is>
-          <t>TKT-0006</t>
+          <t>TKT-0008</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr">
@@ -8510,12 +8510,12 @@
       </c>
       <c r="C146" s="6" t="inlineStr">
         <is>
-          <t>prueba api test site</t>
+          <t>ssdsd</t>
         </is>
       </c>
       <c r="D146" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E146" s="5" t="inlineStr">
@@ -8525,12 +8525,12 @@
       </c>
       <c r="F146" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 18:48</t>
+          <t>03/07/2025 15:16</t>
         </is>
       </c>
       <c r="G146" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H146" s="6" t="inlineStr">
@@ -8540,24 +8540,24 @@
       </c>
       <c r="I146" s="6" t="inlineStr">
         <is>
-          <t>API Test Site</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J146" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K146" s="6" t="inlineStr">
         <is>
-          <t>34343434</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="5" t="inlineStr">
         <is>
-          <t>TKT-0006</t>
+          <t>TKT-0007</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr">
@@ -8567,12 +8567,12 @@
       </c>
       <c r="C147" s="6" t="inlineStr">
         <is>
-          <t>prueba api test site</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D147" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E147" s="5" t="inlineStr">
@@ -8582,12 +8582,12 @@
       </c>
       <c r="F147" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 18:48</t>
+          <t>02/07/2025 02:02</t>
         </is>
       </c>
       <c r="G147" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H147" s="6" t="inlineStr">
@@ -8602,12 +8602,12 @@
       </c>
       <c r="J147" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K147" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
@@ -8664,14 +8664,14 @@
       </c>
       <c r="K148" s="6" t="inlineStr">
         <is>
-          <t>prueba de resolucion 40</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5" t="inlineStr">
         <is>
-          <t>TKT-0005</t>
+          <t>TKT-0006</t>
         </is>
       </c>
       <c r="B149" s="6" t="inlineStr">
@@ -8681,12 +8681,12 @@
       </c>
       <c r="C149" s="6" t="inlineStr">
         <is>
-          <t>sdjhsjdsh</t>
+          <t>prueba api test site</t>
         </is>
       </c>
       <c r="D149" s="5" t="inlineStr">
         <is>
-          <t>en_proceso</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E149" s="5" t="inlineStr">
@@ -8696,12 +8696,12 @@
       </c>
       <c r="F149" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:37</t>
+          <t>01/07/2025 18:48</t>
         </is>
       </c>
       <c r="G149" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="H149" s="6" t="inlineStr">
@@ -8711,39 +8711,39 @@
       </c>
       <c r="I149" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>API Test Site</t>
         </is>
       </c>
       <c r="J149" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="K149" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>prueba de resolucion 40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="5" t="inlineStr">
         <is>
-          <t>TKT-0004</t>
+          <t>TKT-0006</t>
         </is>
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C150" s="6" t="inlineStr">
         <is>
-          <t>Test desde Python</t>
+          <t>prueba api test site</t>
         </is>
       </c>
       <c r="D150" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E150" s="5" t="inlineStr">
@@ -8753,12 +8753,12 @@
       </c>
       <c r="F150" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:12</t>
+          <t>01/07/2025 18:48</t>
         </is>
       </c>
       <c r="G150" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="H150" s="6" t="inlineStr">
@@ -8768,39 +8768,39 @@
       </c>
       <c r="I150" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>API Test Site</t>
         </is>
       </c>
       <c r="J150" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="K150" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5" t="inlineStr">
         <is>
-          <t>TKT-0003</t>
+          <t>TKT-0006</t>
         </is>
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C151" s="6" t="inlineStr">
         <is>
-          <t>Ticket de Prueba #3</t>
+          <t>prueba api test site</t>
         </is>
       </c>
       <c r="D151" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E151" s="5" t="inlineStr">
@@ -8810,12 +8810,12 @@
       </c>
       <c r="F151" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:09</t>
+          <t>01/07/2025 18:48</t>
         </is>
       </c>
       <c r="G151" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="H151" s="6" t="inlineStr">
@@ -8825,34 +8825,34 @@
       </c>
       <c r="I151" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>API Test Site</t>
         </is>
       </c>
       <c r="J151" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="K151" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>34343434</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5" t="inlineStr">
         <is>
-          <t>TKT-0002</t>
+          <t>TKT-0005</t>
         </is>
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C152" s="6" t="inlineStr">
         <is>
-          <t>Ticket de Prueba #2</t>
+          <t>sdjhsjdsh</t>
         </is>
       </c>
       <c r="D152" s="5" t="inlineStr">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="F152" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:09</t>
+          <t>01/07/2025 17:37</t>
         </is>
       </c>
       <c r="G152" s="6" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="I152" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J152" s="6" t="inlineStr">
@@ -8899,55 +8899,226 @@
     <row r="153">
       <c r="A153" s="5" t="inlineStr">
         <is>
+          <t>TKT-0004</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>Cafe Mexico S.A. de C.V.</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>Test desde Python</t>
+        </is>
+      </c>
+      <c r="D153" s="5" t="inlineStr">
+        <is>
+          <t>nuevo</t>
+        </is>
+      </c>
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F153" s="6" t="inlineStr">
+        <is>
+          <t>01/07/2025 17:12</t>
+        </is>
+      </c>
+      <c r="G153" s="6" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H153" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I153" s="6" t="inlineStr">
+        <is>
+          <t>Oficina Principal CDMX</t>
+        </is>
+      </c>
+      <c r="J153" s="6" t="inlineStr">
+        <is>
+          <t>Sin fecha</t>
+        </is>
+      </c>
+      <c r="K153" s="6" t="inlineStr">
+        <is>
+          <t>Sin resolución</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <t>TKT-0003</t>
+        </is>
+      </c>
+      <c r="B154" s="6" t="inlineStr">
+        <is>
+          <t>Cafe Mexico S.A. de C.V.</t>
+        </is>
+      </c>
+      <c r="C154" s="6" t="inlineStr">
+        <is>
+          <t>Ticket de Prueba #3</t>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr">
+        <is>
+          <t>nuevo</t>
+        </is>
+      </c>
+      <c r="E154" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F154" s="6" t="inlineStr">
+        <is>
+          <t>01/07/2025 17:09</t>
+        </is>
+      </c>
+      <c r="G154" s="6" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H154" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I154" s="6" t="inlineStr">
+        <is>
+          <t>Oficina Principal CDMX</t>
+        </is>
+      </c>
+      <c r="J154" s="6" t="inlineStr">
+        <is>
+          <t>Sin fecha</t>
+        </is>
+      </c>
+      <c r="K154" s="6" t="inlineStr">
+        <is>
+          <t>Sin resolución</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="inlineStr">
+        <is>
+          <t>TKT-0002</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
+        <is>
+          <t>Cafe Mexico S.A. de C.V.</t>
+        </is>
+      </c>
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>Ticket de Prueba #2</t>
+        </is>
+      </c>
+      <c r="D155" s="5" t="inlineStr">
+        <is>
+          <t>en_proceso</t>
+        </is>
+      </c>
+      <c r="E155" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F155" s="6" t="inlineStr">
+        <is>
+          <t>01/07/2025 17:09</t>
+        </is>
+      </c>
+      <c r="G155" s="6" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H155" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I155" s="6" t="inlineStr">
+        <is>
+          <t>Oficina Principal CDMX</t>
+        </is>
+      </c>
+      <c r="J155" s="6" t="inlineStr">
+        <is>
+          <t>Sin fecha</t>
+        </is>
+      </c>
+      <c r="K155" s="6" t="inlineStr">
+        <is>
+          <t>Sin resolución</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="inlineStr">
+        <is>
           <t>TKT-0001</t>
         </is>
       </c>
-      <c r="B153" s="6" t="inlineStr">
+      <c r="B156" s="6" t="inlineStr">
         <is>
           <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
-      <c r="C153" s="6" t="inlineStr">
+      <c r="C156" s="6" t="inlineStr">
         <is>
           <t>Ticket de Prueba #1</t>
         </is>
       </c>
-      <c r="D153" s="5" t="inlineStr">
+      <c r="D156" s="5" t="inlineStr">
         <is>
           <t>espera_cliente</t>
         </is>
       </c>
-      <c r="E153" s="5" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="F153" s="6" t="inlineStr">
+      <c r="E156" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F156" s="6" t="inlineStr">
         <is>
           <t>01/07/2025 17:09</t>
         </is>
       </c>
-      <c r="G153" s="6" t="inlineStr">
+      <c r="G156" s="6" t="inlineStr">
         <is>
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H153" s="6" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="I153" s="6" t="inlineStr">
+      <c r="H156" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I156" s="6" t="inlineStr">
         <is>
           <t>Oficina Principal CDMX</t>
         </is>
       </c>
-      <c r="J153" s="6" t="inlineStr">
+      <c r="J156" s="6" t="inlineStr">
         <is>
           <t>Sin fecha</t>
         </is>
       </c>
-      <c r="K153" s="6" t="inlineStr">
+      <c r="K156" s="6" t="inlineStr">
         <is>
           <t>Sin resolución</t>
         </is>

--- a/backend/reports_files/reporte_consolidado_2025_07.xlsx
+++ b/backend/reports_files/reporte_consolidado_2025_07.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Generado: 18/07/2025 05:15 | Total de Tickets: 150</t>
+          <t>Generado: 22/07/2025 03:18 | Total de Tickets: 151</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>TKT-000146</t>
+          <t>TKT-000147</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>Prueba 7:30</t>
+          <t>prueba domingo 12:49</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
-          <t>16/07/2025 07:32</t>
+          <t>20/07/2025 12:50</t>
         </is>
       </c>
       <c r="G7" s="6" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>Usuario Test API</t>
         </is>
       </c>
       <c r="I7" s="6" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>TKT-000145</t>
+          <t>TKT-000146</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>prueba 7:21</t>
+          <t>Prueba 7:30</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>16/07/2025 07:22</t>
+          <t>16/07/2025 07:32</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I8" s="6" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>TKT-000144</t>
+          <t>TKT-000145</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>Prueba 6:32</t>
+          <t>prueba 7:21</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>16/07/2025 06:34</t>
+          <t>16/07/2025 07:22</t>
         </is>
       </c>
       <c r="G9" s="6" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I9" s="6" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>TKT-000143</t>
+          <t>TKT-000144</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion masiva</t>
+          <t>Prueba 6:32</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>en_proceso</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 17:09</t>
+          <t>16/07/2025 06:34</t>
         </is>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:09</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
@@ -793,19 +793,19 @@
       </c>
       <c r="J10" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:09</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>resolucuon masiva prueba lksjsdjskdjs</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>TKT-000142</t>
+          <t>TKT-000143</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>asasasasajklsj</t>
+          <t>prueba resolucion masiva</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="F11" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 17:07</t>
+          <t>12/07/2025 17:09</t>
         </is>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>15/07/2025 11:57</t>
+          <t>12/07/2025 23:09</t>
         </is>
       </c>
       <c r="H11" s="6" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="J11" s="6" t="inlineStr">
         <is>
-          <t>15/07/2025 11:57</t>
+          <t>12/07/2025 23:09</t>
         </is>
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>prueba de que si se resolvio</t>
+          <t>resolucuon masiva prueba lksjsdjskdjs</t>
         </is>
       </c>
     </row>
@@ -912,14 +912,14 @@
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>prueba de resolucion 2 ticket 142</t>
+          <t>prueba de que si se resolvio</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>TKT-000141</t>
+          <t>TKT-000142</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>prueba de ticket abierto</t>
+          <t>asasasasajklsj</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 17:02</t>
+          <t>12/07/2025 17:07</t>
         </is>
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:04</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="H13" s="6" t="inlineStr">
@@ -964,19 +964,19 @@
       </c>
       <c r="J13" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:04</t>
+          <t>15/07/2025 11:57</t>
         </is>
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>prueba de resolucion 2 ticket 142</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>TKT-000140</t>
+          <t>TKT-000141</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>prueba desde correo 8:31</t>
+          <t>prueba de ticket abierto</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 08:34</t>
+          <t>12/07/2025 17:02</t>
         </is>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 13:30</t>
+          <t>12/07/2025 23:04</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 13:30</t>
+          <t>12/07/2025 23:04</t>
         </is>
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>resolucion proporcionada por benjamin aharonov</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>TKT-000139</t>
+          <t>TKT-000140</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>prueba desde correo 8:31</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="F15" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 06:34</t>
+          <t>11/07/2025 08:34</t>
         </is>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:34</t>
+          <t>12/07/2025 13:30</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="J15" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:34</t>
+          <t>12/07/2025 13:30</t>
         </is>
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>resolucion proporcionada por benjamin aharonov</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>TKT-000138</t>
+          <t>TKT-000139</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>prueba 6:56</t>
+          <t>sdsd</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="F16" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 18:59</t>
+          <t>11/07/2025 06:34</t>
         </is>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>11/07/2025 12:34</t>
         </is>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I16" s="6" t="inlineStr">
@@ -1135,19 +1135,19 @@
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>11/07/2025 12:34</t>
         </is>
       </c>
       <c r="K16" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>TKT-000137</t>
+          <t>TKT-000138</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>prueba 6:55</t>
+          <t>prueba 6:56</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F17" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 18:55</t>
+          <t>10/07/2025 18:59</t>
         </is>
       </c>
       <c r="G17" s="6" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I17" s="6" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>TKT-000131</t>
+          <t>TKT-000137</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>prueba 4:40 sdsds</t>
+          <t>prueba 6:55</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -1229,17 +1229,17 @@
       </c>
       <c r="F18" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:42</t>
+          <t>10/07/2025 18:55</t>
         </is>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I18" s="6" t="inlineStr">
@@ -1249,12 +1249,12 @@
       </c>
       <c r="J18" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="K18" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>TKT-000127</t>
+          <t>TKT-000131</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>Prueba de timezone - 4:16 PM</t>
+          <t>prueba 4:40 sdsds</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:14</t>
+          <t>09/07/2025 22:42</t>
         </is>
       </c>
       <c r="G20" s="6" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I20" s="6" t="inlineStr">
@@ -1368,14 +1368,14 @@
       </c>
       <c r="K20" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>TKT-000126</t>
+          <t>TKT-000127</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>Prueba con teléfono de contacto</t>
+          <t>Prueba de timezone - 4:16 PM</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="F21" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 22:02</t>
+          <t>09/07/2025 22:14</t>
         </is>
       </c>
       <c r="G21" s="6" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I21" s="6" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>TKT-000125</t>
+          <t>TKT-000126</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>prueba de asunto</t>
+          <t>Prueba con teléfono de contacto</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 21:58</t>
+          <t>09/07/2025 22:02</t>
         </is>
       </c>
       <c r="G22" s="6" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>Usuario Test API</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I22" s="6" t="inlineStr">
@@ -1489,7 +1489,7 @@
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>TKT-000124</t>
+          <t>TKT-000125</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>prueba de asunto</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>Usuario Test API</t>
         </is>
       </c>
       <c r="I23" s="6" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>TKT-000136</t>
+          <t>TKT-000124</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>prueba 8:54 pm</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -1571,17 +1571,17 @@
       </c>
       <c r="F24" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 20:58</t>
+          <t>09/07/2025 21:58</t>
         </is>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I24" s="6" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="J24" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 20:54</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="K24" s="6" t="inlineStr">
@@ -1603,7 +1603,7 @@
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>TKT-000135</t>
+          <t>TKT-000136</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>prueba 8:10 pm</t>
+          <t>prueba 8:54 pm</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
@@ -1628,17 +1628,17 @@
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 20:09</t>
+          <t>09/07/2025 20:58</t>
         </is>
       </c>
       <c r="G25" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I25" s="6" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="J25" s="6" t="inlineStr">
         <is>
-          <t>10/07/2025 02:51</t>
+          <t>12/07/2025 20:54</t>
         </is>
       </c>
       <c r="K25" s="6" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>TKT-000134</t>
+          <t>TKT-000135</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>prueba 7:32</t>
+          <t>prueba 8:10 pm</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F26" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 19:32</t>
+          <t>09/07/2025 20:09</t>
         </is>
       </c>
       <c r="G26" s="6" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I26" s="6" t="inlineStr">
@@ -1717,7 +1717,7 @@
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>TKT-000133</t>
+          <t>TKT-000134</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>prueba ticket 7:27</t>
+          <t>prueba 7:32</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 19:29</t>
+          <t>09/07/2025 19:32</t>
         </is>
       </c>
       <c r="G27" s="6" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>Usuario Test API</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I27" s="6" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>TKT-000132</t>
+          <t>TKT-000133</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>prueba de decripcion</t>
+          <t>prueba ticket 7:27</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 17:14</t>
+          <t>09/07/2025 19:29</t>
         </is>
       </c>
       <c r="G28" s="6" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Usuario Test API</t>
         </is>
       </c>
       <c r="I28" s="6" t="inlineStr">
@@ -1831,7 +1831,7 @@
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>TKT-000130</t>
+          <t>TKT-000132</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>TIMEZONE FIX TEST - 4:38 PM - EDITADO VIA CURL</t>
+          <t>prueba de decripcion</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 16:39</t>
+          <t>09/07/2025 17:14</t>
         </is>
       </c>
       <c r="G29" s="6" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I29" s="6" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>TKT-000129</t>
+          <t>TKT-000130</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>Test directo DB 4:18 PM</t>
+          <t>TIMEZONE FIX TEST - 4:38 PM - EDITADO VIA CURL</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="F30" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 16:36</t>
+          <t>09/07/2025 16:39</t>
         </is>
       </c>
       <c r="G30" s="6" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I30" s="6" t="inlineStr">
@@ -1945,7 +1945,7 @@
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
         <is>
-          <t>TKT-000123</t>
+          <t>TKT-000129</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>prueba 10:12 am</t>
+          <t>Test directo DB 4:18 PM</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 16:12</t>
+          <t>09/07/2025 16:36</t>
         </is>
       </c>
       <c r="G31" s="6" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="H31" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="I31" s="6" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
         <is>
-          <t>TKT-000120</t>
+          <t>TKT-000123</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>prueba 10:12 am</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="F32" s="6" t="inlineStr">
         <is>
-          <t>09/07/2025 14:41</t>
+          <t>09/07/2025 16:12</t>
         </is>
       </c>
       <c r="G32" s="6" t="inlineStr">
@@ -2059,7 +2059,7 @@
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>TKT-000117</t>
+          <t>TKT-000120</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>sddsds</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>baja</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F33" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 21:42</t>
+          <t>09/07/2025 14:41</t>
         </is>
       </c>
       <c r="G33" s="6" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="H33" s="6" t="inlineStr">
         <is>
-          <t>Mauricio Goldwajn</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I33" s="6" t="inlineStr">
@@ -2116,17 +2116,17 @@
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>TKT-000116</t>
+          <t>TKT-000117</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>Ticket Test API</t>
+          <t>sddsds</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>baja</t>
         </is>
       </c>
       <c r="F34" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:44</t>
+          <t>08/07/2025 21:42</t>
         </is>
       </c>
       <c r="G34" s="6" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="H34" s="6" t="inlineStr">
         <is>
-          <t>María González</t>
+          <t>Mauricio Goldwajn</t>
         </is>
       </c>
       <c r="I34" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J34" s="6" t="inlineStr">
@@ -2166,24 +2166,24 @@
       </c>
       <c r="K34" s="6" t="inlineStr">
         <is>
-          <t>dffdf</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>TKT-000115</t>
+          <t>TKT-000116</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>Ticket Test API</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F35" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:15</t>
+          <t>08/07/2025 11:44</t>
         </is>
       </c>
       <c r="G35" s="6" t="inlineStr">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="H35" s="6" t="inlineStr">
         <is>
-          <t>prueba 8 julio</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="I35" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J35" s="6" t="inlineStr">
@@ -2223,14 +2223,14 @@
       </c>
       <c r="K35" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>dffdf</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>TKT-000114</t>
+          <t>TKT-000115</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>aasa</t>
+          <t>sdsd</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:02</t>
+          <t>08/07/2025 11:15</t>
         </is>
       </c>
       <c r="G36" s="6" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="H36" s="6" t="inlineStr">
         <is>
-          <t>Benjamin Aharonov</t>
+          <t>prueba 8 julio</t>
         </is>
       </c>
       <c r="I36" s="6" t="inlineStr">
@@ -2287,7 +2287,7 @@
     <row r="37">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>TKT-000113</t>
+          <t>TKT-000114</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:42</t>
+          <t>aasa</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="F37" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:47</t>
+          <t>08/07/2025 11:02</t>
         </is>
       </c>
       <c r="G37" s="6" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>TKT-000112</t>
+          <t>TKT-000113</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C38" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:25</t>
+          <t>prueba 1:42</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:26</t>
+          <t>07/07/2025 19:47</t>
         </is>
       </c>
       <c r="G38" s="6" t="inlineStr">
@@ -2401,7 +2401,7 @@
     <row r="39">
       <c r="A39" s="5" t="inlineStr">
         <is>
-          <t>TKT-000111</t>
+          <t>TKT-000112</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:15</t>
+          <t>prueba 1:25</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="F39" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:19</t>
+          <t>07/07/2025 19:26</t>
         </is>
       </c>
       <c r="G39" s="6" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>TKT-000110</t>
+          <t>TKT-000111</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>prueba 1:05</t>
+          <t>prueba 1:15</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -2483,12 +2483,12 @@
       </c>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 19:09</t>
+          <t>07/07/2025 19:19</t>
         </is>
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:38</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="H40" s="6" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="J40" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 12:38</t>
+          <t>10/07/2025 02:51</t>
         </is>
       </c>
       <c r="K40" s="6" t="inlineStr">
@@ -2515,7 +2515,7 @@
     <row r="41">
       <c r="A41" s="5" t="inlineStr">
         <is>
-          <t>TKT-000109</t>
+          <t>TKT-000110</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>otra prueba</t>
+          <t>prueba 1:05</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="F41" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 18:14</t>
+          <t>07/07/2025 19:09</t>
         </is>
       </c>
       <c r="G41" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 14:31</t>
+          <t>11/07/2025 12:38</t>
         </is>
       </c>
       <c r="H41" s="6" t="inlineStr">
@@ -2560,19 +2560,19 @@
       </c>
       <c r="J41" s="6" t="inlineStr">
         <is>
-          <t>11/07/2025 14:31</t>
+          <t>11/07/2025 12:38</t>
         </is>
       </c>
       <c r="K41" s="6" t="inlineStr">
         <is>
-          <t>descripcion de la resolucion</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="inlineStr">
         <is>
-          <t>TKT-000108</t>
+          <t>TKT-000109</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>prueba de ticket 7 de julio</t>
+          <t>otra prueba</t>
         </is>
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="F42" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 18:04</t>
+          <t>07/07/2025 18:14</t>
         </is>
       </c>
       <c r="G42" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 21:35</t>
+          <t>11/07/2025 14:31</t>
         </is>
       </c>
       <c r="H42" s="6" t="inlineStr">
@@ -2617,19 +2617,19 @@
       </c>
       <c r="J42" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 21:35</t>
+          <t>11/07/2025 14:31</t>
         </is>
       </c>
       <c r="K42" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion</t>
+          <t>descripcion de la resolucion</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
         <is>
-          <t>TKT-000107</t>
+          <t>TKT-000108</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>dsds</t>
+          <t>prueba de ticket 7 de julio</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -2654,12 +2654,12 @@
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 17:44</t>
+          <t>07/07/2025 18:04</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:00</t>
+          <t>12/07/2025 21:35</t>
         </is>
       </c>
       <c r="H43" s="6" t="inlineStr">
@@ -2674,19 +2674,19 @@
       </c>
       <c r="J43" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:00</t>
+          <t>12/07/2025 21:35</t>
         </is>
       </c>
       <c r="K43" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucon</t>
+          <t>prueba resolucion</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
         <is>
-          <t>TKT-000106</t>
+          <t>TKT-000107</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>dsdsdsds</t>
+          <t>dsds</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -2711,12 +2711,12 @@
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 16:34</t>
+          <t>07/07/2025 17:44</t>
         </is>
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:18</t>
+          <t>12/07/2025 23:00</t>
         </is>
       </c>
       <c r="H44" s="6" t="inlineStr">
@@ -2731,19 +2731,19 @@
       </c>
       <c r="J44" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:18</t>
+          <t>12/07/2025 23:00</t>
         </is>
       </c>
       <c r="K44" s="6" t="inlineStr">
         <is>
-          <t>TEST RESOLUTION NOTES for TKT-000106 - This should appear in email notifications</t>
+          <t>prueba resolucon</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="inlineStr">
         <is>
-          <t>TKT-000105</t>
+          <t>TKT-000106</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>dsdsdsds</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>reabierto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
@@ -2768,12 +2768,12 @@
       </c>
       <c r="F45" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 15:35</t>
+          <t>07/07/2025 16:34</t>
         </is>
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:18</t>
         </is>
       </c>
       <c r="H45" s="6" t="inlineStr">
@@ -2788,12 +2788,12 @@
       </c>
       <c r="J45" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:18</t>
         </is>
       </c>
       <c r="K45" s="6" t="inlineStr">
         <is>
-          <t>resolucion 2</t>
+          <t>TEST RESOLUTION NOTES for TKT-000106 - This should appear in email notifications</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t>TKT-000104</t>
+          <t>TKT-000105</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>dsdds</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr">
         <is>
-          <t>asignado</t>
+          <t>reabierto</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="F47" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 04:18</t>
+          <t>07/07/2025 15:35</t>
         </is>
       </c>
       <c r="G47" s="6" t="inlineStr">
@@ -2907,14 +2907,14 @@
       </c>
       <c r="K47" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>resolucion 2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>TKT-000103</t>
+          <t>TKT-000104</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>dssd</t>
+          <t>dsdds</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="F48" s="6" t="inlineStr">
         <is>
-          <t>07/07/2025 04:09</t>
+          <t>07/07/2025 04:18</t>
         </is>
       </c>
       <c r="G48" s="6" t="inlineStr">
@@ -2971,7 +2971,7 @@
     <row r="49">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>TKT-000102</t>
+          <t>TKT-000103</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>skdjlskdjksj</t>
+          <t>dssd</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="F49" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 17:06</t>
+          <t>07/07/2025 04:09</t>
         </is>
       </c>
       <c r="G49" s="6" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>TKT-000101</t>
+          <t>TKT-000102</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C50" s="6" t="inlineStr">
         <is>
-          <t>oeowiewopi</t>
+          <t>skdjlskdjksj</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -3085,7 +3085,7 @@
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
         <is>
-          <t>TKT-000100</t>
+          <t>TKT-000101</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
+          <t>oeowiewopi</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr">
@@ -3142,7 +3142,7 @@
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
         <is>
-          <t>TKT-000099</t>
+          <t>TKT-000100</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
+          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -3199,7 +3199,7 @@
     <row r="53">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>TKT-000098</t>
+          <t>TKT-000099</t>
         </is>
       </c>
       <c r="B53" s="6" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>sjdlsdjs l</t>
+          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="54">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>TKT-000097</t>
+          <t>TKT-000098</t>
         </is>
       </c>
       <c r="B54" s="6" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C54" s="6" t="inlineStr">
         <is>
-          <t>sdnsdslk</t>
+          <t>sjdlsdjs l</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
@@ -3313,7 +3313,7 @@
     <row r="55">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>TKT-000096</t>
+          <t>TKT-000097</t>
         </is>
       </c>
       <c r="B55" s="6" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>prueba potra vez</t>
+          <t>sdnsdslk</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -3370,7 +3370,7 @@
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>TKT-000095</t>
+          <t>TKT-000096</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="C56" s="6" t="inlineStr">
         <is>
-          <t>ksjlsdkjl</t>
+          <t>prueba potra vez</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="F56" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 17:05</t>
+          <t>06/07/2025 17:06</t>
         </is>
       </c>
       <c r="G56" s="6" t="inlineStr">
@@ -3427,7 +3427,7 @@
     <row r="57">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>TKT-000094</t>
+          <t>TKT-000095</t>
         </is>
       </c>
       <c r="B57" s="6" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>prueba</t>
+          <t>ksjlsdkjl</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="F57" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 16:10</t>
+          <t>06/07/2025 17:05</t>
         </is>
       </c>
       <c r="G57" s="6" t="inlineStr">
@@ -3484,17 +3484,17 @@
     <row r="58">
       <c r="A58" s="5" t="inlineStr">
         <is>
-          <t>TKT-000093</t>
+          <t>TKT-000094</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>Test Assignment Logic</t>
+          <t>prueba</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="F58" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 14:50</t>
+          <t>06/07/2025 16:10</t>
         </is>
       </c>
       <c r="G58" s="6" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="I58" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J58" s="6" t="inlineStr">
@@ -3541,7 +3541,7 @@
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
         <is>
-          <t>TKT-000092</t>
+          <t>TKT-000093</t>
         </is>
       </c>
       <c r="B59" s="6" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>asignado</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
@@ -3566,17 +3566,17 @@
       </c>
       <c r="F59" s="6" t="inlineStr">
         <is>
-          <t>06/07/2025 14:49</t>
+          <t>06/07/2025 14:50</t>
         </is>
       </c>
       <c r="G59" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:06</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H59" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Benjamin Aharonov</t>
         </is>
       </c>
       <c r="I59" s="6" t="inlineStr">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="J59" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:06</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K59" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="inlineStr">
         <is>
-          <t>TKT-000091</t>
+          <t>TKT-000092</t>
         </is>
       </c>
       <c r="B60" s="6" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="G60" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>12/07/2025 23:06</t>
         </is>
       </c>
       <c r="H60" s="6" t="inlineStr">
@@ -3643,29 +3643,29 @@
       </c>
       <c r="J60" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:12</t>
+          <t>12/07/2025 23:06</t>
         </is>
       </c>
       <c r="K60" s="6" t="inlineStr">
         <is>
-          <t>prueba resolucion 20 tickets</t>
+          <t>prueba resolucion</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="inlineStr">
         <is>
-          <t>TKT-000090</t>
+          <t>TKT-000091</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>jhkjh</t>
+          <t>Test Assignment Logic</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="F61" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:39</t>
+          <t>06/07/2025 14:49</t>
         </is>
       </c>
       <c r="G61" s="6" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I61" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J61" s="6" t="inlineStr">
@@ -3712,7 +3712,7 @@
     <row r="62">
       <c r="A62" s="5" t="inlineStr">
         <is>
-          <t>TKT-000089</t>
+          <t>TKT-000090</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C62" s="6" t="inlineStr">
         <is>
-          <t>Frontend Test Ticket</t>
+          <t>jhkjh</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
@@ -3769,17 +3769,17 @@
     <row r="63">
       <c r="A63" s="5" t="inlineStr">
         <is>
-          <t>TKT-000088</t>
+          <t>TKT-000089</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C63" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>Frontend Test Ticket</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="F63" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:38</t>
+          <t>05/07/2025 15:39</t>
         </is>
       </c>
       <c r="G63" s="6" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="I63" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J63" s="6" t="inlineStr">
@@ -3826,17 +3826,17 @@
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>TKT-000085</t>
+          <t>TKT-000088</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C64" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
@@ -3846,12 +3846,12 @@
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>baja</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F64" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:29</t>
+          <t>05/07/2025 15:38</t>
         </is>
       </c>
       <c r="G64" s="6" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="I64" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J64" s="6" t="inlineStr">
@@ -3883,17 +3883,17 @@
     <row r="65">
       <c r="A65" s="5" t="inlineStr">
         <is>
-          <t>TKT-000084</t>
+          <t>TKT-000085</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>baja</t>
         </is>
       </c>
       <c r="F65" s="6" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="I65" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J65" s="6" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="66">
       <c r="A66" s="5" t="inlineStr">
         <is>
-          <t>TKT-000083</t>
+          <t>TKT-000084</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C66" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D66" s="5" t="inlineStr">
@@ -3997,7 +3997,7 @@
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>TKT-000082</t>
+          <t>TKT-000083</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="F67" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:27</t>
+          <t>05/07/2025 15:29</t>
         </is>
       </c>
       <c r="G67" s="6" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
         <is>
-          <t>TKT-000079</t>
+          <t>TKT-000082</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C68" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="F68" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:24</t>
+          <t>05/07/2025 15:27</t>
         </is>
       </c>
       <c r="G68" s="6" t="inlineStr">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="I68" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J68" s="6" t="inlineStr">
@@ -4111,17 +4111,17 @@
     <row r="69">
       <c r="A69" s="5" t="inlineStr">
         <is>
-          <t>TKT-000078</t>
+          <t>TKT-000079</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="I69" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J69" s="6" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="70">
       <c r="A70" s="5" t="inlineStr">
         <is>
-          <t>TKT-000077</t>
+          <t>TKT-000078</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="C70" s="6" t="inlineStr">
         <is>
-          <t>VALID IDs Test Ticket</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D70" s="5" t="inlineStr">
@@ -4225,7 +4225,7 @@
     <row r="71">
       <c r="A71" s="5" t="inlineStr">
         <is>
-          <t>TKT-000076</t>
+          <t>TKT-000077</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="F71" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 15:01</t>
+          <t>05/07/2025 15:24</t>
         </is>
       </c>
       <c r="G71" s="6" t="inlineStr">
@@ -4282,7 +4282,7 @@
     <row r="72">
       <c r="A72" s="5" t="inlineStr">
         <is>
-          <t>TKT-000075</t>
+          <t>TKT-000076</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="F72" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:58</t>
+          <t>05/07/2025 15:01</t>
         </is>
       </c>
       <c r="G72" s="6" t="inlineStr">
@@ -4339,7 +4339,7 @@
     <row r="73">
       <c r="A73" s="5" t="inlineStr">
         <is>
-          <t>TKT-000074</t>
+          <t>TKT-000075</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F73" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:40</t>
+          <t>05/07/2025 14:58</t>
         </is>
       </c>
       <c r="G73" s="6" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="74">
       <c r="A74" s="5" t="inlineStr">
         <is>
-          <t>TKT-000073</t>
+          <t>TKT-000074</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F74" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:39</t>
+          <t>05/07/2025 14:40</t>
         </is>
       </c>
       <c r="G74" s="6" t="inlineStr">
@@ -4453,7 +4453,7 @@
     <row r="75">
       <c r="A75" s="5" t="inlineStr">
         <is>
-          <t>TKT-000072</t>
+          <t>TKT-000073</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>DEBUG API Test Ticket</t>
+          <t>VALID IDs Test Ticket</t>
         </is>
       </c>
       <c r="D75" s="5" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="F75" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:38</t>
+          <t>05/07/2025 14:39</t>
         </is>
       </c>
       <c r="G75" s="6" t="inlineStr">
@@ -4510,17 +4510,17 @@
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
         <is>
-          <t>TKT-000069</t>
+          <t>TKT-000072</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C76" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>DEBUG API Test Ticket</t>
         </is>
       </c>
       <c r="D76" s="5" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="F76" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:33</t>
+          <t>05/07/2025 14:38</t>
         </is>
       </c>
       <c r="G76" s="6" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="I76" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J76" s="6" t="inlineStr">
@@ -4567,17 +4567,17 @@
     <row r="77">
       <c r="A77" s="5" t="inlineStr">
         <is>
-          <t>TKT-000068</t>
+          <t>TKT-000069</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D77" s="5" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="I77" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J77" s="6" t="inlineStr">
@@ -4624,17 +4624,17 @@
     <row r="78">
       <c r="A78" s="5" t="inlineStr">
         <is>
-          <t>TKT-000067</t>
+          <t>TKT-000068</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>Lanet Systems</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C78" s="6" t="inlineStr">
         <is>
-          <t>EMAIL TICKET - Unified Numbering Test</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D78" s="5" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="I78" s="6" t="inlineStr">
         <is>
-          <t>Interlomas</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J78" s="6" t="inlineStr">
@@ -4681,17 +4681,17 @@
     <row r="79">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>TKT-000066</t>
+          <t>TKT-000067</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Lanet Systems</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
         <is>
-          <t>WEB TICKET - Unified Numbering Test</t>
+          <t>EMAIL TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D79" s="5" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="I79" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Interlomas</t>
         </is>
       </c>
       <c r="J79" s="6" t="inlineStr">
@@ -4738,7 +4738,7 @@
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>TKT-000065</t>
+          <t>TKT-000066</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
@@ -4763,12 +4763,12 @@
       </c>
       <c r="F80" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:30</t>
+          <t>05/07/2025 14:33</t>
         </is>
       </c>
       <c r="G80" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:19</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="H80" s="6" t="inlineStr">
@@ -4783,19 +4783,19 @@
       </c>
       <c r="J80" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:19</t>
+          <t>12/07/2025 23:12</t>
         </is>
       </c>
       <c r="K80" s="6" t="inlineStr">
         <is>
-          <t>prueba de que si se resolvvio ticket 65</t>
+          <t>prueba resolucion 20 tickets</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>TKT-000064</t>
+          <t>TKT-000065</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C81" s="6" t="inlineStr">
         <is>
-          <t>DIRECT ROUTE TEST - Unified Numbering</t>
+          <t>WEB TICKET - Unified Numbering Test</t>
         </is>
       </c>
       <c r="D81" s="5" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:27</t>
+          <t>12/07/2025 23:19</t>
         </is>
       </c>
       <c r="H81" s="6" t="inlineStr">
@@ -4840,19 +4840,19 @@
       </c>
       <c r="J81" s="6" t="inlineStr">
         <is>
-          <t>12/07/2025 23:27</t>
+          <t>12/07/2025 23:19</t>
         </is>
       </c>
       <c r="K81" s="6" t="inlineStr">
         <is>
-          <t>resolucion ticket 64</t>
+          <t>prueba de que si se resolvvio ticket 65</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>TKT-000063</t>
+          <t>TKT-000064</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D82" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
@@ -4877,12 +4877,12 @@
       </c>
       <c r="F82" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:28</t>
+          <t>05/07/2025 14:30</t>
         </is>
       </c>
       <c r="G82" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12/07/2025 23:27</t>
         </is>
       </c>
       <c r="H82" s="6" t="inlineStr">
@@ -4897,19 +4897,19 @@
       </c>
       <c r="J82" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>12/07/2025 23:27</t>
         </is>
       </c>
       <c r="K82" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>resolucion ticket 64</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
-          <t>TKT-000061</t>
+          <t>TKT-000063</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="C83" s="6" t="inlineStr">
         <is>
-          <t>UNIFIED NUMBERING TEST</t>
+          <t>DIRECT ROUTE TEST - Unified Numbering</t>
         </is>
       </c>
       <c r="D83" s="5" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="F83" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:27</t>
+          <t>05/07/2025 14:28</t>
         </is>
       </c>
       <c r="G83" s="6" t="inlineStr">
@@ -4966,17 +4966,17 @@
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
         <is>
-          <t>TKT-000024</t>
+          <t>TKT-000061</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C84" s="6" t="inlineStr">
         <is>
-          <t>skdjlskdjksj</t>
+          <t>UNIFIED NUMBERING TEST</t>
         </is>
       </c>
       <c r="D84" s="5" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="F84" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 14:17</t>
+          <t>05/07/2025 14:27</t>
         </is>
       </c>
       <c r="G84" s="6" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="I84" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J84" s="6" t="inlineStr">
@@ -5023,7 +5023,7 @@
     <row r="85">
       <c r="A85" s="5" t="inlineStr">
         <is>
-          <t>TKT-000023</t>
+          <t>TKT-000024</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="C85" s="6" t="inlineStr">
         <is>
-          <t>oeowiewopi</t>
+          <t>skdjlskdjksj</t>
         </is>
       </c>
       <c r="D85" s="5" t="inlineStr">
@@ -5080,7 +5080,7 @@
     <row r="86">
       <c r="A86" s="5" t="inlineStr">
         <is>
-          <t>TKT-000022</t>
+          <t>TKT-000023</t>
         </is>
       </c>
       <c r="B86" s="6" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C86" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
+          <t>oeowiewopi</t>
         </is>
       </c>
       <c r="D86" s="5" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="87">
       <c r="A87" s="5" t="inlineStr">
         <is>
-          <t>TKT-000021</t>
+          <t>TKT-000022</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="C87" s="6" t="inlineStr">
         <is>
-          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
+          <t>?UTF-8?B?c2xkc2xkc2zDsXNrZGzDsQ==?=</t>
         </is>
       </c>
       <c r="D87" s="5" t="inlineStr">
@@ -5194,7 +5194,7 @@
     <row r="88">
       <c r="A88" s="5" t="inlineStr">
         <is>
-          <t>TKT-000020</t>
+          <t>TKT-000021</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C88" s="6" t="inlineStr">
         <is>
-          <t>sjdlsdjs l</t>
+          <t>?UTF-8?Q?dlskjs=C3=B1lfkslk?=</t>
         </is>
       </c>
       <c r="D88" s="5" t="inlineStr">
@@ -5251,7 +5251,7 @@
     <row r="89">
       <c r="A89" s="5" t="inlineStr">
         <is>
-          <t>TKT-000019</t>
+          <t>TKT-000020</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C89" s="6" t="inlineStr">
         <is>
-          <t>sdnsdslk</t>
+          <t>sjdlsdjs l</t>
         </is>
       </c>
       <c r="D89" s="5" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="90">
       <c r="A90" s="5" t="inlineStr">
         <is>
-          <t>TKT-000016</t>
+          <t>TKT-000019</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="C90" s="6" t="inlineStr">
         <is>
-          <t>prueba potra vez</t>
+          <t>sdnsdslk</t>
         </is>
       </c>
       <c r="D90" s="5" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="F90" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 02:57</t>
+          <t>05/07/2025 14:17</t>
         </is>
       </c>
       <c r="G90" s="6" t="inlineStr">
@@ -5365,7 +5365,7 @@
     <row r="91">
       <c r="A91" s="5" t="inlineStr">
         <is>
-          <t>TKT-000013</t>
+          <t>TKT-000016</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="C91" s="6" t="inlineStr">
         <is>
-          <t>prueba 93839048</t>
+          <t>prueba potra vez</t>
         </is>
       </c>
       <c r="D91" s="5" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="F91" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 02:50</t>
+          <t>05/07/2025 02:57</t>
         </is>
       </c>
       <c r="G91" s="6" t="inlineStr">
@@ -5422,7 +5422,7 @@
     <row r="92">
       <c r="A92" s="5" t="inlineStr">
         <is>
-          <t>TKT-000012</t>
+          <t>TKT-000013</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="C92" s="6" t="inlineStr">
         <is>
-          <t>prueva 9348309</t>
+          <t>prueba 93839048</t>
         </is>
       </c>
       <c r="D92" s="5" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="F92" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 02:45</t>
+          <t>05/07/2025 02:50</t>
         </is>
       </c>
       <c r="G92" s="6" t="inlineStr">
@@ -5479,17 +5479,17 @@
     <row r="93">
       <c r="A93" s="5" t="inlineStr">
         <is>
-          <t>TKT-000008</t>
+          <t>TKT-000012</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>Test Sequential Ticket Number</t>
+          <t>prueva 9348309</t>
         </is>
       </c>
       <c r="D93" s="5" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="F93" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 00:59</t>
+          <t>05/07/2025 02:45</t>
         </is>
       </c>
       <c r="G93" s="6" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="I93" s="6" t="inlineStr">
         <is>
-          <t>Sucursal Polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J93" s="6" t="inlineStr">
@@ -5536,17 +5536,17 @@
     <row r="94">
       <c r="A94" s="5" t="inlineStr">
         <is>
-          <t>TKT-41FDBC9C</t>
+          <t>TKT-000008</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C94" s="6" t="inlineStr">
         <is>
-          <t>prueba 2897897</t>
+          <t>Test Sequential Ticket Number</t>
         </is>
       </c>
       <c r="D94" s="5" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="F94" s="6" t="inlineStr">
         <is>
-          <t>05/07/2025 00:33</t>
+          <t>05/07/2025 00:59</t>
         </is>
       </c>
       <c r="G94" s="6" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="I94" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Sucursal Polanco</t>
         </is>
       </c>
       <c r="J94" s="6" t="inlineStr">
@@ -5593,7 +5593,7 @@
     <row r="95">
       <c r="A95" s="5" t="inlineStr">
         <is>
-          <t>TKT-0058</t>
+          <t>TKT-41FDBC9C</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="C95" s="6" t="inlineStr">
         <is>
-          <t>prueba de screege@hotmail.com</t>
+          <t>prueba 2897897</t>
         </is>
       </c>
       <c r="D95" s="5" t="inlineStr">
         <is>
-          <t>reabierto</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E95" s="5" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="F95" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:42</t>
+          <t>05/07/2025 00:33</t>
         </is>
       </c>
       <c r="G95" s="6" t="inlineStr">
@@ -5643,14 +5643,14 @@
       </c>
       <c r="K95" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="inlineStr">
         <is>
-          <t>TKT-0057</t>
+          <t>TKT-0058</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="C96" s="6" t="inlineStr">
         <is>
-          <t>qqqwqwqw</t>
+          <t>prueba de screege@hotmail.com</t>
         </is>
       </c>
       <c r="D96" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>reabierto</t>
         </is>
       </c>
       <c r="E96" s="5" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="F96" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:37</t>
+          <t>04/07/2025 03:42</t>
         </is>
       </c>
       <c r="G96" s="6" t="inlineStr">
@@ -5700,14 +5700,14 @@
       </c>
       <c r="K96" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="inlineStr">
         <is>
-          <t>TKT-0056</t>
+          <t>TKT-0057</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>TEST NOTIFICATION ROUTING - Should notify both emails</t>
+          <t>qqqwqwqw</t>
         </is>
       </c>
       <c r="D97" s="5" t="inlineStr">
@@ -5727,12 +5727,12 @@
       </c>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F97" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:14</t>
+          <t>04/07/2025 03:37</t>
         </is>
       </c>
       <c r="G97" s="6" t="inlineStr">
@@ -5747,7 +5747,7 @@
       </c>
       <c r="I97" s="6" t="inlineStr">
         <is>
-          <t>Test Site Fixed</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J97" s="6" t="inlineStr">
@@ -5764,17 +5764,17 @@
     <row r="98">
       <c r="A98" s="5" t="inlineStr">
         <is>
-          <t>TKT-0055</t>
+          <t>TKT-0056</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C98" s="6" t="inlineStr">
         <is>
-          <t>PRUEBA FINAL SLA MONITOR - Segundo Ticket</t>
+          <t>TEST NOTIFICATION ROUTING - Should notify both emails</t>
         </is>
       </c>
       <c r="D98" s="5" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="F98" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:02</t>
+          <t>04/07/2025 03:14</t>
         </is>
       </c>
       <c r="G98" s="6" t="inlineStr">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="I98" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Test Site Fixed</t>
         </is>
       </c>
       <c r="J98" s="6" t="inlineStr">
@@ -5821,17 +5821,17 @@
     <row r="99">
       <c r="A99" s="5" t="inlineStr">
         <is>
-          <t>TKT-0054</t>
+          <t>TKT-0055</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C99" s="6" t="inlineStr">
         <is>
-          <t>sfsfs</t>
+          <t>PRUEBA FINAL SLA MONITOR - Segundo Ticket</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="E99" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F99" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 03:00</t>
+          <t>04/07/2025 03:02</t>
         </is>
       </c>
       <c r="G99" s="6" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="I99" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J99" s="6" t="inlineStr">
@@ -5878,17 +5878,17 @@
     <row r="100">
       <c r="A100" s="5" t="inlineStr">
         <is>
-          <t>TKT-0053</t>
+          <t>TKT-0054</t>
         </is>
       </c>
       <c r="B100" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C100" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION TRACE TEST - Rastreo completo del sistema</t>
+          <t>sfsfs</t>
         </is>
       </c>
       <c r="D100" s="5" t="inlineStr">
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E100" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F100" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:55</t>
+          <t>04/07/2025 03:00</t>
         </is>
       </c>
       <c r="G100" s="6" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="I100" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J100" s="6" t="inlineStr">
@@ -5935,17 +5935,17 @@
     <row r="101">
       <c r="A101" s="5" t="inlineStr">
         <is>
-          <t>TKT-0052</t>
+          <t>TKT-0053</t>
         </is>
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>Ficein Test 20250630_143536</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C101" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>NOTIFICATION TRACE TEST - Rastreo completo del sistema</t>
         </is>
       </c>
       <c r="D101" s="5" t="inlineStr">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F101" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:52</t>
+          <t>04/07/2025 02:55</t>
         </is>
       </c>
       <c r="G101" s="6" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="I101" s="6" t="inlineStr">
         <is>
-          <t>polanco</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J101" s="6" t="inlineStr">
@@ -5992,17 +5992,17 @@
     <row r="102">
       <c r="A102" s="5" t="inlineStr">
         <is>
-          <t>TKT-0051</t>
+          <t>TKT-0052</t>
         </is>
       </c>
       <c r="B102" s="6" t="inlineStr">
         <is>
-          <t>Diseno Nono Creativo</t>
+          <t>Ficein Test 20250630_143536</t>
         </is>
       </c>
       <c r="C102" s="6" t="inlineStr">
         <is>
-          <t>asasa</t>
+          <t>sdsd</t>
         </is>
       </c>
       <c r="D102" s="5" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="F102" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:45</t>
+          <t>04/07/2025 02:52</t>
         </is>
       </c>
       <c r="G102" s="6" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="I102" s="6" t="inlineStr">
         <is>
-          <t>Estudio Creativo GDL</t>
+          <t>polanco</t>
         </is>
       </c>
       <c r="J102" s="6" t="inlineStr">
@@ -6049,17 +6049,17 @@
     <row r="103">
       <c r="A103" s="5" t="inlineStr">
         <is>
-          <t>TKT-0050</t>
+          <t>TKT-0051</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Diseno Nono Creativo</t>
         </is>
       </c>
       <c r="C103" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION DEBUG TEST - Should trigger emails</t>
+          <t>asasa</t>
         </is>
       </c>
       <c r="D103" s="5" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="E103" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F103" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:44</t>
+          <t>04/07/2025 02:45</t>
         </is>
       </c>
       <c r="G103" s="6" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="I103" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Estudio Creativo GDL</t>
         </is>
       </c>
       <c r="J103" s="6" t="inlineStr">
@@ -6106,7 +6106,7 @@
     <row r="104">
       <c r="A104" s="5" t="inlineStr">
         <is>
-          <t>TKT-0049</t>
+          <t>TKT-0050</t>
         </is>
       </c>
       <c r="B104" s="6" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C104" s="6" t="inlineStr">
         <is>
-          <t>BACKWARD COMPATIBILITY TEST - Old Field Name</t>
+          <t>NOTIFICATION DEBUG TEST - Should trigger emails</t>
         </is>
       </c>
       <c r="D104" s="5" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="F104" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:35</t>
+          <t>04/07/2025 02:44</t>
         </is>
       </c>
       <c r="G104" s="6" t="inlineStr">
@@ -6163,7 +6163,7 @@
     <row r="105">
       <c r="A105" s="5" t="inlineStr">
         <is>
-          <t>TKT-0048</t>
+          <t>TKT-0049</t>
         </is>
       </c>
       <c r="B105" s="6" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="C105" s="6" t="inlineStr">
         <is>
-          <t>TEST NEW FIELDS - Phone and Email Separation</t>
+          <t>BACKWARD COMPATIBILITY TEST - Old Field Name</t>
         </is>
       </c>
       <c r="D105" s="5" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="F105" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:33</t>
+          <t>04/07/2025 02:35</t>
         </is>
       </c>
       <c r="G105" s="6" t="inlineStr">
@@ -6220,7 +6220,7 @@
     <row r="106">
       <c r="A106" s="5" t="inlineStr">
         <is>
-          <t>TKT-0047</t>
+          <t>TKT-0048</t>
         </is>
       </c>
       <c r="B106" s="6" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="F106" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 02:08</t>
+          <t>04/07/2025 02:33</t>
         </is>
       </c>
       <c r="G106" s="6" t="inlineStr">
@@ -6277,7 +6277,7 @@
     <row r="107">
       <c r="A107" s="5" t="inlineStr">
         <is>
-          <t>TKT-0046</t>
+          <t>TKT-0047</t>
         </is>
       </c>
       <c r="B107" s="6" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="C107" s="6" t="inlineStr">
         <is>
-          <t>MANUAL PROCESSING TEST - Should work with manual queue processing</t>
+          <t>TEST NEW FIELDS - Phone and Email Separation</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="F107" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:48</t>
+          <t>04/07/2025 02:08</t>
         </is>
       </c>
       <c r="G107" s="6" t="inlineStr">
@@ -6334,17 +6334,17 @@
     <row r="108">
       <c r="A108" s="5" t="inlineStr">
         <is>
-          <t>TKT-0045</t>
+          <t>TKT-0046</t>
         </is>
       </c>
       <c r="B108" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C108" s="6" t="inlineStr">
         <is>
-          <t>prueba oyra vez</t>
+          <t>MANUAL PROCESSING TEST - Should work with manual queue processing</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="E108" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F108" s="6" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="I108" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J108" s="6" t="inlineStr">
@@ -6391,7 +6391,7 @@
     <row r="109">
       <c r="A109" s="5" t="inlineStr">
         <is>
-          <t>TKT-0044</t>
+          <t>TKT-0045</t>
         </is>
       </c>
       <c r="B109" s="6" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C109" s="6" t="inlineStr">
         <is>
-          <t>7:42</t>
+          <t>prueba oyra vez</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="F109" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:43</t>
+          <t>04/07/2025 01:48</t>
         </is>
       </c>
       <c r="G109" s="6" t="inlineStr">
@@ -6448,7 +6448,7 @@
     <row r="110">
       <c r="A110" s="5" t="inlineStr">
         <is>
-          <t>TKT-0043</t>
+          <t>TKT-0044</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="C110" s="6" t="inlineStr">
         <is>
-          <t>prueba automatico</t>
+          <t>7:42</t>
         </is>
       </c>
       <c r="D110" s="5" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="F110" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:40</t>
+          <t>04/07/2025 01:43</t>
         </is>
       </c>
       <c r="G110" s="6" t="inlineStr">
@@ -6505,7 +6505,7 @@
     <row r="111">
       <c r="A111" s="5" t="inlineStr">
         <is>
-          <t>TKT-0042</t>
+          <t>TKT-0043</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="C111" s="6" t="inlineStr">
         <is>
-          <t>prueba a hotmail</t>
+          <t>prueba automatico</t>
         </is>
       </c>
       <c r="D111" s="5" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="F111" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:32</t>
+          <t>04/07/2025 01:40</t>
         </is>
       </c>
       <c r="G111" s="6" t="inlineStr">
@@ -6562,7 +6562,7 @@
     <row r="112">
       <c r="A112" s="5" t="inlineStr">
         <is>
-          <t>TKT-0041</t>
+          <t>TKT-0042</t>
         </is>
       </c>
       <c r="B112" s="6" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="C112" s="6" t="inlineStr">
         <is>
-          <t>prueba de comunciacion</t>
+          <t>prueba a hotmail</t>
         </is>
       </c>
       <c r="D112" s="5" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="F112" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:28</t>
+          <t>04/07/2025 01:32</t>
         </is>
       </c>
       <c r="G112" s="6" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="113">
       <c r="A113" s="5" t="inlineStr">
         <is>
-          <t>TKT-0040</t>
+          <t>TKT-0041</t>
         </is>
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C113" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION FIX TEST - Should trigger emails now</t>
+          <t>prueba de comunciacion</t>
         </is>
       </c>
       <c r="D113" s="5" t="inlineStr">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="E113" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F113" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:26</t>
+          <t>04/07/2025 01:28</t>
         </is>
       </c>
       <c r="G113" s="6" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="I113" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J113" s="6" t="inlineStr">
@@ -6676,17 +6676,17 @@
     <row r="114">
       <c r="A114" s="5" t="inlineStr">
         <is>
-          <t>TKT-0039</t>
+          <t>TKT-0040</t>
         </is>
       </c>
       <c r="B114" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C114" s="6" t="inlineStr">
         <is>
-          <t>prueba de ticket</t>
+          <t>NOTIFICATION FIX TEST - Should trigger emails now</t>
         </is>
       </c>
       <c r="D114" s="5" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="E114" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:21</t>
+          <t>04/07/2025 01:26</t>
         </is>
       </c>
       <c r="G114" s="6" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="I114" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J114" s="6" t="inlineStr">
@@ -6733,17 +6733,17 @@
     <row r="115">
       <c r="A115" s="5" t="inlineStr">
         <is>
-          <t>TKT-0038</t>
+          <t>TKT-0039</t>
         </is>
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C115" s="6" t="inlineStr">
         <is>
-          <t>ENHANCED LOGGING TEST - Detailed Email Processing</t>
+          <t>prueba de ticket</t>
         </is>
       </c>
       <c r="D115" s="5" t="inlineStr">
@@ -6753,12 +6753,12 @@
       </c>
       <c r="E115" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F115" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:15</t>
+          <t>04/07/2025 01:21</t>
         </is>
       </c>
       <c r="G115" s="6" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="I115" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J115" s="6" t="inlineStr">
@@ -6790,17 +6790,17 @@
     <row r="116">
       <c r="A116" s="5" t="inlineStr">
         <is>
-          <t>TKT-0037</t>
+          <t>TKT-0038</t>
         </is>
       </c>
       <c r="B116" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C116" s="6" t="inlineStr">
         <is>
-          <t>prueba ticket nuevo</t>
+          <t>ENHANCED LOGGING TEST - Detailed Email Processing</t>
         </is>
       </c>
       <c r="D116" s="5" t="inlineStr">
@@ -6810,12 +6810,12 @@
       </c>
       <c r="E116" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F116" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 01:11</t>
+          <t>04/07/2025 01:15</t>
         </is>
       </c>
       <c r="G116" s="6" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="I116" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J116" s="6" t="inlineStr">
@@ -6847,17 +6847,17 @@
     <row r="117">
       <c r="A117" s="5" t="inlineStr">
         <is>
-          <t>TKT-0036</t>
+          <t>TKT-0037</t>
         </is>
       </c>
       <c r="B117" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C117" s="6" t="inlineStr">
         <is>
-          <t>FIXED NOTIFICATION TEST - ba@lanet.mx should receive this</t>
+          <t>prueba ticket nuevo</t>
         </is>
       </c>
       <c r="D117" s="5" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="E117" s="5" t="inlineStr">
         <is>
-          <t>alta</t>
+          <t>media</t>
         </is>
       </c>
       <c r="F117" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:45</t>
+          <t>04/07/2025 01:11</t>
         </is>
       </c>
       <c r="G117" s="6" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="I117" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J117" s="6" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="118">
       <c r="A118" s="5" t="inlineStr">
         <is>
-          <t>TKT-0035</t>
+          <t>TKT-0036</t>
         </is>
       </c>
       <c r="B118" s="6" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="C118" s="6" t="inlineStr">
         <is>
-          <t>NOTIFICATION TEST - Should send to ba@lanet.mx</t>
+          <t>FIXED NOTIFICATION TEST - ba@lanet.mx should receive this</t>
         </is>
       </c>
       <c r="D118" s="5" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:38</t>
+          <t>04/07/2025 00:45</t>
         </is>
       </c>
       <c r="G118" s="6" t="inlineStr">
@@ -6961,17 +6961,17 @@
     <row r="119">
       <c r="A119" s="5" t="inlineStr">
         <is>
-          <t>TKT-0034</t>
+          <t>TKT-0035</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C119" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>NOTIFICATION TEST - Should send to ba@lanet.mx</t>
         </is>
       </c>
       <c r="D119" s="5" t="inlineStr">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="E119" s="5" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>alta</t>
         </is>
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:35</t>
+          <t>04/07/2025 00:38</t>
         </is>
       </c>
       <c r="G119" s="6" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="I119" s="6" t="inlineStr">
         <is>
-          <t>Test Site Fixed</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J119" s="6" t="inlineStr">
@@ -7018,17 +7018,17 @@
     <row r="120">
       <c r="A120" s="5" t="inlineStr">
         <is>
-          <t>TKT-0033</t>
+          <t>TKT-0034</t>
         </is>
       </c>
       <c r="B120" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C120" s="6" t="inlineStr">
         <is>
-          <t>Test Notification Ticket</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D120" s="5" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="F120" s="6" t="inlineStr">
         <is>
-          <t>04/07/2025 00:32</t>
+          <t>04/07/2025 00:35</t>
         </is>
       </c>
       <c r="G120" s="6" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="I120" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Test Site Fixed</t>
         </is>
       </c>
       <c r="J120" s="6" t="inlineStr">
@@ -7075,22 +7075,22 @@
     <row r="121">
       <c r="A121" s="5" t="inlineStr">
         <is>
-          <t>TKT-0032</t>
+          <t>TKT-0033</t>
         </is>
       </c>
       <c r="B121" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
       <c r="C121" s="6" t="inlineStr">
         <is>
-          <t>prueba ticket</t>
+          <t>Test Notification Ticket</t>
         </is>
       </c>
       <c r="D121" s="5" t="inlineStr">
         <is>
-          <t>asignado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E121" s="5" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="F121" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 23:59</t>
+          <t>04/07/2025 00:32</t>
         </is>
       </c>
       <c r="G121" s="6" t="inlineStr">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="H121" s="6" t="inlineStr">
         <is>
-          <t>Carlos Rodriguez Tech</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="I121" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>Oficina Principal CDMX</t>
         </is>
       </c>
       <c r="J121" s="6" t="inlineStr">
@@ -7132,22 +7132,22 @@
     <row r="122">
       <c r="A122" s="5" t="inlineStr">
         <is>
-          <t>TKT-0031</t>
+          <t>TKT-0032</t>
         </is>
       </c>
       <c r="B122" s="6" t="inlineStr">
         <is>
-          <t>Ficein Test 20250630_143536</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C122" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>prueba ticket</t>
         </is>
       </c>
       <c r="D122" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>asignado</t>
         </is>
       </c>
       <c r="E122" s="5" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 23:20</t>
+          <t>03/07/2025 23:59</t>
         </is>
       </c>
       <c r="G122" s="6" t="inlineStr">
@@ -7167,12 +7167,12 @@
       </c>
       <c r="H122" s="6" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Carlos Rodriguez Tech</t>
         </is>
       </c>
       <c r="I122" s="6" t="inlineStr">
         <is>
-          <t>polanco</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J122" s="6" t="inlineStr">
@@ -7189,17 +7189,17 @@
     <row r="123">
       <c r="A123" s="5" t="inlineStr">
         <is>
-          <t>TKT-0030</t>
+          <t>TKT-0031</t>
         </is>
       </c>
       <c r="B123" s="6" t="inlineStr">
         <is>
-          <t>Industrias Tebi</t>
+          <t>Ficein Test 20250630_143536</t>
         </is>
       </c>
       <c r="C123" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D123" s="5" t="inlineStr">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="F123" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 23:08</t>
+          <t>03/07/2025 23:20</t>
         </is>
       </c>
       <c r="G123" s="6" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="I123" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>polanco</t>
         </is>
       </c>
       <c r="J123" s="6" t="inlineStr">
@@ -7246,7 +7246,7 @@
     <row r="124">
       <c r="A124" s="5" t="inlineStr">
         <is>
-          <t>TKT-0029</t>
+          <t>TKT-0030</t>
         </is>
       </c>
       <c r="B124" s="6" t="inlineStr">
@@ -7256,12 +7256,12 @@
       </c>
       <c r="C124" s="6" t="inlineStr">
         <is>
-          <t>FIXED - File Upload Test</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D124" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E124" s="5" t="inlineStr">
@@ -7271,12 +7271,12 @@
       </c>
       <c r="F124" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:31</t>
+          <t>03/07/2025 23:08</t>
         </is>
       </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:21</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H124" s="6" t="inlineStr">
@@ -7291,19 +7291,19 @@
       </c>
       <c r="J124" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:21</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K124" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="inlineStr">
         <is>
-          <t>TKT-0028</t>
+          <t>TKT-0029</t>
         </is>
       </c>
       <c r="B125" s="6" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="C125" s="6" t="inlineStr">
         <is>
-          <t>Backend Debug Test Final</t>
+          <t>FIXED - File Upload Test</t>
         </is>
       </c>
       <c r="D125" s="5" t="inlineStr">
@@ -7328,12 +7328,12 @@
       </c>
       <c r="F125" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:29</t>
+          <t>03/07/2025 18:31</t>
         </is>
       </c>
       <c r="G125" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:13</t>
+          <t>03/07/2025 19:21</t>
         </is>
       </c>
       <c r="H125" s="6" t="inlineStr">
@@ -7348,19 +7348,19 @@
       </c>
       <c r="J125" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:13</t>
+          <t>03/07/2025 19:21</t>
         </is>
       </c>
       <c r="K125" s="6" t="inlineStr">
         <is>
-          <t>ticket resuelto</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="inlineStr">
         <is>
-          <t>TKT-0027</t>
+          <t>TKT-0028</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="C126" s="6" t="inlineStr">
         <is>
-          <t>Debug Output Test</t>
+          <t>Backend Debug Test Final</t>
         </is>
       </c>
       <c r="D126" s="5" t="inlineStr">
@@ -7385,12 +7385,12 @@
       </c>
       <c r="F126" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:22</t>
+          <t>03/07/2025 18:29</t>
         </is>
       </c>
       <c r="G126" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:23</t>
+          <t>03/07/2025 19:13</t>
         </is>
       </c>
       <c r="H126" s="6" t="inlineStr">
@@ -7405,19 +7405,19 @@
       </c>
       <c r="J126" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:23</t>
+          <t>03/07/2025 19:13</t>
         </is>
       </c>
       <c r="K126" s="6" t="inlineStr">
         <is>
-          <t>Problema resuelto. Se realizó la depuración del sistema y se corrigieron los errores encontrados. El sistema está funcionando correctamente.</t>
+          <t>ticket resuelto</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="inlineStr">
         <is>
-          <t>TKT-0026</t>
+          <t>TKT-0027</t>
         </is>
       </c>
       <c r="B127" s="6" t="inlineStr">
@@ -7427,12 +7427,12 @@
       </c>
       <c r="C127" s="6" t="inlineStr">
         <is>
-          <t>Backend Debug Test</t>
+          <t>Debug Output Test</t>
         </is>
       </c>
       <c r="D127" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E127" s="5" t="inlineStr">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="F127" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:20</t>
+          <t>03/07/2025 18:22</t>
         </is>
       </c>
       <c r="G127" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:25</t>
+          <t>03/07/2025 19:23</t>
         </is>
       </c>
       <c r="H127" s="6" t="inlineStr">
@@ -7462,19 +7462,19 @@
       </c>
       <c r="J127" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 19:25</t>
+          <t>03/07/2025 19:23</t>
         </is>
       </c>
       <c r="K127" s="6" t="inlineStr">
         <is>
-          <t>Problema resuelto mediante configuración del backend. Se ajustaron los parámetros de debug y se verificó el funcionamiento correcto del sistema.</t>
+          <t>Problema resuelto. Se realizó la depuración del sistema y se corrigieron los errores encontrados. El sistema está funcionando correctamente.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="inlineStr">
         <is>
-          <t>TKT-0025</t>
+          <t>TKT-0026</t>
         </is>
       </c>
       <c r="B128" s="6" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="C128" s="6" t="inlineStr">
         <is>
-          <t>Debug Console Test</t>
+          <t>Backend Debug Test</t>
         </is>
       </c>
       <c r="D128" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E128" s="5" t="inlineStr">
@@ -7499,12 +7499,12 @@
       </c>
       <c r="F128" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:16</t>
+          <t>03/07/2025 18:20</t>
         </is>
       </c>
       <c r="G128" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>03/07/2025 19:25</t>
         </is>
       </c>
       <c r="H128" s="6" t="inlineStr">
@@ -7519,19 +7519,19 @@
       </c>
       <c r="J128" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>03/07/2025 19:25</t>
         </is>
       </c>
       <c r="K128" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>Problema resuelto mediante configuración del backend. Se ajustaron los parámetros de debug y se verificó el funcionamiento correcto del sistema.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="inlineStr">
         <is>
-          <t>TKT-0024</t>
+          <t>TKT-0025</t>
         </is>
       </c>
       <c r="B129" s="6" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="C129" s="6" t="inlineStr">
         <is>
-          <t>Final Debug Test</t>
+          <t>Debug Console Test</t>
         </is>
       </c>
       <c r="D129" s="5" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="F129" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:13</t>
+          <t>03/07/2025 18:16</t>
         </is>
       </c>
       <c r="G129" s="6" t="inlineStr">
@@ -7588,7 +7588,7 @@
     <row r="130">
       <c r="A130" s="5" t="inlineStr">
         <is>
-          <t>TKT-0023</t>
+          <t>TKT-0024</t>
         </is>
       </c>
       <c r="B130" s="6" t="inlineStr">
@@ -7598,12 +7598,12 @@
       </c>
       <c r="C130" s="6" t="inlineStr">
         <is>
-          <t>Debug Attachment Test</t>
+          <t>Final Debug Test</t>
         </is>
       </c>
       <c r="D130" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E130" s="5" t="inlineStr">
@@ -7613,12 +7613,12 @@
       </c>
       <c r="F130" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:08</t>
+          <t>03/07/2025 18:13</t>
         </is>
       </c>
       <c r="G130" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:18</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H130" s="6" t="inlineStr">
@@ -7633,19 +7633,19 @@
       </c>
       <c r="J130" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:18</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K130" s="6" t="inlineStr">
         <is>
-          <t>sdsdsds</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="inlineStr">
         <is>
-          <t>TKT-0022</t>
+          <t>TKT-0023</t>
         </is>
       </c>
       <c r="B131" s="6" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="C131" s="6" t="inlineStr">
         <is>
-          <t>Test Ticket with Attachment</t>
+          <t>Debug Attachment Test</t>
         </is>
       </c>
       <c r="D131" s="5" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="F131" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 18:00</t>
+          <t>03/07/2025 18:08</t>
         </is>
       </c>
       <c r="G131" s="6" t="inlineStr">
@@ -7695,14 +7695,14 @@
       </c>
       <c r="K131" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>sdsdsds</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="inlineStr">
         <is>
-          <t>TKT-0021</t>
+          <t>TKT-0022</t>
         </is>
       </c>
       <c r="B132" s="6" t="inlineStr">
@@ -7712,47 +7712,47 @@
       </c>
       <c r="C132" s="6" t="inlineStr">
         <is>
+          <t>Test Ticket with Attachment</t>
+        </is>
+      </c>
+      <c r="D132" s="5" t="inlineStr">
+        <is>
+          <t>cerrado</t>
+        </is>
+      </c>
+      <c r="E132" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F132" s="6" t="inlineStr">
+        <is>
+          <t>03/07/2025 18:00</t>
+        </is>
+      </c>
+      <c r="G132" s="6" t="inlineStr">
+        <is>
+          <t>08/07/2025 11:18</t>
+        </is>
+      </c>
+      <c r="H132" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I132" s="6" t="inlineStr">
+        <is>
+          <t>Naucalpan</t>
+        </is>
+      </c>
+      <c r="J132" s="6" t="inlineStr">
+        <is>
+          <t>08/07/2025 11:18</t>
+        </is>
+      </c>
+      <c r="K132" s="6" t="inlineStr">
+        <is>
           <t>sdsds</t>
-        </is>
-      </c>
-      <c r="D132" s="5" t="inlineStr">
-        <is>
-          <t>resuelto</t>
-        </is>
-      </c>
-      <c r="E132" s="5" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="F132" s="6" t="inlineStr">
-        <is>
-          <t>03/07/2025 17:57</t>
-        </is>
-      </c>
-      <c r="G132" s="6" t="inlineStr">
-        <is>
-          <t>03/07/2025 17:58</t>
-        </is>
-      </c>
-      <c r="H132" s="6" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="I132" s="6" t="inlineStr">
-        <is>
-          <t>Naucalpan</t>
-        </is>
-      </c>
-      <c r="J132" s="6" t="inlineStr">
-        <is>
-          <t>03/07/2025 17:58</t>
-        </is>
-      </c>
-      <c r="K132" s="6" t="inlineStr">
-        <is>
-          <t>sdsdsds</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
     <row r="134">
       <c r="A134" s="5" t="inlineStr">
         <is>
-          <t>TKT-0020</t>
+          <t>TKT-0021</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="D134" s="5" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E134" s="5" t="inlineStr">
@@ -7841,12 +7841,12 @@
       </c>
       <c r="F134" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:45</t>
+          <t>03/07/2025 17:57</t>
         </is>
       </c>
       <c r="G134" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:17</t>
+          <t>03/07/2025 17:58</t>
         </is>
       </c>
       <c r="H134" s="6" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="J134" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:17</t>
+          <t>03/07/2025 17:58</t>
         </is>
       </c>
       <c r="K134" s="6" t="inlineStr">
@@ -7873,7 +7873,7 @@
     <row r="135">
       <c r="A135" s="5" t="inlineStr">
         <is>
-          <t>TKT-0019</t>
+          <t>TKT-0020</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="C135" s="6" t="inlineStr">
         <is>
-          <t>sdhksldj</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D135" s="5" t="inlineStr">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="F135" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:41</t>
+          <t>03/07/2025 16:45</t>
         </is>
       </c>
       <c r="G135" s="6" t="inlineStr">
@@ -7923,14 +7923,14 @@
       </c>
       <c r="K135" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>sdsdsds</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="5" t="inlineStr">
         <is>
-          <t>TKT-0018</t>
+          <t>TKT-0019</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="C136" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>sdhksldj</t>
         </is>
       </c>
       <c r="D136" s="5" t="inlineStr">
@@ -7955,12 +7955,12 @@
       </c>
       <c r="F136" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:36</t>
+          <t>03/07/2025 16:41</t>
         </is>
       </c>
       <c r="G136" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:16</t>
+          <t>08/07/2025 11:17</t>
         </is>
       </c>
       <c r="H136" s="6" t="inlineStr">
@@ -7975,19 +7975,19 @@
       </c>
       <c r="J136" s="6" t="inlineStr">
         <is>
-          <t>08/07/2025 11:16</t>
+          <t>08/07/2025 11:17</t>
         </is>
       </c>
       <c r="K136" s="6" t="inlineStr">
         <is>
-          <t>sdsd</t>
+          <t>sdsds</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="inlineStr">
         <is>
-          <t>TKT-0017</t>
+          <t>TKT-0018</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
@@ -7997,12 +7997,12 @@
       </c>
       <c r="C137" s="6" t="inlineStr">
         <is>
-          <t>prueba 4839048</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D137" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E137" s="5" t="inlineStr">
@@ -8012,12 +8012,12 @@
       </c>
       <c r="F137" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:33</t>
+          <t>03/07/2025 16:36</t>
         </is>
       </c>
       <c r="G137" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>08/07/2025 11:16</t>
         </is>
       </c>
       <c r="H137" s="6" t="inlineStr">
@@ -8032,19 +8032,19 @@
       </c>
       <c r="J137" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>08/07/2025 11:16</t>
         </is>
       </c>
       <c r="K137" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>sdsd</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="5" t="inlineStr">
         <is>
-          <t>TKT-0016</t>
+          <t>TKT-0017</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="C138" s="6" t="inlineStr">
         <is>
-          <t>prueba adjunto 5</t>
+          <t>prueba 4839048</t>
         </is>
       </c>
       <c r="D138" s="5" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="F138" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:31</t>
+          <t>03/07/2025 16:33</t>
         </is>
       </c>
       <c r="G138" s="6" t="inlineStr">
@@ -8101,7 +8101,7 @@
     <row r="139">
       <c r="A139" s="5" t="inlineStr">
         <is>
-          <t>TKT-0015</t>
+          <t>TKT-0016</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="C139" s="6" t="inlineStr">
         <is>
-          <t>prueba de adjunto 4</t>
+          <t>prueba adjunto 5</t>
         </is>
       </c>
       <c r="D139" s="5" t="inlineStr">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="F139" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:27</t>
+          <t>03/07/2025 16:31</t>
         </is>
       </c>
       <c r="G139" s="6" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="140">
       <c r="A140" s="5" t="inlineStr">
         <is>
-          <t>TKT-0014</t>
+          <t>TKT-0015</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="C140" s="6" t="inlineStr">
         <is>
-          <t>prueba adjunto 2</t>
+          <t>prueba de adjunto 4</t>
         </is>
       </c>
       <c r="D140" s="5" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="F140" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:20</t>
+          <t>03/07/2025 16:27</t>
         </is>
       </c>
       <c r="G140" s="6" t="inlineStr">
@@ -8215,7 +8215,7 @@
     <row r="141">
       <c r="A141" s="5" t="inlineStr">
         <is>
-          <t>TKT-0013</t>
+          <t>TKT-0014</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="C141" s="6" t="inlineStr">
         <is>
-          <t>prueba adjunto</t>
+          <t>prueba adjunto 2</t>
         </is>
       </c>
       <c r="D141" s="5" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="F141" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 16:17</t>
+          <t>03/07/2025 16:20</t>
         </is>
       </c>
       <c r="G141" s="6" t="inlineStr">
@@ -8272,7 +8272,7 @@
     <row r="142">
       <c r="A142" s="5" t="inlineStr">
         <is>
-          <t>TKT-0012</t>
+          <t>TKT-0013</t>
         </is>
       </c>
       <c r="B142" s="6" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="C142" s="6" t="inlineStr">
         <is>
-          <t>prueba 10 am</t>
+          <t>prueba adjunto</t>
         </is>
       </c>
       <c r="D142" s="5" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="F142" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:59</t>
+          <t>03/07/2025 16:17</t>
         </is>
       </c>
       <c r="G142" s="6" t="inlineStr">
@@ -8329,7 +8329,7 @@
     <row r="143">
       <c r="A143" s="5" t="inlineStr">
         <is>
-          <t>TKT-0011</t>
+          <t>TKT-0012</t>
         </is>
       </c>
       <c r="B143" s="6" t="inlineStr">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="C143" s="6" t="inlineStr">
         <is>
-          <t>prueba 40</t>
+          <t>prueba 10 am</t>
         </is>
       </c>
       <c r="D143" s="5" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="F143" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:53</t>
+          <t>03/07/2025 15:59</t>
         </is>
       </c>
       <c r="G143" s="6" t="inlineStr">
@@ -8386,7 +8386,7 @@
     <row r="144">
       <c r="A144" s="5" t="inlineStr">
         <is>
-          <t>TKT-0010</t>
+          <t>TKT-0011</t>
         </is>
       </c>
       <c r="B144" s="6" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C144" s="6" t="inlineStr">
         <is>
-          <t>sdsdsd</t>
+          <t>prueba 40</t>
         </is>
       </c>
       <c r="D144" s="5" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="F144" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:52</t>
+          <t>03/07/2025 15:53</t>
         </is>
       </c>
       <c r="G144" s="6" t="inlineStr">
@@ -8443,7 +8443,7 @@
     <row r="145">
       <c r="A145" s="5" t="inlineStr">
         <is>
-          <t>TKT-0009</t>
+          <t>TKT-0010</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="C145" s="6" t="inlineStr">
         <is>
-          <t>jkjlk</t>
+          <t>sdsdsd</t>
         </is>
       </c>
       <c r="D145" s="5" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="F145" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:36</t>
+          <t>03/07/2025 15:52</t>
         </is>
       </c>
       <c r="G145" s="6" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="I145" s="6" t="inlineStr">
         <is>
-          <t>API Test Site</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J145" s="6" t="inlineStr">
@@ -8500,7 +8500,7 @@
     <row r="146">
       <c r="A146" s="5" t="inlineStr">
         <is>
-          <t>TKT-0008</t>
+          <t>TKT-0009</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="C146" s="6" t="inlineStr">
         <is>
-          <t>ssdsd</t>
+          <t>jkjlk</t>
         </is>
       </c>
       <c r="D146" s="5" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="F146" s="6" t="inlineStr">
         <is>
-          <t>03/07/2025 15:16</t>
+          <t>03/07/2025 15:36</t>
         </is>
       </c>
       <c r="G146" s="6" t="inlineStr">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="I146" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>API Test Site</t>
         </is>
       </c>
       <c r="J146" s="6" t="inlineStr">
@@ -8557,7 +8557,7 @@
     <row r="147">
       <c r="A147" s="5" t="inlineStr">
         <is>
-          <t>TKT-0007</t>
+          <t>TKT-0008</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="C147" s="6" t="inlineStr">
         <is>
-          <t>sdsds</t>
+          <t>ssdsd</t>
         </is>
       </c>
       <c r="D147" s="5" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="F147" s="6" t="inlineStr">
         <is>
-          <t>02/07/2025 02:02</t>
+          <t>03/07/2025 15:16</t>
         </is>
       </c>
       <c r="G147" s="6" t="inlineStr">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="I147" s="6" t="inlineStr">
         <is>
-          <t>API Test Site</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J147" s="6" t="inlineStr">
@@ -8614,7 +8614,7 @@
     <row r="148">
       <c r="A148" s="5" t="inlineStr">
         <is>
-          <t>TKT-0006</t>
+          <t>TKT-0007</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr">
@@ -8624,12 +8624,12 @@
       </c>
       <c r="C148" s="6" t="inlineStr">
         <is>
-          <t>prueba api test site</t>
+          <t>sdsds</t>
         </is>
       </c>
       <c r="D148" s="5" t="inlineStr">
         <is>
-          <t>resuelto</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E148" s="5" t="inlineStr">
@@ -8639,12 +8639,12 @@
       </c>
       <c r="F148" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 18:48</t>
+          <t>02/07/2025 02:02</t>
         </is>
       </c>
       <c r="G148" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H148" s="6" t="inlineStr">
@@ -8659,12 +8659,12 @@
       </c>
       <c r="J148" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 23:17</t>
+          <t>Sin fecha</t>
         </is>
       </c>
       <c r="K148" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Sin resolución</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="K149" s="6" t="inlineStr">
         <is>
-          <t>prueba de resolucion 40</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8842,7 +8842,7 @@
     <row r="152">
       <c r="A152" s="5" t="inlineStr">
         <is>
-          <t>TKT-0005</t>
+          <t>TKT-0006</t>
         </is>
       </c>
       <c r="B152" s="6" t="inlineStr">
@@ -8852,12 +8852,12 @@
       </c>
       <c r="C152" s="6" t="inlineStr">
         <is>
-          <t>sdjhsjdsh</t>
+          <t>prueba api test site</t>
         </is>
       </c>
       <c r="D152" s="5" t="inlineStr">
         <is>
-          <t>en_proceso</t>
+          <t>resuelto</t>
         </is>
       </c>
       <c r="E152" s="5" t="inlineStr">
@@ -8867,12 +8867,12 @@
       </c>
       <c r="F152" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:37</t>
+          <t>01/07/2025 18:48</t>
         </is>
       </c>
       <c r="G152" s="6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="H152" s="6" t="inlineStr">
@@ -8882,39 +8882,39 @@
       </c>
       <c r="I152" s="6" t="inlineStr">
         <is>
-          <t>Naucalpan</t>
+          <t>API Test Site</t>
         </is>
       </c>
       <c r="J152" s="6" t="inlineStr">
         <is>
-          <t>Sin fecha</t>
+          <t>01/07/2025 23:17</t>
         </is>
       </c>
       <c r="K152" s="6" t="inlineStr">
         <is>
-          <t>Sin resolución</t>
+          <t>prueba de resolucion 40</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="5" t="inlineStr">
         <is>
-          <t>TKT-0004</t>
+          <t>TKT-0005</t>
         </is>
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>Cafe Mexico S.A. de C.V.</t>
+          <t>Industrias Tebi</t>
         </is>
       </c>
       <c r="C153" s="6" t="inlineStr">
         <is>
-          <t>Test desde Python</t>
+          <t>sdjhsjdsh</t>
         </is>
       </c>
       <c r="D153" s="5" t="inlineStr">
         <is>
-          <t>nuevo</t>
+          <t>en_proceso</t>
         </is>
       </c>
       <c r="E153" s="5" t="inlineStr">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="F153" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:12</t>
+          <t>01/07/2025 17:37</t>
         </is>
       </c>
       <c r="G153" s="6" t="inlineStr">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="I153" s="6" t="inlineStr">
         <is>
-          <t>Oficina Principal CDMX</t>
+          <t>Naucalpan</t>
         </is>
       </c>
       <c r="J153" s="6" t="inlineStr">
@@ -8956,7 +8956,7 @@
     <row r="154">
       <c r="A154" s="5" t="inlineStr">
         <is>
-          <t>TKT-0003</t>
+          <t>TKT-0004</t>
         </is>
       </c>
       <c r="B154" s="6" t="inlineStr">
@@ -8966,7 +8966,7 @@
       </c>
       <c r="C154" s="6" t="inlineStr">
         <is>
-          <t>Ticket de Prueba #3</t>
+          <t>Test desde Python</t>
         </is>
       </c>
       <c r="D154" s="5" t="inlineStr">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="F154" s="6" t="inlineStr">
         <is>
-          <t>01/07/2025 17:09</t>
+          <t>01/07/2025 17:12</t>
         </is>
       </c>
       <c r="G154" s="6" t="inlineStr">
@@ -9013,7 +9013,7 @@
     <row r="155">
       <c r="A155" s="5" t="inlineStr">
         <is>
-          <t>TKT-0002</t>
+          <t>TKT-0003</t>
         </is>
       </c>
       <c r="B155" s="6" t="inlineStr">
@@ -9023,12 +9023,12 @@
       </c>
       <c r="C155" s="6" t="inlineStr">
         <is>
-          <t>Ticket de Prueba #2</t>
+          <t>Ticket de Prueba #3</t>
         </is>
       </c>
       <c r="D155" s="5" t="inlineStr">
         <is>
-          <t>en_proceso</t>
+          <t>nuevo</t>
         </is>
       </c>
       <c r="E155" s="5" t="inlineStr">
@@ -9070,55 +9070,112 @@
     <row r="156">
       <c r="A156" s="5" t="inlineStr">
         <is>
+          <t>TKT-0002</t>
+        </is>
+      </c>
+      <c r="B156" s="6" t="inlineStr">
+        <is>
+          <t>Cafe Mexico S.A. de C.V.</t>
+        </is>
+      </c>
+      <c r="C156" s="6" t="inlineStr">
+        <is>
+          <t>Ticket de Prueba #2</t>
+        </is>
+      </c>
+      <c r="D156" s="5" t="inlineStr">
+        <is>
+          <t>en_proceso</t>
+        </is>
+      </c>
+      <c r="E156" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F156" s="6" t="inlineStr">
+        <is>
+          <t>01/07/2025 17:09</t>
+        </is>
+      </c>
+      <c r="G156" s="6" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H156" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I156" s="6" t="inlineStr">
+        <is>
+          <t>Oficina Principal CDMX</t>
+        </is>
+      </c>
+      <c r="J156" s="6" t="inlineStr">
+        <is>
+          <t>Sin fecha</t>
+        </is>
+      </c>
+      <c r="K156" s="6" t="inlineStr">
+        <is>
+          <t>Sin resolución</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="inlineStr">
+        <is>
           <t>TKT-0001</t>
         </is>
       </c>
-      <c r="B156" s="6" t="inlineStr">
+      <c r="B157" s="6" t="inlineStr">
         <is>
           <t>Cafe Mexico S.A. de C.V.</t>
         </is>
       </c>
-      <c r="C156" s="6" t="inlineStr">
+      <c r="C157" s="6" t="inlineStr">
         <is>
           <t>Ticket de Prueba #1</t>
         </is>
       </c>
-      <c r="D156" s="5" t="inlineStr">
+      <c r="D157" s="5" t="inlineStr">
         <is>
           <t>espera_cliente</t>
         </is>
       </c>
-      <c r="E156" s="5" t="inlineStr">
-        <is>
-          <t>media</t>
-        </is>
-      </c>
-      <c r="F156" s="6" t="inlineStr">
+      <c r="E157" s="5" t="inlineStr">
+        <is>
+          <t>media</t>
+        </is>
+      </c>
+      <c r="F157" s="6" t="inlineStr">
         <is>
           <t>01/07/2025 17:09</t>
         </is>
       </c>
-      <c r="G156" s="6" t="inlineStr">
+      <c r="G157" s="6" t="inlineStr">
         <is>
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H156" s="6" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="I156" s="6" t="inlineStr">
+      <c r="H157" s="6" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="I157" s="6" t="inlineStr">
         <is>
           <t>Oficina Principal CDMX</t>
         </is>
       </c>
-      <c r="J156" s="6" t="inlineStr">
+      <c r="J157" s="6" t="inlineStr">
         <is>
           <t>Sin fecha</t>
         </is>
       </c>
-      <c r="K156" s="6" t="inlineStr">
+      <c r="K157" s="6" t="inlineStr">
         <is>
           <t>Sin resolución</t>
         </is>
